--- a/examples/Qwack - YeildCurveExample.xlsx
+++ b/examples/Qwack - YeildCurveExample.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gpb\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Code\qwack\qwack-master\examples\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="3330" windowWidth="15525" windowHeight="11955" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="555" windowWidth="19200" windowHeight="11355"/>
   </bookViews>
   <sheets>
     <sheet name="SelfDiscounting" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
     <definedName name="valDate" localSheetId="1">OisDiscounting!$C$1</definedName>
     <definedName name="valDate">SelfDiscounting!$C$1</definedName>
   </definedNames>
-  <calcPr calcId="171027" calcMode="manual" calcCompleted="0" calcOnSave="0"/>
+  <calcPr calcId="171027" calcMode="manual" calcOnSave="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -313,7 +313,7 @@
   <volType type="realTimeData">
     <main first="bloomberg.rtd">
       <tp>
-        <v>7.5025000000000004</v>
+        <v>7.6675000000000004</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>SASW2 Curncy</stp>
@@ -322,7 +322,7 @@
         <tr r="D12" s="3"/>
       </tp>
       <tp>
-        <v>7.68</v>
+        <v>7.8849999999999998</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>SASW3 Curncy</stp>
@@ -331,7 +331,7 @@
         <tr r="D13" s="3"/>
       </tp>
       <tp>
-        <v>7.8250000000000002</v>
+        <v>8.0374999999999996</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>SASW4 Curncy</stp>
@@ -340,7 +340,7 @@
         <tr r="D14" s="3"/>
       </tp>
       <tp>
-        <v>7.95</v>
+        <v>8.1850000000000005</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>SASW5 Curncy</stp>
@@ -349,7 +349,7 @@
         <tr r="D15" s="3"/>
       </tp>
       <tp>
-        <v>8.1920000000000002</v>
+        <v>8.4320000000000004</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>SASW7 Curncy</stp>
@@ -358,7 +358,7 @@
         <tr r="D16" s="3"/>
       </tp>
       <tp>
-        <v>5217</v>
+        <v>5578</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>ZAR9m Curncy</stp>
@@ -367,7 +367,7 @@
         <tr r="Q11" s="3"/>
       </tp>
       <tp>
-        <v>23734</v>
+        <v>25645</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>ZAR3y Curncy</stp>
@@ -376,7 +376,7 @@
         <tr r="Q16" s="3"/>
       </tp>
       <tp>
-        <v>14860</v>
+        <v>15920</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>ZAR2y Curncy</stp>
@@ -385,7 +385,7 @@
         <tr r="Q15" s="3"/>
       </tp>
       <tp>
-        <v>3493</v>
+        <v>3731</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>ZAR6m Curncy</stp>
@@ -394,7 +394,7 @@
         <tr r="Q10" s="3"/>
       </tp>
       <tp>
-        <v>44854</v>
+        <v>48809</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>ZAR5y Curncy</stp>
@@ -403,7 +403,7 @@
         <tr r="Q18" s="3"/>
       </tp>
       <tp>
-        <v>33946</v>
+        <v>36643</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>ZAR4y Curncy</stp>
@@ -412,7 +412,7 @@
         <tr r="Q17" s="3"/>
       </tp>
       <tp>
-        <v>8.4250000000000007</v>
+        <v>8.6649999999999991</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>SASW10 Curncy</stp>
@@ -421,7 +421,7 @@
         <tr r="D17" s="3"/>
       </tp>
       <tp>
-        <v>7.0170000000000003</v>
+        <v>7.0250000000000004</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>JIBA3M Index</stp>
@@ -429,8 +429,10 @@
         <stp>[Qwack - YeildCurveExample.xlsx]ComplexBuild!R6C4</stp>
         <tr r="D6" s="3"/>
       </tp>
-      <tp>
-        <v>14.232699999999999</v>
+    </main>
+    <main first="bloomberg.rtd">
+      <tp>
+        <v>15.1022</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>ZAR Curncy</stp>
@@ -439,7 +441,7 @@
         <tr r="Q5" s="3"/>
       </tp>
       <tp>
-        <v>2.863</v>
+        <v>2.9853999999999998</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>USSW7 Curncy</stp>
@@ -448,7 +450,7 @@
         <tr r="K16" s="3"/>
       </tp>
       <tp>
-        <v>2.7953999999999999</v>
+        <v>2.9161000000000001</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>USSW2 Curncy</stp>
@@ -457,7 +459,7 @@
         <tr r="K12" s="3"/>
       </tp>
       <tp>
-        <v>2.8378999999999999</v>
+        <v>2.9643999999999999</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>USSW3 Curncy</stp>
@@ -466,7 +468,7 @@
         <tr r="K13" s="3"/>
       </tp>
       <tp>
-        <v>2.8466999999999998</v>
+        <v>2.9748999999999999</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>USSW4 Curncy</stp>
@@ -475,7 +477,7 @@
         <tr r="K14" s="3"/>
       </tp>
       <tp>
-        <v>2.8500999999999999</v>
+        <v>2.9759000000000002</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>USSW5 Curncy</stp>
@@ -484,7 +486,7 @@
         <tr r="K15" s="3"/>
       </tp>
       <tp>
-        <v>97.165000000000006</v>
+        <v>97.045000000000002</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>EDM9 Comdty</stp>
@@ -493,7 +495,7 @@
         <tr r="K10" s="3"/>
       </tp>
       <tp>
-        <v>97.105000000000004</v>
+        <v>96.975000000000009</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>EDU9 Comdty</stp>
@@ -504,7 +506,7 @@
     </main>
     <main first="bloomberg.rtd">
       <tp>
-        <v>7.54</v>
+        <v>7.75</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>SAFR0I1 Curncy</stp>
@@ -513,7 +515,7 @@
         <tr r="D7" s="1"/>
       </tp>
       <tp>
-        <v>7.39</v>
+        <v>7.47</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>SAFR0FI Curncy</stp>
@@ -522,7 +524,7 @@
         <tr r="D6" s="1"/>
       </tp>
       <tp>
-        <v>7.23</v>
+        <v>7.28</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>SAFR0CF Curncy</stp>
@@ -531,7 +533,7 @@
         <tr r="D5" s="1"/>
       </tp>
       <tp>
-        <v>7.64</v>
+        <v>7.85</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>SAFR011C Curncy</stp>
@@ -540,7 +542,7 @@
         <tr r="D10" s="2"/>
       </tp>
       <tp>
-        <v>7.64</v>
+        <v>7.85</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>SAFR011C Curncy</stp>
@@ -549,7 +551,7 @@
         <tr r="D10" s="3"/>
       </tp>
       <tp>
-        <v>7.74</v>
+        <v>7.98</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>SAFR1C1F Curncy</stp>
@@ -558,7 +560,7 @@
         <tr r="D11" s="3"/>
       </tp>
       <tp>
-        <v>8.4250000000000007</v>
+        <v>8.6649999999999991</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>SASW10 Curncy</stp>
@@ -567,7 +569,7 @@
         <tr r="D15" s="1"/>
       </tp>
       <tp>
-        <v>1198</v>
+        <v>1276</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>ZAR2m Curncy</stp>
@@ -576,7 +578,7 @@
         <tr r="Q8" s="3"/>
       </tp>
       <tp>
-        <v>1744</v>
+        <v>1902</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>ZAR3m Curncy</stp>
@@ -585,7 +587,7 @@
         <tr r="Q9" s="3"/>
       </tp>
       <tp>
-        <v>593</v>
+        <v>667</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>ZAR1m Curncy</stp>
@@ -594,7 +596,7 @@
         <tr r="Q7" s="3"/>
       </tp>
       <tp>
-        <v>7.0170000000000003</v>
+        <v>7.0250000000000004</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>JIBA3M Index</stp>
@@ -603,7 +605,7 @@
         <tr r="D4" s="1"/>
       </tp>
       <tp>
-        <v>7.64</v>
+        <v>7.85</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>SAFR011C Curncy</stp>
@@ -612,7 +614,7 @@
         <tr r="D8" s="1"/>
       </tp>
       <tp>
-        <v>7.39</v>
+        <v>7.47</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>SAFR0FI Curncy</stp>
@@ -621,7 +623,7 @@
         <tr r="D8" s="3"/>
       </tp>
       <tp>
-        <v>7.23</v>
+        <v>7.28</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>SAFR0CF Curncy</stp>
@@ -630,7 +632,7 @@
         <tr r="D7" s="3"/>
       </tp>
       <tp>
-        <v>7.54</v>
+        <v>7.75</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>SAFR0I1 Curncy</stp>
@@ -639,7 +641,7 @@
         <tr r="D9" s="3"/>
       </tp>
       <tp>
-        <v>156</v>
+        <v>151</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>ZAR1w Curncy</stp>
@@ -648,7 +650,7 @@
         <tr r="Q6" s="3"/>
       </tp>
       <tp>
-        <v>8.1920000000000002</v>
+        <v>8.4320000000000004</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>SASW7 Curncy</stp>
@@ -657,7 +659,7 @@
         <tr r="D14" s="1"/>
       </tp>
       <tp>
-        <v>8.4250000000000007</v>
+        <v>8.6649999999999991</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>SASW10 Curncy</stp>
@@ -666,7 +668,7 @@
         <tr r="D17" s="2"/>
       </tp>
       <tp>
-        <v>7.68</v>
+        <v>7.8849999999999998</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>SASW3 Curncy</stp>
@@ -675,7 +677,7 @@
         <tr r="D11" s="1"/>
       </tp>
       <tp>
-        <v>7.5025000000000004</v>
+        <v>7.6675000000000004</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>SASW2 Curncy</stp>
@@ -684,7 +686,7 @@
         <tr r="D10" s="1"/>
       </tp>
       <tp>
-        <v>7.95</v>
+        <v>8.1850000000000005</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>SASW5 Curncy</stp>
@@ -693,7 +695,7 @@
         <tr r="D13" s="1"/>
       </tp>
       <tp>
-        <v>7.8250000000000002</v>
+        <v>8.0374999999999996</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>SASW4 Curncy</stp>
@@ -702,7 +704,7 @@
         <tr r="D12" s="1"/>
       </tp>
       <tp>
-        <v>2.9005999999999998</v>
+        <v>3.0169999999999999</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>USSW10 Curncy</stp>
@@ -711,7 +713,7 @@
         <tr r="K17" s="3"/>
       </tp>
       <tp>
-        <v>6995</v>
+        <v>7477</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>ZAR12m Curncy</stp>
@@ -720,7 +722,7 @@
         <tr r="Q12" s="3"/>
       </tp>
       <tp>
-        <v>8960</v>
+        <v>9535</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>ZAR15m Curncy</stp>
@@ -729,7 +731,7 @@
         <tr r="Q13" s="3"/>
       </tp>
       <tp>
-        <v>10853</v>
+        <v>11493</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>ZAR18m Curncy</stp>
@@ -738,7 +740,7 @@
         <tr r="Q14" s="3"/>
       </tp>
       <tp>
-        <v>7.74</v>
+        <v>7.98</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>SAFR1C1F Curncy</stp>
@@ -747,7 +749,7 @@
         <tr r="D11" s="2"/>
       </tp>
       <tp>
-        <v>7.0170000000000003</v>
+        <v>7.0250000000000004</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>JIBA3M Index</stp>
@@ -756,7 +758,7 @@
         <tr r="D6" s="2"/>
       </tp>
       <tp>
-        <v>7.95</v>
+        <v>8.1850000000000005</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>SASW5 Curncy</stp>
@@ -765,7 +767,7 @@
         <tr r="D15" s="2"/>
       </tp>
       <tp>
-        <v>7.8250000000000002</v>
+        <v>8.0374999999999996</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>SASW4 Curncy</stp>
@@ -774,7 +776,7 @@
         <tr r="D14" s="2"/>
       </tp>
       <tp>
-        <v>8.1920000000000002</v>
+        <v>8.4320000000000004</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>SASW7 Curncy</stp>
@@ -783,7 +785,7 @@
         <tr r="D16" s="2"/>
       </tp>
       <tp>
-        <v>7.74</v>
+        <v>7.98</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>SAFR1C1F Curncy</stp>
@@ -792,7 +794,7 @@
         <tr r="D9" s="1"/>
       </tp>
       <tp>
-        <v>7.68</v>
+        <v>7.8849999999999998</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>SASW3 Curncy</stp>
@@ -801,7 +803,7 @@
         <tr r="D13" s="2"/>
       </tp>
       <tp>
-        <v>7.5025000000000004</v>
+        <v>7.6675000000000004</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>SASW2 Curncy</stp>
@@ -810,7 +812,7 @@
         <tr r="D12" s="2"/>
       </tp>
       <tp>
-        <v>97.655000000000001</v>
+        <v>97.647500000000008</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>EDU8 Comdty</stp>
@@ -819,7 +821,7 @@
         <tr r="K7" s="3"/>
       </tp>
       <tp>
-        <v>97.41</v>
+        <v>97.335000000000008</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>EDZ8 Comdty</stp>
@@ -828,7 +830,7 @@
         <tr r="K8" s="3"/>
       </tp>
       <tp>
-        <v>97.27</v>
+        <v>97.17</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>EDH9 Comdty</stp>
@@ -837,7 +839,7 @@
         <tr r="K9" s="3"/>
       </tp>
       <tp>
-        <v>7.23</v>
+        <v>7.28</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>SAFR0CF Curncy</stp>
@@ -846,7 +848,7 @@
         <tr r="D7" s="2"/>
       </tp>
       <tp>
-        <v>7.39</v>
+        <v>7.47</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>SAFR0FI Curncy</stp>
@@ -855,7 +857,7 @@
         <tr r="D8" s="2"/>
       </tp>
       <tp>
-        <v>7.54</v>
+        <v>7.75</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>SAFR0I1 Curncy</stp>
@@ -864,7 +866,7 @@
         <tr r="D9" s="2"/>
       </tp>
       <tp>
-        <v>2.3113799999999998</v>
+        <v>2.3342499999999999</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>US0003M Index</stp>
@@ -1176,8 +1178,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:J37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1193,7 +1195,7 @@
       </c>
       <c r="C1" s="2">
         <f ca="1">TODAY()</f>
-        <v>43334</v>
+        <v>43354</v>
       </c>
     </row>
     <row r="2" spans="2:10" x14ac:dyDescent="0.25">
@@ -1201,8 +1203,8 @@
         <v>25</v>
       </c>
       <c r="C2" t="str">
-        <f ca="1">_xll.QIns_CreateRateIndex("ZAR.JIBAR.3M","ZAR","3M","Act365F","Act365F","3M","JHB","0b","MF")</f>
-        <v>ZAR.JIBAR.3M¬0</v>
+        <f>_xll.QIns_CreateRateIndex("ZAR.JIBAR.3M","ZAR","3M","Act365F","Act365F","3M","JHB","0b","MF")</f>
+        <v>ZAR.JIBAR.3M¬2</v>
       </c>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.25">
@@ -1221,12 +1223,12 @@
         <v>1</v>
       </c>
       <c r="D4">
-        <f ca="1">_xll.BDP(C4,"PX_LAST")</f>
-        <v>7.0170000000000003</v>
+        <f>_xll.BDP(C4,"PX_LAST")</f>
+        <v>7.0250000000000004</v>
       </c>
       <c r="E4" s="1">
-        <f ca="1">D4/100</f>
-        <v>7.017000000000001E-2</v>
+        <f>D4/100</f>
+        <v>7.0250000000000007E-2</v>
       </c>
       <c r="F4" t="str">
         <f ca="1">_xll.QIns_CreateFRA(B4,valDate,"0x3",index,"ZAR",E4,1,"ZAR.JIBAR.3M","ZAR.JIBAR.3M",,,"ZAR.JIBAR.3M")</f>
@@ -1234,7 +1236,7 @@
       </c>
       <c r="H4" s="2">
         <f ca="1">valDate</f>
-        <v>43334</v>
+        <v>43354</v>
       </c>
       <c r="I4" s="1">
         <f ca="1">_xll.QCurves_GetDF($C$21,valDate,H4)</f>
@@ -1242,7 +1244,7 @@
       </c>
       <c r="J4" s="1">
         <f ca="1">_xll.QCurves_GetForwardRate($C$21,H4,H5,"Linear","Act365F")</f>
-        <v>7.0170000000000329E-2</v>
+        <v>7.0249999999999896E-2</v>
       </c>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.25">
@@ -1253,12 +1255,12 @@
         <v>3</v>
       </c>
       <c r="D5">
-        <f ca="1">_xll.BDP(C5,"PX_LAST")</f>
-        <v>7.16</v>
+        <f>_xll.BDP(C5,"PX_LAST")</f>
+        <v>7.28</v>
       </c>
       <c r="E5" s="1">
-        <f t="shared" ref="E5:E15" ca="1" si="0">D5/100</f>
-        <v>7.1599999999999997E-2</v>
+        <f t="shared" ref="E5:E15" si="0">D5/100</f>
+        <v>7.2800000000000004E-2</v>
       </c>
       <c r="F5" t="str">
         <f ca="1">_xll.QIns_CreateFRA(B5,valDate,B5,index,"ZAR",E5,1,"ZAR.JIBAR.3M","ZAR.JIBAR.3M",,,"ZAR.JIBAR.3M")</f>
@@ -1266,15 +1268,15 @@
       </c>
       <c r="H5" s="2">
         <f ca="1">EDATE(H4,3)</f>
-        <v>43426</v>
+        <v>43445</v>
       </c>
       <c r="I5" s="1">
         <f ca="1">_xll.QCurves_GetDF($C$21,valDate,H5)</f>
-        <v>0.98262069731933532</v>
+        <v>0.98278708994723252</v>
       </c>
       <c r="J5" s="1">
         <f ca="1">_xll.QCurves_GetForwardRate($C$21,H5,H6,"Linear","Act365F")</f>
-        <v>7.1599999999999497E-2</v>
+        <v>7.2800000000000517E-2</v>
       </c>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.25">
@@ -1285,12 +1287,12 @@
         <v>5</v>
       </c>
       <c r="D6">
-        <f ca="1">_xll.BDP(C6,"PX_LAST")</f>
-        <v>7.4</v>
+        <f>_xll.BDP(C6,"PX_LAST")</f>
+        <v>7.47</v>
       </c>
       <c r="E6" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>7.400000000000001E-2</v>
+        <f t="shared" si="0"/>
+        <v>7.4700000000000003E-2</v>
       </c>
       <c r="F6" t="str">
         <f ca="1">_xll.QIns_CreateFRA(B6,valDate,B6,index,"ZAR",E6,1,"ZAR.JIBAR.3M","ZAR.JIBAR.3M",,,"ZAR.JIBAR.3M")</f>
@@ -1298,15 +1300,15 @@
       </c>
       <c r="H6" s="2">
         <f t="shared" ref="H6:H37" ca="1" si="1">EDATE(H5,3)</f>
-        <v>43518</v>
+        <v>43535</v>
       </c>
       <c r="I6" s="1">
         <f ca="1">_xll.QCurves_GetDF($C$21,valDate,H6)</f>
-        <v>0.96520158531175826</v>
+        <v>0.96545648477397461</v>
       </c>
       <c r="J6" s="1">
         <f ca="1">_xll.QCurves_GetForwardRate($C$21,H6,H7,"Linear","Act365F")</f>
-        <v>7.4000000000000676E-2</v>
+        <v>7.4699999999999475E-2</v>
       </c>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.25">
@@ -1317,12 +1319,12 @@
         <v>7</v>
       </c>
       <c r="D7">
-        <f ca="1">_xll.BDP(C7,"PX_LAST")</f>
-        <v>7.52</v>
+        <f>_xll.BDP(C7,"PX_LAST")</f>
+        <v>7.75</v>
       </c>
       <c r="E7" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>7.5199999999999989E-2</v>
+        <f t="shared" si="0"/>
+        <v>7.7499999999999999E-2</v>
       </c>
       <c r="F7" t="str">
         <f ca="1">_xll.QIns_CreateFRA(B7,valDate,B7,index,"ZAR",E7,1,"ZAR.JIBAR.3M","ZAR.JIBAR.3M",,,"ZAR.JIBAR.3M")</f>
@@ -1330,15 +1332,15 @@
       </c>
       <c r="H7" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>43607</v>
+        <v>43627</v>
       </c>
       <c r="I7" s="1">
         <f ca="1">_xll.QCurves_GetDF($C$21,valDate,H7)</f>
-        <v>0.94809432712425046</v>
+        <v>0.94761433476240986</v>
       </c>
       <c r="J7" s="1">
         <f ca="1">_xll.QCurves_GetForwardRate($C$21,H7,H8,"Linear","Act365F")</f>
-        <v>7.5199999999999614E-2</v>
+        <v>7.7500000000000249E-2</v>
       </c>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.25">
@@ -1349,12 +1351,12 @@
         <v>9</v>
       </c>
       <c r="D8">
-        <f ca="1">_xll.BDP(C8,"PX_LAST")</f>
-        <v>7.65</v>
+        <f>_xll.BDP(C8,"PX_LAST")</f>
+        <v>7.85</v>
       </c>
       <c r="E8" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>7.6499999999999999E-2</v>
+        <f t="shared" si="0"/>
+        <v>7.85E-2</v>
       </c>
       <c r="F8" t="str">
         <f ca="1">_xll.QIns_CreateFRA(B8,valDate,B8,index,"ZAR",E8,1,"ZAR.JIBAR.3M","ZAR.JIBAR.3M",,,"ZAR.JIBAR.3M")</f>
@@ -1362,15 +1364,15 @@
       </c>
       <c r="H8" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>43699</v>
+        <v>43719</v>
       </c>
       <c r="I8" s="1">
         <f ca="1">_xll.QCurves_GetDF($C$21,valDate,H8)</f>
-        <v>0.93045794292605954</v>
+        <v>0.92945807161013505</v>
       </c>
       <c r="J8" s="1">
         <f ca="1">_xll.QCurves_GetForwardRate($C$21,H8,H9,"Linear","Act365F")</f>
-        <v>7.6500000000000845E-2</v>
+        <v>7.8500000000000139E-2</v>
       </c>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.25">
@@ -1381,12 +1383,12 @@
         <v>11</v>
       </c>
       <c r="D9">
-        <f ca="1">_xll.BDP(C9,"PX_LAST")</f>
-        <v>7.75</v>
+        <f>_xll.BDP(C9,"PX_LAST")</f>
+        <v>7.98</v>
       </c>
       <c r="E9" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>7.7499999999999999E-2</v>
+        <f t="shared" si="0"/>
+        <v>7.980000000000001E-2</v>
       </c>
       <c r="F9" t="str">
         <f ca="1">_xll.QIns_CreateFRA(B9,valDate,B9,index,"ZAR",E9,1,"ZAR.JIBAR.3M","ZAR.JIBAR.3M",,,"ZAR.JIBAR.3M")</f>
@@ -1394,15 +1396,15 @@
       </c>
       <c r="H9" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>43791</v>
+        <v>43810</v>
       </c>
       <c r="I9" s="1">
         <f ca="1">_xll.QCurves_GetDF($C$21,valDate,H9)</f>
-        <v>0.91285607698141502</v>
+        <v>0.91161661062923127</v>
       </c>
       <c r="J9" s="1">
         <f ca="1">_xll.QCurves_GetForwardRate($C$21,H9,H10,"Linear","Act365F")</f>
-        <v>7.7469167918313916E-2</v>
+        <v>7.9799999999999524E-2</v>
       </c>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.25">
@@ -1413,12 +1415,12 @@
         <v>18</v>
       </c>
       <c r="D10">
-        <f ca="1">_xll.BDP(C10,"PX_LAST")</f>
-        <v>7.5011000000000001</v>
+        <f>_xll.BDP(C10,"PX_LAST")</f>
+        <v>7.6675000000000004</v>
       </c>
       <c r="E10" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>7.5010999999999994E-2</v>
+        <f t="shared" si="0"/>
+        <v>7.6675000000000007E-2</v>
       </c>
       <c r="F10" t="str">
         <f ca="1">_xll.QIns_CreateIRS(B10,valDate,B10,index,E10,1,"ZAR.JIBAR.3M","ZAR.JIBAR.3M","Pay","ZAR.JIBAR.3M")</f>
@@ -1426,15 +1428,15 @@
       </c>
       <c r="H10" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>43883</v>
+        <v>43901</v>
       </c>
       <c r="I10" s="1">
         <f ca="1">_xll.QCurves_GetDF($C$21,valDate,H10)</f>
-        <v>0.89537260599451418</v>
+        <v>0.89383348729219447</v>
       </c>
       <c r="J10" s="1">
         <f ca="1">_xll.QCurves_GetForwardRate($C$21,H10,H11,"Linear","Act365F")</f>
-        <v>7.7488744366608339E-2</v>
+        <v>7.9871749394926736E-2</v>
       </c>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.25">
@@ -1445,12 +1447,12 @@
         <v>19</v>
       </c>
       <c r="D11">
-        <f ca="1">_xll.BDP(C11,"PX_LAST")</f>
-        <v>7.665</v>
+        <f>_xll.BDP(C11,"PX_LAST")</f>
+        <v>7.8849999999999998</v>
       </c>
       <c r="E11" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>7.6649999999999996E-2</v>
+        <f t="shared" si="0"/>
+        <v>7.8850000000000003E-2</v>
       </c>
       <c r="F11" t="str">
         <f ca="1">_xll.QIns_CreateIRS(B11,valDate,B11,index,E11,1,"ZAR.JIBAR.3M","ZAR.JIBAR.3M","Pay","ZAR.JIBAR.3M")</f>
@@ -1458,15 +1460,15 @@
       </c>
       <c r="H11" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>43973</v>
+        <v>43993</v>
       </c>
       <c r="I11" s="1">
         <f ca="1">_xll.QCurves_GetDF($C$21,valDate,H11)</f>
-        <v>0.87858563398454104</v>
+        <v>0.8761939013918475</v>
       </c>
       <c r="J11" s="1">
         <f ca="1">_xll.QCurves_GetForwardRate($C$21,H11,H12,"Linear","Act365F")</f>
-        <v>7.8424947968223038E-2</v>
+        <v>8.1101602740768955E-2</v>
       </c>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.25">
@@ -1477,12 +1479,12 @@
         <v>20</v>
       </c>
       <c r="D12">
-        <f ca="1">_xll.BDP(C12,"PX_LAST")</f>
-        <v>7.8250000000000002</v>
+        <f>_xll.BDP(C12,"PX_LAST")</f>
+        <v>8.0374999999999996</v>
       </c>
       <c r="E12" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>7.825E-2</v>
+        <f t="shared" si="0"/>
+        <v>8.0375000000000002E-2</v>
       </c>
       <c r="F12" t="str">
         <f ca="1">_xll.QIns_CreateIRS(B12,valDate,B12,index,E12,1,"ZAR.JIBAR.3M","ZAR.JIBAR.3M","Pay","ZAR.JIBAR.3M")</f>
@@ -1490,15 +1492,15 @@
       </c>
       <c r="H12" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>44065</v>
+        <v>44085</v>
       </c>
       <c r="I12" s="1">
         <f ca="1">_xll.QCurves_GetDF($C$21,valDate,H12)</f>
-        <v>0.86155494639673402</v>
+        <v>0.85864151057744242</v>
       </c>
       <c r="J12" s="1">
         <f ca="1">_xll.QCurves_GetForwardRate($C$21,H12,H13,"Linear","Act365F")</f>
-        <v>7.9067865836743079E-2</v>
+        <v>8.1978269089647698E-2</v>
       </c>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.25">
@@ -1509,12 +1511,12 @@
         <v>21</v>
       </c>
       <c r="D13">
-        <f ca="1">_xll.BDP(C13,"PX_LAST")</f>
-        <v>7.96</v>
+        <f>_xll.BDP(C13,"PX_LAST")</f>
+        <v>8.1850000000000005</v>
       </c>
       <c r="E13" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>7.9600000000000004E-2</v>
+        <f t="shared" si="0"/>
+        <v>8.1850000000000006E-2</v>
       </c>
       <c r="F13" t="str">
         <f ca="1">_xll.QIns_CreateIRS(B13,valDate,B13,index,E13,1,"ZAR.JIBAR.3M","ZAR.JIBAR.3M","Pay","ZAR.JIBAR.3M")</f>
@@ -1522,15 +1524,15 @@
       </c>
       <c r="H13" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>44157</v>
+        <v>44176</v>
       </c>
       <c r="I13" s="1">
         <f ca="1">_xll.QCurves_GetDF($C$21,valDate,H13)</f>
-        <v>0.84472015132092648</v>
+        <v>0.84144373204931644</v>
       </c>
       <c r="J13" s="1">
         <f ca="1">_xll.QCurves_GetForwardRate($C$21,H13,H14,"Linear","Act365F")</f>
-        <v>7.994589798955154E-2</v>
+        <v>8.3104663499671924E-2</v>
       </c>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.25">
@@ -1541,12 +1543,12 @@
         <v>22</v>
       </c>
       <c r="D14">
-        <f ca="1">_xll.BDP(C14,"PX_LAST")</f>
-        <v>8.1920000000000002</v>
+        <f>_xll.BDP(C14,"PX_LAST")</f>
+        <v>8.4320000000000004</v>
       </c>
       <c r="E14" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>8.1920000000000007E-2</v>
+        <f t="shared" si="0"/>
+        <v>8.4320000000000006E-2</v>
       </c>
       <c r="F14" t="str">
         <f ca="1">_xll.QIns_CreateIRS(B14,valDate,B14,index,E14,1,"ZAR.JIBAR.3M","ZAR.JIBAR.3M","Pay","ZAR.JIBAR.3M")</f>
@@ -1554,15 +1556,15 @@
       </c>
       <c r="H14" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>44249</v>
+        <v>44266</v>
       </c>
       <c r="I14" s="1">
         <f ca="1">_xll.QCurves_GetDF($C$21,valDate,H14)</f>
-        <v>0.82803463497496432</v>
+        <v>0.82454746743597507</v>
       </c>
       <c r="J14" s="1">
         <f ca="1">_xll.QCurves_GetForwardRate($C$21,H14,H15,"Linear","Act365F")</f>
-        <v>8.0789217608552386E-2</v>
+        <v>8.4266104091386851E-2</v>
       </c>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.25">
@@ -1573,12 +1575,12 @@
         <v>23</v>
       </c>
       <c r="D15">
-        <f ca="1">_xll.BDP(C15,"PX_LAST")</f>
-        <v>8.4250000000000007</v>
+        <f>_xll.BDP(C15,"PX_LAST")</f>
+        <v>8.6649999999999991</v>
       </c>
       <c r="E15" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>8.4250000000000005E-2</v>
+        <f t="shared" si="0"/>
+        <v>8.6649999999999991E-2</v>
       </c>
       <c r="F15" t="str">
         <f ca="1">_xll.QIns_CreateIRS(B15,valDate,B15,index,E15,1,"ZAR.JIBAR.3M","ZAR.JIBAR.3M","Pay","ZAR.JIBAR.3M")</f>
@@ -1586,43 +1588,43 @@
       </c>
       <c r="H15" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>44338</v>
+        <v>44358</v>
       </c>
       <c r="I15" s="1">
         <f ca="1">_xll.QCurves_GetDF($C$21,valDate,H15)</f>
-        <v>0.81203806275982171</v>
+        <v>0.80739858348183668</v>
       </c>
       <c r="J15" s="1">
         <f ca="1">_xll.QCurves_GetForwardRate($C$21,H15,H16,"Linear","Act365F")</f>
-        <v>8.1686032833747743E-2</v>
+        <v>8.5421632387186405E-2</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.25">
       <c r="H16" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>44430</v>
+        <v>44450</v>
       </c>
       <c r="I16" s="1">
         <f ca="1">_xll.QCurves_GetDF($C$21,valDate,H16)</f>
-        <v>0.79565601758430948</v>
+        <v>0.79038094509962142</v>
       </c>
       <c r="J16" s="1">
         <f ca="1">_xll.QCurves_GetForwardRate($C$21,H16,H17,"Linear","Act365F")</f>
-        <v>8.2618410818129068E-2</v>
+        <v>8.460048509444576E-2</v>
       </c>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.25">
       <c r="H17" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>44522</v>
+        <v>44541</v>
       </c>
       <c r="I17" s="1">
         <f ca="1">_xll.QCurves_GetDF($C$21,valDate,H17)</f>
-        <v>0.77942498596862275</v>
+        <v>0.774054452557149</v>
       </c>
       <c r="J17" s="1">
         <f ca="1">_xll.QCurves_GetForwardRate($C$21,H17,H18,"Linear","Act365F")</f>
-        <v>8.3511327979375022E-2</v>
+        <v>8.5380739265794231E-2</v>
       </c>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.25">
@@ -1635,29 +1637,29 @@
       </c>
       <c r="H18" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>44614</v>
+        <v>44631</v>
       </c>
       <c r="I18" s="1">
         <f ca="1">_xll.QCurves_GetDF($C$21,valDate,H18)</f>
-        <v>0.76335676079848302</v>
+        <v>0.75809445300971323</v>
       </c>
       <c r="J18" s="1">
         <f ca="1">_xll.QCurves_GetForwardRate($C$21,H18,H19,"Linear","Act365F")</f>
-        <v>8.4360349100794332E-2</v>
+        <v>8.6236371577449941E-2</v>
       </c>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.25">
       <c r="H19" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>44703</v>
+        <v>44723</v>
       </c>
       <c r="I19" s="1">
         <f ca="1">_xll.QCurves_GetDF($C$21,valDate,H19)</f>
-        <v>0.74797095507525335</v>
+        <v>0.74196684579782812</v>
       </c>
       <c r="J19" s="1">
         <f ca="1">_xll.QCurves_GetForwardRate($C$21,H19,H20,"Linear","Act365F")</f>
-        <v>8.5267670041701341E-2</v>
+        <v>8.7081527057995781E-2</v>
       </c>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.25">
@@ -1670,15 +1672,15 @@
       </c>
       <c r="H20" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>44815</v>
       </c>
       <c r="I20" s="1">
         <f ca="1">_xll.QCurves_GetDF($C$21,valDate,H20)</f>
-        <v>0.73223369689459428</v>
+        <v>0.72603096247953336</v>
       </c>
       <c r="J20" s="1">
         <f ca="1">_xll.QCurves_GetForwardRate($C$21,H20,H21,"Linear","Act365F")</f>
-        <v>8.5153757620580597E-2</v>
+        <v>8.7947310259188172E-2</v>
       </c>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.25">
@@ -1691,231 +1693,231 @@
       </c>
       <c r="H21" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>44887</v>
+        <v>44906</v>
       </c>
       <c r="I21" s="1">
         <f ca="1">_xll.QCurves_GetDF($C$21,valDate,H21)</f>
-        <v>0.71684769876415089</v>
+        <v>0.71045314781967528</v>
       </c>
       <c r="J21" s="1">
         <f ca="1">_xll.QCurves_GetForwardRate($C$21,H21,H22,"Linear","Act365F")</f>
-        <v>8.5927439531162192E-2</v>
+        <v>8.8772686046287491E-2</v>
       </c>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.25">
       <c r="H22" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>44979</v>
+        <v>44996</v>
       </c>
       <c r="I22" s="1">
         <f ca="1">_xll.QCurves_GetDF($C$21,valDate,H22)</f>
-        <v>0.70165104358334918</v>
+        <v>0.69523503994663294</v>
       </c>
       <c r="J22" s="1">
         <f ca="1">_xll.QCurves_GetForwardRate($C$21,H22,H23,"Linear","Act365F")</f>
-        <v>8.6657997658933936E-2</v>
+        <v>8.9634838704093639E-2</v>
       </c>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.25">
       <c r="H23" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>45068</v>
+        <v>45088</v>
       </c>
       <c r="I23" s="1">
         <f ca="1">_xll.QCurves_GetDF($C$21,valDate,H23)</f>
-        <v>0.6871317394745865</v>
+        <v>0.67987470494515023</v>
       </c>
       <c r="J23" s="1">
         <f ca="1">_xll.QCurves_GetForwardRate($C$21,H23,H24,"Linear","Act365F")</f>
-        <v>8.7450005775096679E-2</v>
+        <v>9.0484968847432831E-2</v>
       </c>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.25">
       <c r="H24" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>45160</v>
+        <v>45180</v>
       </c>
       <c r="I24" s="1">
         <f ca="1">_xll.QCurves_GetDF($C$21,valDate,H24)</f>
-        <v>0.67231249748963118</v>
+        <v>0.66471444934458246</v>
       </c>
       <c r="J24" s="1">
         <f ca="1">_xll.QCurves_GetForwardRate($C$21,H24,H25,"Linear","Act365F")</f>
-        <v>8.7324940933519321E-2</v>
+        <v>9.0249987387566927E-2</v>
       </c>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.25">
       <c r="H25" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>45252</v>
+        <v>45271</v>
       </c>
       <c r="I25" s="1">
         <f ca="1">_xll.QCurves_GetDF($C$21,valDate,H25)</f>
-        <v>0.6578331491010796</v>
+        <v>0.65008704755370206</v>
       </c>
       <c r="J25" s="1">
         <f ca="1">_xll.QCurves_GetForwardRate($C$21,H25,H26,"Linear","Act365F")</f>
-        <v>8.8012769599913124E-2</v>
+        <v>9.0989270807947636E-2</v>
       </c>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.25">
       <c r="H26" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>45344</v>
+        <v>45362</v>
       </c>
       <c r="I26" s="1">
         <f ca="1">_xll.QCurves_GetDF($C$21,valDate,H26)</f>
-        <v>0.64355646635102792</v>
+        <v>0.63566694526279222</v>
       </c>
       <c r="J26" s="1">
         <f ca="1">_xll.QCurves_GetForwardRate($C$21,H26,H27,"Linear","Act365F")</f>
-        <v>8.8671846889556857E-2</v>
+        <v>9.1744191907840791E-2</v>
       </c>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.25">
       <c r="H27" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>45434</v>
+        <v>45454</v>
       </c>
       <c r="I27" s="1">
         <f ca="1">_xll.QCurves_GetDF($C$21,valDate,H27)</f>
-        <v>0.62978662823466547</v>
+        <v>0.62129966181796603</v>
       </c>
       <c r="J27" s="1">
         <f ca="1">_xll.QCurves_GetForwardRate($C$21,H27,H28,"Linear","Act365F")</f>
-        <v>8.9373817883785442E-2</v>
+        <v>9.24920568440461E-2</v>
       </c>
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.25">
       <c r="H28" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>45526</v>
+        <v>45546</v>
       </c>
       <c r="I28" s="1">
         <f ca="1">_xll.QCurves_GetDF($C$21,valDate,H28)</f>
-        <v>0.61591191926790001</v>
+        <v>0.60714524443066853</v>
       </c>
       <c r="J28" s="1">
         <f ca="1">_xll.QCurves_GetForwardRate($C$21,H28,H29,"Linear","Act365F")</f>
-        <v>9.0061994114898361E-2</v>
+        <v>9.3224179010840597E-2</v>
       </c>
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.25">
       <c r="H29" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>45618</v>
+        <v>45637</v>
       </c>
       <c r="I29" s="1">
         <f ca="1">_xll.QCurves_GetDF($C$21,valDate,H29)</f>
-        <v>0.6022407192396908</v>
+        <v>0.59335438749119573</v>
       </c>
       <c r="J29" s="1">
         <f ca="1">_xll.QCurves_GetForwardRate($C$21,H29,H30,"Linear","Act365F")</f>
-        <v>9.0750287085951564E-2</v>
+        <v>9.3947933818461185E-2</v>
       </c>
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.25">
       <c r="H30" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>45710</v>
+        <v>45727</v>
       </c>
       <c r="I30" s="1">
         <f ca="1">_xll.QCurves_GetDF($C$21,valDate,H30)</f>
-        <v>0.58877309694646707</v>
+        <v>0.57992039017810371</v>
       </c>
       <c r="J30" s="1">
         <f ca="1">_xll.QCurves_GetForwardRate($C$21,H30,H31,"Linear","Act365F")</f>
-        <v>9.1393389160542154E-2</v>
+        <v>9.4712075928632344E-2</v>
       </c>
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.25">
       <c r="H31" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>45799</v>
+        <v>45819</v>
       </c>
       <c r="I31" s="1">
         <f ca="1">_xll.QCurves_GetDF($C$21,valDate,H31)</f>
-        <v>0.57593833229952773</v>
+        <v>0.56639895586557465</v>
       </c>
       <c r="J31" s="1">
         <f ca="1">_xll.QCurves_GetForwardRate($C$21,H31,H32,"Linear","Act365F")</f>
-        <v>9.2104769533547418E-2</v>
+        <v>9.5460487674963276E-2</v>
       </c>
     </row>
     <row r="32" spans="2:10" x14ac:dyDescent="0.25">
       <c r="H32" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>45891</v>
+        <v>45911</v>
       </c>
       <c r="I32" s="1">
         <f ca="1">_xll.QCurves_GetDF($C$21,valDate,H32)</f>
-        <v>0.56287102877304229</v>
+        <v>0.55309088475855583</v>
       </c>
       <c r="J32" s="1">
         <f ca="1">_xll.QCurves_GetForwardRate($C$21,H32,H33,"Linear","Act365F")</f>
-        <v>9.0176372879796754E-2</v>
+        <v>9.2661905221587765E-2</v>
       </c>
     </row>
     <row r="33" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H33" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>45983</v>
+        <v>46002</v>
       </c>
       <c r="I33" s="1">
         <f ca="1">_xll.QCurves_GetDF($C$21,valDate,H33)</f>
-        <v>0.55036164585905145</v>
+        <v>0.54060189478624432</v>
       </c>
       <c r="J33" s="1">
         <f ca="1">_xll.QCurves_GetForwardRate($C$21,H33,H34,"Linear","Act365F")</f>
-        <v>9.0682937307914491E-2</v>
+        <v>9.3144509356420324E-2</v>
       </c>
     </row>
     <row r="34" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H34" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>46075</v>
+        <v>46092</v>
       </c>
       <c r="I34" s="1">
         <f ca="1">_xll.QCurves_GetDF($C$21,valDate,H34)</f>
-        <v>0.53806310037759819</v>
+        <v>0.52846457527431079</v>
       </c>
       <c r="J34" s="1">
         <f ca="1">_xll.QCurves_GetForwardRate($C$21,H34,H35,"Linear","Act365F")</f>
-        <v>9.1147404163035156E-2</v>
+        <v>9.3665420316010106E-2</v>
       </c>
     </row>
     <row r="35" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H35" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>46164</v>
+        <v>46184</v>
       </c>
       <c r="I35" s="1">
         <f ca="1">_xll.QCurves_GetDF($C$21,valDate,H35)</f>
-        <v>0.52636465462368365</v>
+        <v>0.51627591111097348</v>
       </c>
       <c r="J35" s="1">
         <f ca="1">_xll.QCurves_GetForwardRate($C$21,H35,H36,"Linear","Act365F")</f>
-        <v>9.1679732369493352E-2</v>
+        <v>9.4168264565581722E-2</v>
       </c>
     </row>
     <row r="36" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H36" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>46256</v>
+        <v>46276</v>
       </c>
       <c r="I36" s="1">
         <f ca="1">_xll.QCurves_GetDF($C$21,valDate,H36)</f>
-        <v>0.51447598102616843</v>
+        <v>0.50430592624150583</v>
       </c>
       <c r="J36" s="1">
         <f ca="1">_xll.QCurves_GetForwardRate($C$21,H36,H37,"Linear","Act365F")</f>
-        <v>9.2186484483558331E-2</v>
+        <v>9.4656258397491214E-2</v>
       </c>
     </row>
     <row r="37" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H37" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>46348</v>
+        <v>46367</v>
       </c>
     </row>
   </sheetData>
@@ -1945,7 +1947,7 @@
       </c>
       <c r="C1" s="2">
         <f ca="1">TODAY()</f>
-        <v>43334</v>
+        <v>43354</v>
       </c>
     </row>
     <row r="2" spans="2:11" x14ac:dyDescent="0.25">
@@ -1953,7 +1955,7 @@
         <v>25</v>
       </c>
       <c r="C2" t="str">
-        <f ca="1">_xll.QIns_CreateRateIndex("ZAR.JIBAR.3M","ZAR","3M","Act365F","Act365F","3M","JHB","0b","MF")</f>
+        <f>_xll.QIns_CreateRateIndex("ZAR.JIBAR.3M","ZAR","3M","Act365F","Act365F","3M","JHB","0b","MF")</f>
         <v>ZAR.JIBAR.3M¬1</v>
       </c>
       <c r="I2" s="3"/>
@@ -1963,7 +1965,7 @@
         <v>31</v>
       </c>
       <c r="C3" t="str">
-        <f ca="1">_xll.QIns_CreateRateIndex("ZAR.OIS.1B","ZAR","3M","Act365F","Act365F","3M","JHB","0b","MF")</f>
+        <f>_xll.QIns_CreateRateIndex("ZAR.OIS.1B","ZAR","3M","Act365F","Act365F","3M","JHB","0b","MF")</f>
         <v>ZAR.OIS.1B¬1</v>
       </c>
       <c r="I3" t="s">
@@ -1979,7 +1981,7 @@
     <row r="4" spans="2:11" x14ac:dyDescent="0.25">
       <c r="H4" s="2">
         <f ca="1">valDate</f>
-        <v>43334</v>
+        <v>43354</v>
       </c>
       <c r="I4" s="1">
         <f ca="1">_xll.QCurves_GetDF($C$32,valDate,H4)</f>
@@ -1987,7 +1989,7 @@
       </c>
       <c r="J4" s="1">
         <f ca="1">_xll.QCurves_GetForwardRate($C$32,H4,H5,"Linear","Act365F")</f>
-        <v>7.0170000000000329E-2</v>
+        <v>7.0250000000000784E-2</v>
       </c>
       <c r="K4" s="1">
         <f ca="1">_xll.QCurves_GetDF($C$33,valDate,H4)</f>
@@ -1997,19 +1999,19 @@
     <row r="5" spans="2:11" x14ac:dyDescent="0.25">
       <c r="H5" s="2">
         <f ca="1">EDATE(H4,3)</f>
-        <v>43426</v>
+        <v>43445</v>
       </c>
       <c r="I5" s="1">
         <f ca="1">_xll.QCurves_GetDF($C$32,valDate,H5)</f>
-        <v>0.98262069731933521</v>
+        <v>0.9827870899472323</v>
       </c>
       <c r="J5" s="1">
         <f ca="1">_xll.QCurves_GetForwardRate($C$32,H5,H6,"Linear","Act365F")</f>
-        <v>7.1599999999999497E-2</v>
+        <v>7.2799999999999629E-2</v>
       </c>
       <c r="K5" s="1">
         <f ca="1">_xll.QCurves_GetDF($C$33,valDate,H5)</f>
-        <v>0.98359514210713139</v>
+        <v>0.98375125916792172</v>
       </c>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.25">
@@ -2020,32 +2022,32 @@
         <v>1</v>
       </c>
       <c r="D6">
-        <f ca="1">_xll.BDP(C6,"PX_LAST")</f>
-        <v>7.0170000000000003</v>
+        <f>_xll.BDP(C6,"PX_LAST")</f>
+        <v>7.0250000000000004</v>
       </c>
       <c r="E6" s="1">
-        <f ca="1">D6/100</f>
-        <v>7.017000000000001E-2</v>
+        <f>D6/100</f>
+        <v>7.0250000000000007E-2</v>
       </c>
       <c r="F6" t="str">
         <f ca="1">_xll.QIns_CreateFRA("OISFra_"&amp;B6,valDate,"0x3",index,"ZAR",E6,1,"ZAR.JIBAR.3M","ZAR.OIS.1B",,,"ZAR.JIBAR.3M")</f>
-        <v>OISFra_3m¬1</v>
+        <v>OISFra_3m¬0</v>
       </c>
       <c r="H6" s="2">
         <f t="shared" ref="H6:H37" ca="1" si="0">EDATE(H5,3)</f>
-        <v>43518</v>
+        <v>43535</v>
       </c>
       <c r="I6" s="1">
         <f ca="1">_xll.QCurves_GetDF($C$32,valDate,H6)</f>
-        <v>0.96520158531175826</v>
+        <v>0.96545648477397461</v>
       </c>
       <c r="J6" s="1">
         <f ca="1">_xll.QCurves_GetForwardRate($C$32,H6,H7,"Linear","Act365F")</f>
-        <v>7.399999999999976E-2</v>
+        <v>7.4699999999999475E-2</v>
       </c>
       <c r="K6" s="1">
         <f ca="1">_xll.QCurves_GetDF($C$33,valDate,H6)</f>
-        <v>0.96711653618428939</v>
+        <v>0.96734091682011292</v>
       </c>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.25">
@@ -2056,32 +2058,32 @@
         <v>3</v>
       </c>
       <c r="D7">
-        <f ca="1">_xll.BDP(C7,"PX_LAST")</f>
-        <v>7.16</v>
+        <f>_xll.BDP(C7,"PX_LAST")</f>
+        <v>7.28</v>
       </c>
       <c r="E7" s="1">
-        <f t="shared" ref="E7:E17" ca="1" si="1">D7/100</f>
-        <v>7.1599999999999997E-2</v>
+        <f t="shared" ref="E7:E17" si="1">D7/100</f>
+        <v>7.2800000000000004E-2</v>
       </c>
       <c r="F7" t="str">
         <f ca="1">_xll.QIns_CreateFRA("OISFra_"&amp;B7,valDate,B7,index,"ZAR",E7,1,"ZAR.JIBAR.3M","ZAR.OIS.1B",,,"ZAR.JIBAR.3M")</f>
-        <v>OISFra_3x6¬1</v>
+        <v>OISFra_3x6¬0</v>
       </c>
       <c r="H7" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>43607</v>
+        <v>43627</v>
       </c>
       <c r="I7" s="1">
         <f ca="1">_xll.QCurves_GetDF($C$32,valDate,H7)</f>
-        <v>0.94809432712425057</v>
+        <v>0.94761433476240975</v>
       </c>
       <c r="J7" s="1">
         <f ca="1">_xll.QCurves_GetForwardRate($C$32,H7,H8,"Linear","Act365F")</f>
-        <v>7.5200000000000489E-2</v>
+        <v>7.7500000000000249E-2</v>
       </c>
       <c r="K7" s="1">
         <f ca="1">_xll.QCurves_GetDF($C$33,valDate,H7)</f>
-        <v>0.95088633921629617</v>
+        <v>0.9504044491514535</v>
       </c>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.25">
@@ -2092,32 +2094,32 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <f ca="1">_xll.BDP(C8,"PX_LAST")</f>
-        <v>7.4</v>
+        <f>_xll.BDP(C8,"PX_LAST")</f>
+        <v>7.47</v>
       </c>
       <c r="E8" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>7.400000000000001E-2</v>
+        <f t="shared" si="1"/>
+        <v>7.4700000000000003E-2</v>
       </c>
       <c r="F8" t="str">
         <f ca="1">_xll.QIns_CreateFRA("OISFra_"&amp;B8,valDate,B8,index,"ZAR",E8,1,"ZAR.JIBAR.3M","ZAR.OIS.1B",,,"ZAR.JIBAR.3M")</f>
-        <v>OISFra_6x9¬1</v>
+        <v>OISFra_6x9¬0</v>
       </c>
       <c r="H8" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>43699</v>
+        <v>43719</v>
       </c>
       <c r="I8" s="1">
         <f ca="1">_xll.QCurves_GetDF($C$32,valDate,H8)</f>
-        <v>0.93045794292605966</v>
+        <v>0.92945807161013494</v>
       </c>
       <c r="J8" s="1">
         <f ca="1">_xll.QCurves_GetForwardRate($C$32,H8,H9,"Linear","Act365F")</f>
-        <v>7.6499999999999971E-2</v>
+        <v>7.8500000000000139E-2</v>
       </c>
       <c r="K8" s="1">
         <f ca="1">_xll.QCurves_GetDF($C$33,valDate,H8)</f>
-        <v>0.93412229892350551</v>
+        <v>0.93311748898564284</v>
       </c>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.25">
@@ -2128,32 +2130,32 @@
         <v>7</v>
       </c>
       <c r="D9">
-        <f ca="1">_xll.BDP(C9,"PX_LAST")</f>
-        <v>7.52</v>
+        <f>_xll.BDP(C9,"PX_LAST")</f>
+        <v>7.75</v>
       </c>
       <c r="E9" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>7.5199999999999989E-2</v>
+        <f t="shared" si="1"/>
+        <v>7.7499999999999999E-2</v>
       </c>
       <c r="F9" t="str">
         <f ca="1">_xll.QIns_CreateFRA("OISFra_"&amp;B9,valDate,B9,index,"ZAR",E9,1,"ZAR.JIBAR.3M","ZAR.OIS.1B",,,"ZAR.JIBAR.3M")</f>
-        <v>OISFra_9x12¬1</v>
+        <v>OISFra_9x12¬0</v>
       </c>
       <c r="H9" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>43791</v>
+        <v>43810</v>
       </c>
       <c r="I9" s="1">
         <f ca="1">_xll.QCurves_GetDF($C$32,valDate,H9)</f>
-        <v>0.91285607698141513</v>
+        <v>0.91161661062923127</v>
       </c>
       <c r="J9" s="1">
         <f ca="1">_xll.QCurves_GetForwardRate($C$32,H9,H10,"Linear","Act365F")</f>
-        <v>7.7469167918314805E-2</v>
+        <v>7.9799999999999524E-2</v>
       </c>
       <c r="K9" s="1">
         <f ca="1">_xll.QCurves_GetDF($C$33,valDate,H9)</f>
-        <v>0.91740997650668021</v>
+        <v>0.91615444467808482</v>
       </c>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.25">
@@ -2164,32 +2166,32 @@
         <v>9</v>
       </c>
       <c r="D10">
-        <f ca="1">_xll.BDP(C10,"PX_LAST")</f>
-        <v>7.65</v>
+        <f>_xll.BDP(C10,"PX_LAST")</f>
+        <v>7.85</v>
       </c>
       <c r="E10" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>7.6499999999999999E-2</v>
+        <f t="shared" si="1"/>
+        <v>7.85E-2</v>
       </c>
       <c r="F10" t="str">
         <f ca="1">_xll.QIns_CreateFRA("OISFra_"&amp;B10,valDate,B10,index,"ZAR",E10,1,"ZAR.JIBAR.3M","ZAR.OIS.1B",,,"ZAR.JIBAR.3M")</f>
-        <v>OISFra_12x15¬1</v>
+        <v>OISFra_12x15¬0</v>
       </c>
       <c r="H10" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>43883</v>
+        <v>43901</v>
       </c>
       <c r="I10" s="1">
         <f ca="1">_xll.QCurves_GetDF($C$32,valDate,H10)</f>
-        <v>0.89537260599451429</v>
+        <v>0.89383348729219447</v>
       </c>
       <c r="J10" s="1">
         <f ca="1">_xll.QCurves_GetForwardRate($C$32,H10,H11,"Linear","Act365F")</f>
-        <v>7.7466470599463183E-2</v>
+        <v>7.9842637216428577E-2</v>
       </c>
       <c r="K10" s="1">
         <f ca="1">_xll.QCurves_GetDF($C$33,valDate,H10)</f>
-        <v>0.90067896129840552</v>
+        <v>0.89910941775419073</v>
       </c>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.25">
@@ -2200,32 +2202,32 @@
         <v>11</v>
       </c>
       <c r="D11">
-        <f ca="1">_xll.BDP(C11,"PX_LAST")</f>
-        <v>7.75</v>
+        <f>_xll.BDP(C11,"PX_LAST")</f>
+        <v>7.98</v>
       </c>
       <c r="E11" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>7.7499999999999999E-2</v>
+        <f t="shared" si="1"/>
+        <v>7.980000000000001E-2</v>
       </c>
       <c r="F11" t="str">
         <f ca="1">_xll.QIns_CreateFRA("OISFra_"&amp;B11,valDate,B11,index,"ZAR",E11,1,"ZAR.JIBAR.3M","ZAR.OIS.1B",,,"ZAR.JIBAR.3M")</f>
-        <v>OISFra_15x18¬1</v>
+        <v>OISFra_15x18¬0</v>
       </c>
       <c r="H11" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>43973</v>
+        <v>43993</v>
       </c>
       <c r="I11" s="1">
         <f ca="1">_xll.QCurves_GetDF($C$32,valDate,H11)</f>
-        <v>0.87859036887627506</v>
+        <v>0.87620020394653664</v>
       </c>
       <c r="J11" s="1">
         <f ca="1">_xll.QCurves_GetForwardRate($C$32,H11,H12,"Linear","Act365F")</f>
-        <v>7.8395732182510725E-2</v>
+        <v>8.1064096357870888E-2</v>
       </c>
       <c r="K11" s="1">
         <f ca="1">_xll.QCurves_GetDF($C$33,valDate,H11)</f>
-        <v>0.88465176845794513</v>
+        <v>0.88224399825491229</v>
       </c>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.25">
@@ -2236,32 +2238,32 @@
         <v>18</v>
       </c>
       <c r="D12">
-        <f ca="1">_xll.BDP(C12,"PX_LAST")</f>
-        <v>7.5011000000000001</v>
+        <f>_xll.BDP(C12,"PX_LAST")</f>
+        <v>7.6675000000000004</v>
       </c>
       <c r="E12" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>7.5010999999999994E-2</v>
+        <f t="shared" si="1"/>
+        <v>7.6675000000000007E-2</v>
       </c>
       <c r="F12" t="str">
         <f ca="1">_xll.QIns_CreateIRS("OISSwap_"&amp;B12,valDate,B12,index,E12,1,"ZAR.JIBAR.3M","ZAR.OIS.1B","Pay","ZAR.JIBAR.3M")</f>
-        <v>OISSwap_2y¬1</v>
+        <v>OISSwap_2y¬0</v>
       </c>
       <c r="H12" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>44065</v>
+        <v>44085</v>
       </c>
       <c r="I12" s="1">
         <f ca="1">_xll.QCurves_GetDF($C$32,valDate,H12)</f>
-        <v>0.86156581107462971</v>
+        <v>0.85865564170456976</v>
       </c>
       <c r="J12" s="1">
         <f ca="1">_xll.QCurves_GetForwardRate($C$32,H12,H13,"Linear","Act365F")</f>
-        <v>7.9048166919511692E-2</v>
+        <v>8.1950906918311028E-2</v>
       </c>
       <c r="K12" s="1">
         <f ca="1">_xll.QCurves_GetDF($C$33,valDate,H12)</f>
-        <v>0.86836834495007398</v>
+        <v>0.86543349533498681</v>
       </c>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.25">
@@ -2272,32 +2274,32 @@
         <v>19</v>
       </c>
       <c r="D13">
-        <f ca="1">_xll.BDP(C13,"PX_LAST")</f>
-        <v>7.665</v>
+        <f>_xll.BDP(C13,"PX_LAST")</f>
+        <v>7.8849999999999998</v>
       </c>
       <c r="E13" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>7.6649999999999996E-2</v>
+        <f t="shared" si="1"/>
+        <v>7.8850000000000003E-2</v>
       </c>
       <c r="F13" t="str">
         <f ca="1">_xll.QIns_CreateIRS("OISSwap_"&amp;B13,valDate,B13,index,E13,1,"ZAR.JIBAR.3M","ZAR.OIS.1B","Pay","ZAR.JIBAR.3M")</f>
-        <v>OISSwap_3y¬1</v>
+        <v>OISSwap_3y¬0</v>
       </c>
       <c r="H13" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>44157</v>
+        <v>44176</v>
       </c>
       <c r="I13" s="1">
         <f ca="1">_xll.QCurves_GetDF($C$32,valDate,H13)</f>
-        <v>0.84473491602984585</v>
+        <v>0.84146320546568354</v>
       </c>
       <c r="J13" s="1">
         <f ca="1">_xll.QCurves_GetForwardRate($C$32,H13,H14,"Linear","Act365F")</f>
-        <v>7.9923623348907749E-2</v>
+        <v>8.3073121110234779E-2</v>
       </c>
       <c r="K13" s="1">
         <f ca="1">_xll.QCurves_GetDF($C$33,valDate,H13)</f>
-        <v>0.85227823480398468</v>
+        <v>0.84911974800451728</v>
       </c>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.25">
@@ -2308,32 +2310,32 @@
         <v>20</v>
       </c>
       <c r="D14">
-        <f ca="1">_xll.BDP(C14,"PX_LAST")</f>
-        <v>7.8250000000000002</v>
+        <f>_xll.BDP(C14,"PX_LAST")</f>
+        <v>8.0374999999999996</v>
       </c>
       <c r="E14" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>7.825E-2</v>
+        <f t="shared" si="1"/>
+        <v>8.0375000000000002E-2</v>
       </c>
       <c r="F14" t="str">
         <f ca="1">_xll.QIns_CreateIRS("OISSwap_"&amp;B14,valDate,B14,index,E14,1,"ZAR.JIBAR.3M","ZAR.OIS.1B","Pay","ZAR.JIBAR.3M")</f>
-        <v>OISSwap_4y¬1</v>
+        <v>OISSwap_4y¬0</v>
       </c>
       <c r="H14" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>44249</v>
+        <v>44266</v>
       </c>
       <c r="I14" s="1">
         <f ca="1">_xll.QCurves_GetDF($C$32,valDate,H14)</f>
-        <v>0.82805366525876678</v>
+        <v>0.82457283422470196</v>
       </c>
       <c r="J14" s="1">
         <f ca="1">_xll.QCurves_GetForwardRate($C$32,H14,H15,"Linear","Act365F")</f>
-        <v>8.0764112155604195E-2</v>
+        <v>8.4230333626428192E-2</v>
       </c>
       <c r="K14" s="1">
         <f ca="1">_xll.QCurves_GetDF($C$33,valDate,H14)</f>
-        <v>0.83631278029919787</v>
+        <v>0.83309926423548697</v>
       </c>
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.25">
@@ -2344,32 +2346,32 @@
         <v>21</v>
       </c>
       <c r="D15">
-        <f ca="1">_xll.BDP(C15,"PX_LAST")</f>
-        <v>7.96</v>
+        <f>_xll.BDP(C15,"PX_LAST")</f>
+        <v>8.1850000000000005</v>
       </c>
       <c r="E15" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>7.9600000000000004E-2</v>
+        <f t="shared" si="1"/>
+        <v>8.1850000000000006E-2</v>
       </c>
       <c r="F15" t="str">
         <f ca="1">_xll.QIns_CreateIRS("OISSwap_"&amp;B15,valDate,B15,index,E15,1,"ZAR.JIBAR.3M","ZAR.OIS.1B","Pay","ZAR.JIBAR.3M")</f>
-        <v>OISSwap_5y¬1</v>
+        <v>OISSwap_5y¬0</v>
       </c>
       <c r="H15" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>44338</v>
+        <v>44358</v>
       </c>
       <c r="I15" s="1">
         <f ca="1">_xll.QCurves_GetDF($C$32,valDate,H15)</f>
-        <v>0.81206160048636755</v>
+        <v>0.80743055117559626</v>
       </c>
       <c r="J15" s="1">
         <f ca="1">_xll.QCurves_GetForwardRate($C$32,H15,H16,"Linear","Act365F")</f>
-        <v>8.1658062324733646E-2</v>
+        <v>8.5381599349537929E-2</v>
       </c>
       <c r="K15" s="1">
         <f ca="1">_xll.QCurves_GetDF($C$33,valDate,H15)</f>
-        <v>0.82098884741063149</v>
+        <v>0.8168451639322053</v>
       </c>
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.25">
@@ -2380,32 +2382,32 @@
         <v>22</v>
       </c>
       <c r="D16">
-        <f ca="1">_xll.BDP(C16,"PX_LAST")</f>
-        <v>8.1920000000000002</v>
+        <f>_xll.BDP(C16,"PX_LAST")</f>
+        <v>8.4320000000000004</v>
       </c>
       <c r="E16" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>8.1920000000000007E-2</v>
+        <f t="shared" si="1"/>
+        <v>8.4320000000000006E-2</v>
       </c>
       <c r="F16" t="str">
         <f ca="1">_xll.QIns_CreateIRS("OISSwap_"&amp;B16,valDate,B16,index,E16,1,"ZAR.JIBAR.3M","ZAR.OIS.1B","Pay","ZAR.JIBAR.3M")</f>
-        <v>OISSwap_7y¬1</v>
+        <v>OISSwap_7y¬0</v>
       </c>
       <c r="H16" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>44430</v>
+        <v>44450</v>
       </c>
       <c r="I16" s="1">
         <f ca="1">_xll.QCurves_GetDF($C$32,valDate,H16)</f>
-        <v>0.7956845769484866</v>
+        <v>0.7904200466491379</v>
       </c>
       <c r="J16" s="1">
         <f ca="1">_xll.QCurves_GetForwardRate($C$32,H16,H17,"Linear","Act365F")</f>
-        <v>8.2576328761724022E-2</v>
+        <v>8.4557755057582923E-2</v>
       </c>
       <c r="K16" s="1">
         <f ca="1">_xll.QCurves_GetDF($C$33,valDate,H16)</f>
-        <v>0.80527742022449966</v>
+        <v>0.8007199181669622</v>
       </c>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.25">
@@ -2416,32 +2418,32 @@
         <v>23</v>
       </c>
       <c r="D17">
-        <f ca="1">_xll.BDP(C17,"PX_LAST")</f>
-        <v>8.4250000000000007</v>
+        <f>_xll.BDP(C17,"PX_LAST")</f>
+        <v>8.6649999999999991</v>
       </c>
       <c r="E17" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>8.4250000000000005E-2</v>
+        <f t="shared" si="1"/>
+        <v>8.6649999999999991E-2</v>
       </c>
       <c r="F17" t="str">
         <f ca="1">_xll.QIns_CreateIRS("OISSwap_"&amp;B17,valDate,B17,index,E17,1,"ZAR.JIBAR.3M","ZAR.OIS.1B","Pay","ZAR.JIBAR.3M")</f>
-        <v>OISSwap_10y¬1</v>
+        <v>OISSwap_10y¬0</v>
       </c>
       <c r="H17" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>44522</v>
+        <v>44541</v>
       </c>
       <c r="I17" s="1">
         <f ca="1">_xll.QCurves_GetDF($C$32,valDate,H17)</f>
-        <v>0.77946106180738306</v>
+        <v>0.7741008227420263</v>
       </c>
       <c r="J17" s="1">
         <f ca="1">_xll.QCurves_GetForwardRate($C$32,H17,H18,"Linear","Act365F")</f>
-        <v>8.3464475026217816E-2</v>
+        <v>8.5334097121602906E-2</v>
       </c>
       <c r="K17" s="1">
         <f ca="1">_xll.QCurves_GetDF($C$33,valDate,H17)</f>
-        <v>0.78970114206783404</v>
+        <v>0.78490157286767481</v>
       </c>
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.25">
@@ -2453,23 +2455,23 @@
       </c>
       <c r="F18" t="str">
         <f ca="1">_xll.QIns_CreateIRBasisSwap("OIS_"&amp;B18,valDate,B18,oisIndex,index,E18,TRUE,1,"ZAR.OIS.1B","ZAR.JIBAR.3M","ZAR.OIS.1B","ZAR.OIS.1B")</f>
-        <v>OIS_3m¬1</v>
+        <v>OIS_3m¬0</v>
       </c>
       <c r="H18" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>44614</v>
+        <v>44631</v>
       </c>
       <c r="I18" s="1">
         <f ca="1">_xll.QCurves_GetDF($C$32,valDate,H18)</f>
-        <v>0.76340092245154934</v>
+        <v>0.7581484066357258</v>
       </c>
       <c r="J18" s="1">
         <f ca="1">_xll.QCurves_GetForwardRate($C$32,H18,H19,"Linear","Act365F")</f>
-        <v>8.4308948162348005E-2</v>
+        <v>8.6185728618481366E-2</v>
       </c>
       <c r="K18" s="1">
         <f ca="1">_xll.QCurves_GetDF($C$33,valDate,H18)</f>
-        <v>0.77426386394854507</v>
+        <v>0.76939035534761735</v>
       </c>
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.25">
@@ -2481,23 +2483,23 @@
       </c>
       <c r="F19" t="str">
         <f ca="1">_xll.QIns_CreateIRBasisSwap("OIS_"&amp;B19,valDate,B19,oisIndex,index,E19,TRUE,1,"ZAR.OIS.1B","ZAR.JIBAR.3M","ZAR.OIS.1B","ZAR.OIS.1B")</f>
-        <v>OIS_6m¬1</v>
+        <v>OIS_6m¬0</v>
       </c>
       <c r="H19" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>44703</v>
+        <v>44723</v>
       </c>
       <c r="I19" s="1">
         <f ca="1">_xll.QCurves_GetDF($C$32,valDate,H19)</f>
-        <v>0.74802341292856644</v>
+        <v>0.74202892196935799</v>
       </c>
       <c r="J19" s="1">
         <f ca="1">_xll.QCurves_GetForwardRate($C$32,H19,H20,"Linear","Act365F")</f>
-        <v>8.5211648578659718E-2</v>
+        <v>8.702685948779712E-2</v>
       </c>
       <c r="K19" s="1">
         <f ca="1">_xll.QCurves_GetDF($C$33,valDate,H19)</f>
-        <v>0.75946572451817218</v>
+        <v>0.75367594163225826</v>
       </c>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.25">
@@ -2509,23 +2511,23 @@
       </c>
       <c r="F20" t="str">
         <f ca="1">_xll.QIns_CreateIRBasisSwap("OIS_"&amp;B20,valDate,B20,oisIndex,index,E20,TRUE,1,"ZAR.OIS.1B","ZAR.JIBAR.3M","ZAR.OIS.1B","ZAR.OIS.1B")</f>
-        <v>OIS_9m¬1</v>
+        <v>OIS_9m¬0</v>
       </c>
       <c r="H20" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>44795</v>
+        <v>44815</v>
       </c>
       <c r="I20" s="1">
         <f ca="1">_xll.QCurves_GetDF($C$32,valDate,H20)</f>
-        <v>0.73229517383594811</v>
+        <v>0.72610149561158499</v>
       </c>
       <c r="J20" s="1">
         <f ca="1">_xll.QCurves_GetForwardRate($C$32,H20,H21,"Linear","Act365F")</f>
-        <v>8.5091303791514306E-2</v>
+        <v>8.7880030400768583E-2</v>
       </c>
       <c r="K20" s="1">
         <f ca="1">_xll.QCurves_GetDF($C$33,valDate,H20)</f>
-        <v>0.74431253197891567</v>
+        <v>0.73810893892134133</v>
       </c>
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.25">
@@ -2537,23 +2539,23 @@
       </c>
       <c r="F21" t="str">
         <f ca="1">_xll.QIns_CreateIRBasisSwap("OIS_"&amp;B21,valDate,B21,oisIndex,index,E21,TRUE,1,"ZAR.OIS.1B","ZAR.JIBAR.3M","ZAR.OIS.1B","ZAR.OIS.1B")</f>
-        <v>OIS_1y¬1</v>
+        <v>OIS_1y¬0</v>
       </c>
       <c r="H21" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>44887</v>
+        <v>44906</v>
       </c>
       <c r="I21" s="1">
         <f ca="1">_xll.QCurves_GetDF($C$32,valDate,H21)</f>
-        <v>0.71691893237428661</v>
+        <v>0.71053383027169559</v>
       </c>
       <c r="J21" s="1">
         <f ca="1">_xll.QCurves_GetForwardRate($C$32,H21,H22,"Linear","Act365F")</f>
-        <v>8.5860111696545713E-2</v>
+        <v>8.8700353527939077E-2</v>
       </c>
       <c r="K21" s="1">
         <f ca="1">_xll.QCurves_GetDF($C$33,valDate,H21)</f>
-        <v>0.72930881729479657</v>
+        <v>0.72286027472739678</v>
       </c>
     </row>
     <row r="22" spans="2:11" x14ac:dyDescent="0.25">
@@ -2565,23 +2567,23 @@
       </c>
       <c r="F22" t="str">
         <f ca="1">_xll.QIns_CreateIRBasisSwap("OIS_"&amp;B22,valDate,B22,oisIndex,index,E22,TRUE,1,"ZAR.OIS.1B","ZAR.JIBAR.3M","ZAR.OIS.1B","ZAR.OIS.1B")</f>
-        <v>OIS_18m¬1</v>
+        <v>OIS_18m¬0</v>
       </c>
       <c r="H22" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>44979</v>
+        <v>44996</v>
       </c>
       <c r="I22" s="1">
         <f ca="1">_xll.QCurves_GetDF($C$32,valDate,H22)</f>
-        <v>0.7017324232504345</v>
+        <v>0.69532612994592147</v>
       </c>
       <c r="J22" s="1">
         <f ca="1">_xll.QCurves_GetForwardRate($C$32,H22,H23,"Linear","Act365F")</f>
-        <v>8.6585924275371248E-2</v>
+        <v>8.955746058083941E-2</v>
       </c>
       <c r="K22" s="1">
         <f ca="1">_xll.QCurves_GetDF($C$33,valDate,H22)</f>
-        <v>0.71445779226678308</v>
+        <v>0.70792887397166893</v>
       </c>
     </row>
     <row r="23" spans="2:11" x14ac:dyDescent="0.25">
@@ -2593,23 +2595,23 @@
       </c>
       <c r="F23" t="str">
         <f ca="1">_xll.QIns_CreateIRBasisSwap("OIS_"&amp;B23,valDate,B23,oisIndex,index,E23,TRUE,1,"ZAR.OIS.1B","ZAR.JIBAR.3M","ZAR.OIS.1B","ZAR.OIS.1B")</f>
-        <v>OIS_2y¬1</v>
+        <v>OIS_2y¬0</v>
       </c>
       <c r="H23" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>45068</v>
+        <v>45088</v>
       </c>
       <c r="I23" s="1">
         <f ca="1">_xll.QCurves_GetDF($C$32,valDate,H23)</f>
-        <v>0.68722326253283228</v>
+        <v>0.67997675136569813</v>
       </c>
       <c r="J23" s="1">
         <f ca="1">_xll.QCurves_GetForwardRate($C$32,H23,H24,"Linear","Act365F")</f>
-        <v>8.7373083455191861E-2</v>
+        <v>9.0402522752556377E-2</v>
       </c>
       <c r="K23" s="1">
         <f ca="1">_xll.QCurves_GetDF($C$33,valDate,H23)</f>
-        <v>0.7002392158423103</v>
+        <v>0.69282326581725506</v>
       </c>
     </row>
     <row r="24" spans="2:11" x14ac:dyDescent="0.25">
@@ -2621,23 +2623,23 @@
       </c>
       <c r="F24" t="str">
         <f ca="1">_xll.QIns_CreateIRBasisSwap("OIS_"&amp;B24,valDate,B24,oisIndex,index,E24,TRUE,1,"ZAR.OIS.1B","ZAR.JIBAR.3M","ZAR.OIS.1B","ZAR.OIS.1B")</f>
-        <v>OIS_5y¬1</v>
+        <v>OIS_5y¬0</v>
       </c>
       <c r="H24" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>45160</v>
+        <v>45180</v>
       </c>
       <c r="I24" s="1">
         <f ca="1">_xll.QCurves_GetDF($C$32,valDate,H24)</f>
-        <v>0.67241480272435383</v>
+        <v>0.66482772794168821</v>
       </c>
       <c r="J24" s="1">
         <f ca="1">_xll.QCurves_GetForwardRate($C$32,H24,H25,"Linear","Act365F")</f>
-        <v>8.7222803395804294E-2</v>
+        <v>9.0136764411830356E-2</v>
       </c>
       <c r="K24" s="1">
         <f ca="1">_xll.QCurves_GetDF($C$33,valDate,H24)</f>
-        <v>0.68569734910201274</v>
+        <v>0.67788059048674476</v>
       </c>
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.25">
@@ -2649,77 +2651,77 @@
       </c>
       <c r="F25" t="str">
         <f ca="1">_xll.QIns_CreateIRBasisSwap("OIS_"&amp;B25,valDate,B25,oisIndex,index,E25,TRUE,1,"ZAR.OIS.1B","ZAR.JIBAR.3M","ZAR.OIS.1B","ZAR.OIS.1B")</f>
-        <v>OIS_10y¬1</v>
+        <v>OIS_10y¬0</v>
       </c>
       <c r="H25" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>45252</v>
+        <v>45271</v>
       </c>
       <c r="I25" s="1">
         <f ca="1">_xll.QCurves_GetDF($C$32,valDate,H25)</f>
-        <v>0.65794982465740459</v>
+        <v>0.65021578391222823</v>
       </c>
       <c r="J25" s="1">
         <f ca="1">_xll.QCurves_GetForwardRate($C$32,H25,H26,"Linear","Act365F")</f>
-        <v>8.7903797265067307E-2</v>
+        <v>9.0868583347310045E-2</v>
       </c>
       <c r="K25" s="1">
         <f ca="1">_xll.QCurves_GetDF($C$33,valDate,H25)</f>
-        <v>0.67178416643711236</v>
+        <v>0.66385703815433872</v>
       </c>
     </row>
     <row r="26" spans="2:11" x14ac:dyDescent="0.25">
       <c r="H26" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>45344</v>
+        <v>45362</v>
       </c>
       <c r="I26" s="1">
         <f ca="1">_xll.QCurves_GetDF($C$32,valDate,H26)</f>
-        <v>0.64368790621544747</v>
+        <v>0.63581153271741697</v>
       </c>
       <c r="J26" s="1">
         <f ca="1">_xll.QCurves_GetForwardRate($C$32,H26,H27,"Linear","Act365F")</f>
-        <v>8.85561673592348E-2</v>
+        <v>9.1615964415175832E-2</v>
       </c>
       <c r="K26" s="1">
         <f ca="1">_xll.QCurves_GetDF($C$33,valDate,H26)</f>
-        <v>0.65805930530642465</v>
+        <v>0.6500292288278654</v>
       </c>
     </row>
     <row r="27" spans="2:11" x14ac:dyDescent="0.25">
       <c r="H27" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>45434</v>
+        <v>45454</v>
       </c>
       <c r="I27" s="1">
         <f ca="1">_xll.QCurves_GetDF($C$32,valDate,H27)</f>
-        <v>0.62993283932506028</v>
+        <v>0.62146061317004953</v>
       </c>
       <c r="J27" s="1">
         <f ca="1">_xll.QCurves_GetForwardRate($C$32,H27,H28,"Linear","Act365F")</f>
-        <v>8.9251317747970613E-2</v>
+        <v>9.2356275256131104E-2</v>
       </c>
       <c r="K27" s="1">
         <f ca="1">_xll.QCurves_GetDF($C$33,valDate,H27)</f>
-        <v>0.64481506728645754</v>
+        <v>0.63624833980417228</v>
       </c>
     </row>
     <row r="28" spans="2:11" x14ac:dyDescent="0.25">
       <c r="H28" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>45526</v>
+        <v>45546</v>
       </c>
       <c r="I28" s="1">
         <f ca="1">_xll.QCurves_GetDF($C$32,valDate,H28)</f>
-        <v>0.6160735124777188</v>
+        <v>0.60732284072844955</v>
       </c>
       <c r="J28" s="1">
         <f ca="1">_xll.QCurves_GetForwardRate($C$32,H28,H29,"Linear","Act365F")</f>
-        <v>8.9932652316939865E-2</v>
+        <v>9.3080917788305087E-2</v>
       </c>
       <c r="K28" s="1">
         <f ca="1">_xll.QCurves_GetDF($C$33,valDate,H28)</f>
-        <v>0.63146277307103804</v>
+        <v>0.62266721870191188</v>
       </c>
     </row>
     <row r="29" spans="2:11" x14ac:dyDescent="0.25">
@@ -2728,41 +2730,41 @@
       </c>
       <c r="C29" t="str">
         <f ca="1">_xll.QIns_CreateFundingInstrumentCollection("FundingInstrumentsOis",F6:F25)</f>
-        <v>FundingInstrumentsOis¬1</v>
+        <v>FundingInstrumentsOis¬0</v>
       </c>
       <c r="H29" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>45618</v>
+        <v>45637</v>
       </c>
       <c r="I29" s="1">
         <f ca="1">_xll.QCurves_GetDF($C$32,valDate,H29)</f>
-        <v>0.60241792924327597</v>
+        <v>0.59354866816564278</v>
       </c>
       <c r="J29" s="1">
         <f ca="1">_xll.QCurves_GetForwardRate($C$32,H29,H30,"Linear","Act365F")</f>
-        <v>9.0614101319651918E-2</v>
+        <v>9.3797276742446756E-2</v>
       </c>
       <c r="K29" s="1">
         <f ca="1">_xll.QCurves_GetDF($C$33,valDate,H29)</f>
-        <v>0.61829866099564768</v>
+        <v>0.60942996944214067</v>
       </c>
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.25">
       <c r="H30" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>45710</v>
+        <v>45727</v>
       </c>
       <c r="I30" s="1">
         <f ca="1">_xll.QCurves_GetDF($C$32,valDate,H30)</f>
-        <v>0.58896610899656376</v>
+        <v>0.58013133516501425</v>
       </c>
       <c r="J30" s="1">
         <f ca="1">_xll.QCurves_GetForwardRate($C$32,H30,H31,"Linear","Act365F")</f>
-        <v>9.1250574820217908E-2</v>
+        <v>9.4553862103882086E-2</v>
       </c>
       <c r="K30" s="1">
         <f ca="1">_xll.QCurves_GetDF($C$33,valDate,H30)</f>
-        <v>0.60532252852352475</v>
+        <v>0.59652981641541047</v>
       </c>
     </row>
     <row r="31" spans="2:11" x14ac:dyDescent="0.25">
@@ -2771,23 +2773,23 @@
       </c>
       <c r="C31" t="str">
         <f ca="1">_xll.QCurves_CreateFundingModel("ModelOis",valDate,C29)</f>
-        <v>ModelOis¬1</v>
+        <v>ModelOis¬0</v>
       </c>
       <c r="H31" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>45799</v>
+        <v>45819</v>
       </c>
       <c r="I31" s="1">
         <f ca="1">_xll.QCurves_GetDF($C$32,valDate,H31)</f>
-        <v>0.57614676277122756</v>
+        <v>0.56662705186735196</v>
       </c>
       <c r="J31" s="1">
         <f ca="1">_xll.QCurves_GetForwardRate($C$32,H31,H32,"Linear","Act365F")</f>
-        <v>9.1955112269369643E-2</v>
+        <v>9.5294708779677398E-2</v>
       </c>
       <c r="K31" s="1">
         <f ca="1">_xll.QCurves_GetDF($C$33,valDate,H31)</f>
-        <v>0.59294815460446615</v>
+        <v>0.58353953778685475</v>
       </c>
     </row>
     <row r="32" spans="2:11" x14ac:dyDescent="0.25">
@@ -2796,23 +2798,23 @@
       </c>
       <c r="C32" t="str">
         <f ca="1">_xll.QCurves_ExtractCurveFromModel(C31,"ZAR.JIBAR.3M","curve.ois.ZAR.JIBAR.3M")</f>
-        <v>curve.ois.ZAR.JIBAR.3M¬1</v>
+        <v>curve.ois.ZAR.JIBAR.3M¬0</v>
       </c>
       <c r="H32" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>45891</v>
+        <v>45911</v>
       </c>
       <c r="I32" s="1">
         <f ca="1">_xll.QCurves_GetDF($C$32,valDate,H32)</f>
-        <v>0.56309548928607078</v>
+        <v>0.55333619952978252</v>
       </c>
       <c r="J32" s="1">
         <f ca="1">_xll.QCurves_GetForwardRate($C$32,H32,H33,"Linear","Act365F")</f>
-        <v>9.0021831130743274E-2</v>
+        <v>9.2503777726692216E-2</v>
       </c>
       <c r="K32" s="1">
         <f ca="1">_xll.QCurves_GetDF($C$33,valDate,H32)</f>
-        <v>0.5803409707347873</v>
+        <v>0.57074745213305456</v>
       </c>
     </row>
     <row r="33" spans="2:11" x14ac:dyDescent="0.25">
@@ -2821,89 +2823,89 @@
       </c>
       <c r="C33" t="str">
         <f ca="1">_xll.QCurves_ExtractCurveFromModel(C31,"ZAR.OIS.1B","curve.ois.ZAR.OIS.1B")</f>
-        <v>curve.ois.ZAR.OIS.1B¬1</v>
+        <v>curve.ois.ZAR.OIS.1B¬0</v>
       </c>
       <c r="H33" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>45983</v>
+        <v>46002</v>
       </c>
       <c r="I33" s="1">
         <f ca="1">_xll.QCurves_GetDF($C$32,valDate,H33)</f>
-        <v>0.55060208884731687</v>
+        <v>0.54086251151692866</v>
       </c>
       <c r="J33" s="1">
         <f ca="1">_xll.QCurves_GetForwardRate($C$32,H33,H34,"Linear","Act365F")</f>
-        <v>9.0521683984113213E-2</v>
+        <v>9.2980021614007174E-2</v>
       </c>
       <c r="K33" s="1">
         <f ca="1">_xll.QCurves_GetDF($C$33,valDate,H33)</f>
-        <v>0.56792072807593985</v>
+        <v>0.55828880543211756</v>
       </c>
     </row>
     <row r="34" spans="2:11" x14ac:dyDescent="0.25">
       <c r="H34" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>46075</v>
+        <v>46092</v>
       </c>
       <c r="I34" s="1">
         <f ca="1">_xll.QCurves_GetDF($C$32,valDate,H34)</f>
-        <v>0.5383195612448417</v>
+        <v>0.52874030427642538</v>
       </c>
       <c r="J34" s="1">
         <f ca="1">_xll.QCurves_GetForwardRate($C$32,H34,H35,"Linear","Act365F")</f>
-        <v>9.0979671285473324E-2</v>
+        <v>9.3494409144794455E-2</v>
       </c>
       <c r="K34" s="1">
         <f ca="1">_xll.QCurves_GetDF($C$33,valDate,H34)</f>
-        <v>0.55568693506062106</v>
+        <v>0.54615659222558233</v>
       </c>
     </row>
     <row r="35" spans="2:11" x14ac:dyDescent="0.25">
       <c r="H35" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>46164</v>
+        <v>46184</v>
       </c>
       <c r="I35" s="1">
         <f ca="1">_xll.QCurves_GetDF($C$32,valDate,H35)</f>
-        <v>0.526636610322193</v>
+        <v>0.51656703326436171</v>
       </c>
       <c r="J35" s="1">
         <f ca="1">_xll.QCurves_GetForwardRate($C$32,H35,H36,"Linear","Act365F")</f>
-        <v>9.1505269899170516E-2</v>
+        <v>9.3990740550498067E-2</v>
       </c>
       <c r="K35" s="1">
         <f ca="1">_xll.QCurves_GetDF($C$33,valDate,H35)</f>
-        <v>0.54402897240608017</v>
+        <v>0.5339488622715578</v>
       </c>
     </row>
     <row r="36" spans="2:11" x14ac:dyDescent="0.25">
       <c r="H36" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>46256</v>
+        <v>46276</v>
       </c>
       <c r="I36" s="1">
         <f ca="1">_xll.QCurves_GetDF($C$32,valDate,H36)</f>
-        <v>0.5147639192385931</v>
+        <v>0.50461235442259156</v>
       </c>
       <c r="J36" s="1">
         <f ca="1">_xll.QCurves_GetForwardRate($C$32,H36,H37,"Linear","Act365F")</f>
-        <v>9.200530550472226E-2</v>
+        <v>9.4472302459834262E-2</v>
       </c>
       <c r="K36" s="1">
         <f ca="1">_xll.QCurves_GetDF($C$33,valDate,H36)</f>
-        <v>0.53216030130704972</v>
+        <v>0.52193655432800024</v>
       </c>
     </row>
     <row r="37" spans="2:11" x14ac:dyDescent="0.25">
       <c r="H37" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>46348</v>
+        <v>46367</v>
       </c>
     </row>
     <row r="43" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B43" t="str">
         <f ca="1">C31</f>
-        <v>ModelOis¬1</v>
+        <v>ModelOis¬0</v>
       </c>
     </row>
   </sheetData>
@@ -2915,8 +2917,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:Y38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K32" sqref="A32:K32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2937,7 +2939,7 @@
       </c>
       <c r="C1" s="2">
         <f ca="1">TODAY()</f>
-        <v>43335</v>
+        <v>43354</v>
       </c>
     </row>
     <row r="2" spans="2:25" x14ac:dyDescent="0.25">
@@ -2945,15 +2947,15 @@
         <v>25</v>
       </c>
       <c r="C2" t="str">
-        <f ca="1">_xll.QIns_CreateRateIndex("ZAR.JIBAR.3M","ZAR","3M","Act365F","Act365F","3M","JHB","0b","MF")</f>
-        <v>ZAR.JIBAR.3M¬1</v>
+        <f>_xll.QIns_CreateRateIndex("ZAR.JIBAR.3M","ZAR","3M","Act365F","Act365F","3M","JHB","0b","MF")</f>
+        <v>ZAR.JIBAR.3M¬0</v>
       </c>
       <c r="I2" t="s">
         <v>25</v>
       </c>
       <c r="J2" t="str">
-        <f ca="1">_xll.QIns_CreateRateIndex("USD.LIBOR.3M","USD","3M","Act360","Act360","6M","NYC","2b","MF")</f>
-        <v>USD.LIBOR.3M¬1</v>
+        <f>_xll.QIns_CreateRateIndex("USD.LIBOR.3M","USD","3M","Act360","Act360","6M","NYC","2b","MF")</f>
+        <v>USD.LIBOR.3M¬0</v>
       </c>
       <c r="V2" s="3"/>
     </row>
@@ -2962,15 +2964,15 @@
         <v>31</v>
       </c>
       <c r="C3" t="str">
-        <f ca="1">_xll.QIns_CreateRateIndex("ZAR.OIS.1B","ZAR","3M","Act365F","Act365F","3M","JHB","0b","MF")</f>
-        <v>ZAR.OIS.1B¬1</v>
+        <f>_xll.QIns_CreateRateIndex("ZAR.OIS.1B","ZAR","3M","Act365F","Act365F","3M","JHB","0b","MF")</f>
+        <v>ZAR.OIS.1B¬0</v>
       </c>
       <c r="I3" t="s">
         <v>31</v>
       </c>
       <c r="J3" t="str">
-        <f ca="1">_xll.QIns_CreateRateIndex("USD.OIS.1B","USD","3M","Act360","Act360","3M","NYC","0b","MF")</f>
-        <v>USD.OIS.1B¬1</v>
+        <f>_xll.QIns_CreateRateIndex("USD.OIS.1B","USD","3M","Act360","Act360","3M","NYC","0b","MF")</f>
+        <v>USD.OIS.1B¬0</v>
       </c>
       <c r="V3" t="s">
         <v>36</v>
@@ -2988,7 +2990,7 @@
     <row r="4" spans="2:25" x14ac:dyDescent="0.25">
       <c r="U4" s="2">
         <f ca="1">valDate</f>
-        <v>43335</v>
+        <v>43354</v>
       </c>
       <c r="V4" s="1">
         <f ca="1">_xll.QCurves_GetDF($D$33,valDate,U4)</f>
@@ -2996,7 +2998,7 @@
       </c>
       <c r="W4" s="1">
         <f ca="1">_xll.QCurves_GetForwardRate($D$33,U4,U5,"Linear","Act365F")</f>
-        <v>7.0170000000000329E-2</v>
+        <v>7.0250000000000784E-2</v>
       </c>
       <c r="X4" s="1">
         <f ca="1">_xll.QCurves_GetDF($D$34,valDate,U4)</f>
@@ -3012,32 +3014,32 @@
         <v>63</v>
       </c>
       <c r="Q5">
-        <f ca="1">_xll.BDP("ZAR Curncy","PX_LAST")</f>
-        <v>14.232699999999999</v>
+        <f>_xll.BDP("ZAR Curncy","PX_LAST")</f>
+        <v>15.1022</v>
       </c>
       <c r="R5" s="2">
         <f ca="1">_xll.QDates_AddPeriod(valDate,"2b","F","JHB+NYC")</f>
-        <v>43339</v>
+        <v>43356</v>
       </c>
       <c r="U5" s="2">
         <f ca="1">EDATE(U4,3)</f>
-        <v>43427</v>
+        <v>43445</v>
       </c>
       <c r="V5" s="1">
         <f ca="1">_xll.QCurves_GetDF($D$33,valDate,U5)</f>
-        <v>0.98262069731933521</v>
+        <v>0.9827870899472323</v>
       </c>
       <c r="W5" s="1">
         <f ca="1">_xll.QCurves_GetForwardRate($D$33,U5,U6,"Linear","Act365F")</f>
-        <v>7.2263012495039719E-2</v>
+        <v>7.2799999999999629E-2</v>
       </c>
       <c r="X5" s="1">
         <f ca="1">_xll.QCurves_GetDF($D$34,valDate,U5)</f>
-        <v>0.98359514210713139</v>
+        <v>0.98375125916792172</v>
       </c>
       <c r="Y5" s="1">
         <f ca="1">_xll.QCurves_GetDF($D$35,valDate,U5)</f>
-        <v>0.99412782610906936</v>
+        <v>0.99413414599013195</v>
       </c>
     </row>
     <row r="6" spans="2:25" x14ac:dyDescent="0.25">
@@ -3048,16 +3050,16 @@
         <v>1</v>
       </c>
       <c r="D6">
-        <f ca="1">_xll.BDP(C6,"PX_LAST")</f>
-        <v>7.0170000000000003</v>
+        <f>_xll.BDP(C6,"PX_LAST")</f>
+        <v>7.0250000000000004</v>
       </c>
       <c r="E6" s="1">
-        <f ca="1">D6/100</f>
-        <v>7.017000000000001E-2</v>
+        <f>D6/100</f>
+        <v>7.0250000000000007E-2</v>
       </c>
       <c r="F6" t="str">
         <f ca="1">_xll.QIns_CreateFRA("ZAROISFra_"&amp;B6,valDate,"0x3",index,"ZAR",E6,1,"ZAR.JIBAR.3M","ZAR.OIS.1B",,,"ZAR.JIBAR.3M")</f>
-        <v>ZAROISFra_3m¬1</v>
+        <v>ZAROISFra_3m¬0</v>
       </c>
       <c r="I6" t="s">
         <v>0</v>
@@ -3066,55 +3068,55 @@
         <v>38</v>
       </c>
       <c r="K6">
-        <f ca="1">_xll.BDP(J6,"PX_LAST")</f>
-        <v>2.3113799999999998</v>
+        <f>_xll.BDP(J6,"PX_LAST")</f>
+        <v>2.3342499999999999</v>
       </c>
       <c r="L6" s="1">
-        <f ca="1">K6/100</f>
-        <v>2.3113799999999997E-2</v>
+        <f>K6/100</f>
+        <v>2.3342499999999999E-2</v>
       </c>
       <c r="M6" t="str">
         <f ca="1">_xll.QIns_CreateFRA("USDOISFra_"&amp;I6,valDate,"0x3",J2,"USD",L6,1,"USD.LIBOR.3M","USD.OIS.1B",,,"USD.LIBOR.3M")</f>
-        <v>USDOISFra_3m¬1</v>
+        <v>USDOISFra_3m¬0</v>
       </c>
       <c r="O6" s="2">
         <f ca="1">_xll.QDates_AddPeriod($R$5,P6,"F","JHB+NYC")</f>
-        <v>43347</v>
+        <v>43363</v>
       </c>
       <c r="P6" t="s">
         <v>57</v>
       </c>
       <c r="Q6">
-        <f ca="1">_xll.BDP("ZAR"&amp;P6&amp;" Curncy","PX_LAST")</f>
-        <v>156</v>
+        <f>_xll.BDP("ZAR"&amp;P6&amp;" Curncy","PX_LAST")</f>
+        <v>151</v>
       </c>
       <c r="R6" s="5">
-        <f ca="1">$Q$5+Q6/10000</f>
-        <v>14.248299999999999</v>
+        <f>$Q$5+Q6/10000</f>
+        <v>15.1173</v>
       </c>
       <c r="S6" s="5" t="str">
         <f ca="1">_xll.QIns_CreateFxForward("ZARFwd_"&amp;P6,O6,"ZAR","USD",1000000,R6,"ZAR.DISC.[USD.OIS.1B]","ZAR.DISC.[USD.OIS.1B]")</f>
-        <v>ZARFwd_1w¬1</v>
+        <v>ZARFwd_1w¬0</v>
       </c>
       <c r="U6" s="2">
         <f t="shared" ref="U6:U37" ca="1" si="0">EDATE(U5,3)</f>
-        <v>43519</v>
+        <v>43535</v>
       </c>
       <c r="V6" s="1">
         <f ca="1">_xll.QCurves_GetDF($D$33,valDate,U6)</f>
-        <v>0.9650431705908189</v>
+        <v>0.96545648477397461</v>
       </c>
       <c r="W6" s="1">
         <f ca="1">_xll.QCurves_GetForwardRate($D$33,U6,U7,"Linear","Act365F")</f>
-        <v>7.383456676980367E-2</v>
+        <v>7.4699999999999475E-2</v>
       </c>
       <c r="X6" s="1">
         <f ca="1">_xll.QCurves_GetDF($D$34,valDate,U6)</f>
-        <v>0.96695711922397887</v>
+        <v>0.96734091682011292</v>
       </c>
       <c r="Y6" s="1">
         <f ca="1">_xll.QCurves_GetDF($D$35,valDate,U6)</f>
-        <v>0.98762349890141343</v>
+        <v>0.9876325221228397</v>
       </c>
     </row>
     <row r="7" spans="2:25" x14ac:dyDescent="0.25">
@@ -3125,74 +3127,74 @@
         <v>3</v>
       </c>
       <c r="D7">
-        <f ca="1">_xll.BDP(C7,"PX_LAST")</f>
-        <v>7.23</v>
+        <f>_xll.BDP(C7,"PX_LAST")</f>
+        <v>7.28</v>
       </c>
       <c r="E7" s="1">
-        <f t="shared" ref="E7:E17" ca="1" si="1">D7/100</f>
-        <v>7.2300000000000003E-2</v>
+        <f t="shared" ref="E7:E17" si="1">D7/100</f>
+        <v>7.2800000000000004E-2</v>
       </c>
       <c r="F7" t="str">
         <f ca="1">_xll.QIns_CreateFRA("ZAROISFra_"&amp;B7,valDate,B7,index,"ZAR",E7,1,"ZAR.JIBAR.3M","ZAR.OIS.1B",,,"ZAR.JIBAR.3M")</f>
-        <v>ZAROISFra_3x6¬1</v>
+        <v>ZAROISFra_3x6¬0</v>
       </c>
       <c r="I7" t="s">
         <v>39</v>
       </c>
       <c r="J7" t="str">
-        <f ca="1">I7&amp;" Comdty"</f>
+        <f>I7&amp;" Comdty"</f>
         <v>EDU8 Comdty</v>
       </c>
       <c r="K7">
-        <f ca="1">_xll.BDP(J7,"PX_LAST")</f>
-        <v>97.655000000000001</v>
+        <f>_xll.BDP(J7,"PX_LAST")</f>
+        <v>97.647500000000008</v>
       </c>
       <c r="L7" s="4">
-        <f ca="1">K7</f>
-        <v>97.655000000000001</v>
+        <f>K7</f>
+        <v>97.647500000000008</v>
       </c>
       <c r="M7" t="str">
         <f ca="1">_xll.QIns_CreateSTIRFromCode(I7,valDate,I7,$J$2,L7,1,0,"USD.LIBOR.3M","USD.LIBOR.3M")</f>
-        <v>EDU8¬1</v>
+        <v>EDU8¬0</v>
       </c>
       <c r="O7" s="2">
         <f ca="1">_xll.QDates_AddPeriod($R$5,P7,"MF","JHB+NYC")</f>
-        <v>43370</v>
+        <v>43388</v>
       </c>
       <c r="P7" t="s">
         <v>58</v>
       </c>
       <c r="Q7">
-        <f ca="1">_xll.BDP("ZAR"&amp;P7&amp;" Curncy","PX_LAST")</f>
-        <v>593</v>
+        <f>_xll.BDP("ZAR"&amp;P7&amp;" Curncy","PX_LAST")</f>
+        <v>667</v>
       </c>
       <c r="R7" s="5">
-        <f t="shared" ref="R7:R18" ca="1" si="2">$Q$5+Q7/10000</f>
-        <v>14.292</v>
+        <f t="shared" ref="R7:R18" si="2">$Q$5+Q7/10000</f>
+        <v>15.168900000000001</v>
       </c>
       <c r="S7" s="5" t="str">
         <f ca="1">_xll.QIns_CreateFxForward("ZARFwd_"&amp;P7,O7,"ZAR","USD",1000000,R7,"ZAR.DISC.[USD.OIS.1B]","ZAR.DISC.[USD.OIS.1B]")</f>
-        <v>ZARFwd_1m¬1</v>
+        <v>ZARFwd_1m¬0</v>
       </c>
       <c r="U7" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>43608</v>
+        <v>43627</v>
       </c>
       <c r="V7" s="1">
         <f ca="1">_xll.QCurves_GetDF($D$33,valDate,U7)</f>
-        <v>0.94797628233824371</v>
+        <v>0.94761433476240975</v>
       </c>
       <c r="W7" s="1">
         <f ca="1">_xll.QCurves_GetForwardRate($D$33,U7,U8,"Linear","Act365F")</f>
-        <v>7.5399999999999662E-2</v>
+        <v>7.7500000000000249E-2</v>
       </c>
       <c r="X7" s="1">
         <f ca="1">_xll.QCurves_GetDF($D$34,valDate,U7)</f>
-        <v>0.95076543666068314</v>
+        <v>0.9504044491514535</v>
       </c>
       <c r="Y7" s="1">
         <f ca="1">_xll.QCurves_GetDF($D$35,valDate,U7)</f>
-        <v>0.98073433665265808</v>
+        <v>0.98057323743836877</v>
       </c>
     </row>
     <row r="8" spans="2:25" x14ac:dyDescent="0.25">
@@ -3203,74 +3205,74 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <f ca="1">_xll.BDP(C8,"PX_LAST")</f>
-        <v>7.39</v>
+        <f>_xll.BDP(C8,"PX_LAST")</f>
+        <v>7.47</v>
       </c>
       <c r="E8" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>7.3899999999999993E-2</v>
+        <f t="shared" si="1"/>
+        <v>7.4700000000000003E-2</v>
       </c>
       <c r="F8" t="str">
         <f ca="1">_xll.QIns_CreateFRA("ZAROISFra_"&amp;B8,valDate,B8,index,"ZAR",E8,1,"ZAR.JIBAR.3M","ZAR.OIS.1B",,,"ZAR.JIBAR.3M")</f>
-        <v>ZAROISFra_6x9¬1</v>
+        <v>ZAROISFra_6x9¬0</v>
       </c>
       <c r="I8" t="s">
         <v>40</v>
       </c>
       <c r="J8" t="str">
-        <f t="shared" ref="J8:J11" ca="1" si="3">I8&amp;" Comdty"</f>
+        <f t="shared" ref="J8:J11" si="3">I8&amp;" Comdty"</f>
         <v>EDZ8 Comdty</v>
       </c>
       <c r="K8">
-        <f ca="1">_xll.BDP(J8,"PX_LAST")</f>
-        <v>97.41</v>
+        <f>_xll.BDP(J8,"PX_LAST")</f>
+        <v>97.335000000000008</v>
       </c>
       <c r="L8" s="4">
-        <f t="shared" ref="L8:L11" ca="1" si="4">K8</f>
-        <v>97.41</v>
+        <f t="shared" ref="L8:L11" si="4">K8</f>
+        <v>97.335000000000008</v>
       </c>
       <c r="M8" t="str">
         <f ca="1">_xll.QIns_CreateSTIRFromCode(I8,valDate,I8,$J$2,L8,1,0,"USD.LIBOR.3M","USD.LIBOR.3M")</f>
-        <v>EDZ8¬1</v>
+        <v>EDZ8¬0</v>
       </c>
       <c r="O8" s="2">
         <f ca="1">_xll.QDates_AddPeriod($R$5,P8,"MF","JHB+NYC")</f>
-        <v>43402</v>
+        <v>43417</v>
       </c>
       <c r="P8" t="s">
         <v>59</v>
       </c>
       <c r="Q8">
-        <f ca="1">_xll.BDP("ZAR"&amp;P8&amp;" Curncy","PX_LAST")</f>
-        <v>1198</v>
+        <f>_xll.BDP("ZAR"&amp;P8&amp;" Curncy","PX_LAST")</f>
+        <v>1276</v>
       </c>
       <c r="R8" s="5">
-        <f t="shared" ca="1" si="2"/>
-        <v>14.352499999999999</v>
+        <f t="shared" si="2"/>
+        <v>15.229799999999999</v>
       </c>
       <c r="S8" s="5" t="str">
         <f ca="1">_xll.QIns_CreateFxForward("ZARFwd_"&amp;P8,O8,"ZAR","USD",1000000,R8,"ZAR.DISC.[USD.OIS.1B]","ZAR.DISC.[USD.OIS.1B]")</f>
-        <v>ZARFwd_2m¬1</v>
+        <v>ZARFwd_2m¬0</v>
       </c>
       <c r="U8" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>43700</v>
+        <v>43719</v>
       </c>
       <c r="V8" s="1">
         <f ca="1">_xll.QCurves_GetDF($D$33,valDate,U8)</f>
-        <v>0.93029606926085007</v>
+        <v>0.92945807161013494</v>
       </c>
       <c r="W8" s="1">
         <f ca="1">_xll.QCurves_GetForwardRate($D$33,U8,U9,"Linear","Act365F")</f>
-        <v>7.6368988980656957E-2</v>
+        <v>7.8500000000000139E-2</v>
       </c>
       <c r="X8" s="1">
         <f ca="1">_xll.QCurves_GetDF($D$34,valDate,U8)</f>
-        <v>0.93395727623295977</v>
+        <v>0.93311748898564284</v>
       </c>
       <c r="Y8" s="1">
         <f ca="1">_xll.QCurves_GetDF($D$35,valDate,U8)</f>
-        <v>0.97372121136336409</v>
+        <v>0.97324658326694446</v>
       </c>
     </row>
     <row r="9" spans="2:25" x14ac:dyDescent="0.25">
@@ -3281,74 +3283,74 @@
         <v>7</v>
       </c>
       <c r="D9">
-        <f ca="1">_xll.BDP(C9,"PX_LAST")</f>
-        <v>7.54</v>
+        <f>_xll.BDP(C9,"PX_LAST")</f>
+        <v>7.75</v>
       </c>
       <c r="E9" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>7.5399999999999995E-2</v>
+        <f t="shared" si="1"/>
+        <v>7.7499999999999999E-2</v>
       </c>
       <c r="F9" t="str">
         <f ca="1">_xll.QIns_CreateFRA("ZAROISFra_"&amp;B9,valDate,B9,index,"ZAR",E9,1,"ZAR.JIBAR.3M","ZAR.OIS.1B",,,"ZAR.JIBAR.3M")</f>
-        <v>ZAROISFra_9x12¬1</v>
+        <v>ZAROISFra_9x12¬0</v>
       </c>
       <c r="I9" t="s">
         <v>42</v>
       </c>
       <c r="J9" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" si="3"/>
         <v>EDH9 Comdty</v>
       </c>
       <c r="K9">
-        <f ca="1">_xll.BDP(J9,"PX_LAST")</f>
-        <v>97.27</v>
+        <f>_xll.BDP(J9,"PX_LAST")</f>
+        <v>97.17</v>
       </c>
       <c r="L9" s="4">
-        <f t="shared" ca="1" si="4"/>
-        <v>97.27</v>
+        <f t="shared" si="4"/>
+        <v>97.17</v>
       </c>
       <c r="M9" t="str">
         <f ca="1">_xll.QIns_CreateSTIRFromCode(I9,valDate,I9,$J$2,L9,1,0,"USD.LIBOR.3M","USD.LIBOR.3M")</f>
-        <v>EDH9¬1</v>
+        <v>EDH9¬0</v>
       </c>
       <c r="O9" s="2">
         <f ca="1">_xll.QDates_AddPeriod($R$5,P9,"MF","JHB+NYC")</f>
-        <v>43431</v>
+        <v>43447</v>
       </c>
       <c r="P9" t="s">
         <v>0</v>
       </c>
       <c r="Q9">
-        <f ca="1">_xll.BDP("ZAR"&amp;P9&amp;" Curncy","PX_LAST")</f>
-        <v>1744</v>
+        <f>_xll.BDP("ZAR"&amp;P9&amp;" Curncy","PX_LAST")</f>
+        <v>1902</v>
       </c>
       <c r="R9" s="5">
-        <f t="shared" ca="1" si="2"/>
-        <v>14.4071</v>
+        <f t="shared" si="2"/>
+        <v>15.292400000000001</v>
       </c>
       <c r="S9" s="5" t="str">
         <f ca="1">_xll.QIns_CreateFxForward("ZARFwd_"&amp;P9,O9,"ZAR","USD",1000000,R9,"ZAR.DISC.[USD.OIS.1B]","ZAR.DISC.[USD.OIS.1B]")</f>
-        <v>ZARFwd_3m¬1</v>
+        <v>ZARFwd_3m¬0</v>
       </c>
       <c r="U9" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>43792</v>
+        <v>43810</v>
       </c>
       <c r="V9" s="1">
         <f ca="1">_xll.QCurves_GetDF($D$33,valDate,U9)</f>
-        <v>0.91272683540212118</v>
+        <v>0.91161661062923127</v>
       </c>
       <c r="W9" s="1">
         <f ca="1">_xll.QCurves_GetForwardRate($D$33,U9,U10,"Linear","Act365F")</f>
-        <v>7.7379630109719877E-2</v>
+        <v>7.9799999999999524E-2</v>
       </c>
       <c r="X9" s="1">
         <f ca="1">_xll.QCurves_GetDF($D$34,valDate,U9)</f>
-        <v>0.91726158696039584</v>
+        <v>0.91615444467808482</v>
       </c>
       <c r="Y9" s="1">
         <f ca="1">_xll.QCurves_GetDF($D$35,valDate,U9)</f>
-        <v>0.96670988783057521</v>
+        <v>0.96587094753467573</v>
       </c>
     </row>
     <row r="10" spans="2:25" x14ac:dyDescent="0.25">
@@ -3359,74 +3361,74 @@
         <v>9</v>
       </c>
       <c r="D10">
-        <f ca="1">_xll.BDP(C10,"PX_LAST")</f>
-        <v>7.64</v>
+        <f>_xll.BDP(C10,"PX_LAST")</f>
+        <v>7.85</v>
       </c>
       <c r="E10" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>7.6399999999999996E-2</v>
+        <f t="shared" si="1"/>
+        <v>7.85E-2</v>
       </c>
       <c r="F10" t="str">
         <f ca="1">_xll.QIns_CreateFRA("ZAROISFra_"&amp;B10,valDate,B10,index,"ZAR",E10,1,"ZAR.JIBAR.3M","ZAR.OIS.1B",,,"ZAR.JIBAR.3M")</f>
-        <v>ZAROISFra_12x15¬1</v>
+        <v>ZAROISFra_12x15¬0</v>
       </c>
       <c r="I10" t="s">
         <v>41</v>
       </c>
       <c r="J10" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" si="3"/>
         <v>EDM9 Comdty</v>
       </c>
       <c r="K10">
-        <f ca="1">_xll.BDP(J10,"PX_LAST")</f>
-        <v>97.165000000000006</v>
+        <f>_xll.BDP(J10,"PX_LAST")</f>
+        <v>97.045000000000002</v>
       </c>
       <c r="L10" s="4">
-        <f t="shared" ca="1" si="4"/>
-        <v>97.165000000000006</v>
+        <f t="shared" si="4"/>
+        <v>97.045000000000002</v>
       </c>
       <c r="M10" t="str">
         <f ca="1">_xll.QIns_CreateSTIRFromCode(I10,valDate,I10,$J$2,L10,1,0,"USD.LIBOR.3M","USD.LIBOR.3M")</f>
-        <v>EDM9¬1</v>
+        <v>EDM9¬0</v>
       </c>
       <c r="O10" s="2">
         <f ca="1">_xll.QDates_AddPeriod($R$5,P10,"MF","JHB+NYC")</f>
-        <v>43523</v>
+        <v>43537</v>
       </c>
       <c r="P10" t="s">
         <v>32</v>
       </c>
       <c r="Q10">
-        <f ca="1">_xll.BDP("ZAR"&amp;P10&amp;" Curncy","PX_LAST")</f>
-        <v>3493</v>
+        <f>_xll.BDP("ZAR"&amp;P10&amp;" Curncy","PX_LAST")</f>
+        <v>3731</v>
       </c>
       <c r="R10" s="5">
-        <f t="shared" ca="1" si="2"/>
-        <v>14.581999999999999</v>
+        <f t="shared" si="2"/>
+        <v>15.475300000000001</v>
       </c>
       <c r="S10" s="5" t="str">
         <f ca="1">_xll.QIns_CreateFxForward("ZARFwd_"&amp;P10,O10,"ZAR","USD",1000000,R10,"ZAR.DISC.[USD.OIS.1B]","ZAR.DISC.[USD.OIS.1B]")</f>
-        <v>ZARFwd_6m¬1</v>
+        <v>ZARFwd_6m¬0</v>
       </c>
       <c r="U10" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>43884</v>
+        <v>43901</v>
       </c>
       <c r="V10" s="1">
         <f ca="1">_xll.QCurves_GetDF($D$33,valDate,U10)</f>
-        <v>0.89526565748646669</v>
+        <v>0.89383348729219447</v>
       </c>
       <c r="W10" s="1">
         <f ca="1">_xll.QCurves_GetForwardRate($D$33,U10,U11,"Linear","Act365F")</f>
-        <v>7.7311673853216759E-2</v>
+        <v>7.9842637216428577E-2</v>
       </c>
       <c r="X10" s="1">
         <f ca="1">_xll.QCurves_GetDF($D$34,valDate,U10)</f>
-        <v>0.9005682641438395</v>
+        <v>0.89910941775419073</v>
       </c>
       <c r="Y10" s="1">
         <f ca="1">_xll.QCurves_GetDF($D$35,valDate,U10)</f>
-        <v>0.95955032961756526</v>
+        <v>0.95838321150920625</v>
       </c>
     </row>
     <row r="11" spans="2:25" x14ac:dyDescent="0.25">
@@ -3437,74 +3439,74 @@
         <v>11</v>
       </c>
       <c r="D11">
-        <f ca="1">_xll.BDP(C11,"PX_LAST")</f>
-        <v>7.74</v>
+        <f>_xll.BDP(C11,"PX_LAST")</f>
+        <v>7.98</v>
       </c>
       <c r="E11" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>7.7399999999999997E-2</v>
+        <f t="shared" si="1"/>
+        <v>7.980000000000001E-2</v>
       </c>
       <c r="F11" t="str">
         <f ca="1">_xll.QIns_CreateFRA("ZAROISFra_"&amp;B11,valDate,B11,index,"ZAR",E11,1,"ZAR.JIBAR.3M","ZAR.OIS.1B",,,"ZAR.JIBAR.3M")</f>
-        <v>ZAROISFra_15x18¬1</v>
+        <v>ZAROISFra_15x18¬0</v>
       </c>
       <c r="I11" t="s">
         <v>43</v>
       </c>
       <c r="J11" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" si="3"/>
         <v>EDU9 Comdty</v>
       </c>
       <c r="K11">
-        <f ca="1">_xll.BDP(J11,"PX_LAST")</f>
-        <v>97.105000000000004</v>
+        <f>_xll.BDP(J11,"PX_LAST")</f>
+        <v>96.975000000000009</v>
       </c>
       <c r="L11" s="4">
-        <f t="shared" ca="1" si="4"/>
-        <v>97.105000000000004</v>
+        <f t="shared" si="4"/>
+        <v>96.975000000000009</v>
       </c>
       <c r="M11" t="str">
         <f ca="1">_xll.QIns_CreateSTIRFromCode(I11,valDate,I11,$J$2,L11,1,0,"USD.LIBOR.3M","USD.LIBOR.3M")</f>
-        <v>EDU9¬1</v>
+        <v>EDU9¬0</v>
       </c>
       <c r="O11" s="2">
         <f ca="1">_xll.QDates_AddPeriod($R$5,P11,"MF","JHB+NYC")</f>
-        <v>43613</v>
+        <v>43629</v>
       </c>
       <c r="P11" t="s">
         <v>33</v>
       </c>
       <c r="Q11">
-        <f ca="1">_xll.BDP("ZAR"&amp;P11&amp;" Curncy","PX_LAST")</f>
-        <v>5217</v>
+        <f>_xll.BDP("ZAR"&amp;P11&amp;" Curncy","PX_LAST")</f>
+        <v>5578</v>
       </c>
       <c r="R11" s="5">
-        <f t="shared" ca="1" si="2"/>
-        <v>14.7544</v>
+        <f t="shared" si="2"/>
+        <v>15.66</v>
       </c>
       <c r="S11" s="5" t="str">
         <f ca="1">_xll.QIns_CreateFxForward("ZARFwd_"&amp;P11,O11,"ZAR","USD",1000000,R11,"ZAR.DISC.[USD.OIS.1B]","ZAR.DISC.[USD.OIS.1B]")</f>
-        <v>ZARFwd_9m¬1</v>
+        <v>ZARFwd_9m¬0</v>
       </c>
       <c r="U11" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>43974</v>
+        <v>43993</v>
       </c>
       <c r="V11" s="1">
         <f ca="1">_xll.QCurves_GetDF($D$33,valDate,U11)</f>
-        <v>0.87851832865115798</v>
+        <v>0.87620020394653664</v>
       </c>
       <c r="W11" s="1">
         <f ca="1">_xll.QCurves_GetForwardRate($D$33,U11,U12,"Linear","Act365F")</f>
-        <v>7.8173976724477331E-2</v>
+        <v>8.1064096357870888E-2</v>
       </c>
       <c r="X11" s="1">
         <f ca="1">_xll.QCurves_GetDF($D$34,valDate,U11)</f>
-        <v>0.88457936587055286</v>
+        <v>0.88224399825491229</v>
       </c>
       <c r="Y11" s="1">
         <f ca="1">_xll.QCurves_GetDF($D$35,valDate,U11)</f>
-        <v>0.95240686981858658</v>
+        <v>0.9506107620164328</v>
       </c>
     </row>
     <row r="12" spans="2:25" x14ac:dyDescent="0.25">
@@ -3515,16 +3517,16 @@
         <v>18</v>
       </c>
       <c r="D12">
-        <f ca="1">_xll.BDP(C12,"PX_LAST")</f>
-        <v>7.5025000000000004</v>
+        <f>_xll.BDP(C12,"PX_LAST")</f>
+        <v>7.6675000000000004</v>
       </c>
       <c r="E12" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>7.5025000000000008E-2</v>
+        <f t="shared" si="1"/>
+        <v>7.6675000000000007E-2</v>
       </c>
       <c r="F12" t="str">
         <f ca="1">_xll.QIns_CreateIRS("ZAROISSwap_"&amp;B12,valDate,B12,index,E12,1,"ZAR.JIBAR.3M","ZAR.OIS.1B","Pay","ZAR.JIBAR.3M")</f>
-        <v>ZAROISSwap_2y¬1</v>
+        <v>ZAROISSwap_2y¬0</v>
       </c>
       <c r="I12" t="s">
         <v>12</v>
@@ -3533,55 +3535,55 @@
         <v>44</v>
       </c>
       <c r="K12">
-        <f ca="1">_xll.BDP(J12,"PX_LAST")</f>
-        <v>2.7953999999999999</v>
+        <f>_xll.BDP(J12,"PX_LAST")</f>
+        <v>2.9161000000000001</v>
       </c>
       <c r="L12" s="1">
-        <f t="shared" ref="L12:L17" ca="1" si="5">K12/100</f>
-        <v>2.7954E-2</v>
+        <f t="shared" ref="L12:L17" si="5">K12/100</f>
+        <v>2.9161000000000003E-2</v>
       </c>
       <c r="M12" t="str">
         <f ca="1">_xll.QIns_CreateIRS("USDOISSwap_"&amp;I12,valDate,I12,$J$2,L12,1,"USD.LIBOR.3M","USD.OIS.1B","Pay","USD.LIBOR.3M")</f>
-        <v>USDOISSwap_2y¬1</v>
+        <v>USDOISSwap_2y¬0</v>
       </c>
       <c r="O12" s="2">
         <f ca="1">_xll.QDates_AddPeriod($R$5,P12,"MF","JHB+NYC")</f>
-        <v>43704</v>
+        <v>43721</v>
       </c>
       <c r="P12" t="s">
         <v>61</v>
       </c>
       <c r="Q12">
-        <f ca="1">_xll.BDP("ZAR"&amp;P12&amp;" Curncy","PX_LAST")</f>
-        <v>6995</v>
+        <f>_xll.BDP("ZAR"&amp;P12&amp;" Curncy","PX_LAST")</f>
+        <v>7477</v>
       </c>
       <c r="R12" s="5">
-        <f t="shared" ca="1" si="2"/>
-        <v>14.9322</v>
+        <f t="shared" si="2"/>
+        <v>15.8499</v>
       </c>
       <c r="S12" s="5" t="str">
         <f ca="1">_xll.QIns_CreateFxForward("ZARFwd_"&amp;P12,O12,"ZAR","USD",1000000,R12,"ZAR.DISC.[USD.OIS.1B]","ZAR.DISC.[USD.OIS.1B]")</f>
-        <v>ZARFwd_12m¬1</v>
+        <v>ZARFwd_12m¬0</v>
       </c>
       <c r="U12" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>44066</v>
+        <v>44085</v>
       </c>
       <c r="V12" s="1">
         <f ca="1">_xll.QCurves_GetDF($D$33,valDate,U12)</f>
-        <v>0.86154238917063164</v>
+        <v>0.85865564170456976</v>
       </c>
       <c r="W12" s="1">
         <f ca="1">_xll.QCurves_GetForwardRate($D$33,U12,U13,"Linear","Act365F")</f>
-        <v>7.9389847184515167E-2</v>
+        <v>8.1950906918311028E-2</v>
       </c>
       <c r="X12" s="1">
         <f ca="1">_xll.QCurves_GetDF($D$34,valDate,U12)</f>
-        <v>0.86834439879830871</v>
+        <v>0.86543349533498681</v>
       </c>
       <c r="Y12" s="1">
         <f ca="1">_xll.QCurves_GetDF($D$35,valDate,U12)</f>
-        <v>0.94496605708699355</v>
+        <v>0.94263159534347363</v>
       </c>
     </row>
     <row r="13" spans="2:25" x14ac:dyDescent="0.25">
@@ -3592,16 +3594,16 @@
         <v>19</v>
       </c>
       <c r="D13">
-        <f ca="1">_xll.BDP(C13,"PX_LAST")</f>
-        <v>7.68</v>
+        <f>_xll.BDP(C13,"PX_LAST")</f>
+        <v>7.8849999999999998</v>
       </c>
       <c r="E13" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>7.6799999999999993E-2</v>
+        <f t="shared" si="1"/>
+        <v>7.8850000000000003E-2</v>
       </c>
       <c r="F13" t="str">
         <f ca="1">_xll.QIns_CreateIRS("ZAROISSwap_"&amp;B13,valDate,B13,index,E13,1,"ZAR.JIBAR.3M","ZAR.OIS.1B","Pay","ZAR.JIBAR.3M")</f>
-        <v>ZAROISSwap_3y¬1</v>
+        <v>ZAROISSwap_3y¬0</v>
       </c>
       <c r="I13" t="s">
         <v>13</v>
@@ -3610,55 +3612,55 @@
         <v>45</v>
       </c>
       <c r="K13">
-        <f ca="1">_xll.BDP(J13,"PX_LAST")</f>
-        <v>2.8378999999999999</v>
+        <f>_xll.BDP(J13,"PX_LAST")</f>
+        <v>2.9643999999999999</v>
       </c>
       <c r="L13" s="1">
-        <f t="shared" ca="1" si="5"/>
-        <v>2.8378999999999998E-2</v>
+        <f t="shared" si="5"/>
+        <v>2.9644E-2</v>
       </c>
       <c r="M13" t="str">
         <f ca="1">_xll.QIns_CreateIRS("USDOISSwap_"&amp;I13,valDate,I13,$J$2,L13,1,"USD.LIBOR.3M","USD.OIS.1B","Pay","USD.LIBOR.3M")</f>
-        <v>USDOISSwap_3y¬1</v>
+        <v>USDOISSwap_3y¬0</v>
       </c>
       <c r="O13" s="2">
         <f ca="1">_xll.QDates_AddPeriod($R$5,P13,"MF","JHB+NYC")</f>
-        <v>43796</v>
+        <v>43812</v>
       </c>
       <c r="P13" t="s">
         <v>60</v>
       </c>
       <c r="Q13">
-        <f ca="1">_xll.BDP("ZAR"&amp;P13&amp;" Curncy","PX_LAST")</f>
-        <v>8960</v>
+        <f>_xll.BDP("ZAR"&amp;P13&amp;" Curncy","PX_LAST")</f>
+        <v>9535</v>
       </c>
       <c r="R13" s="5">
-        <f t="shared" ca="1" si="2"/>
-        <v>15.1287</v>
+        <f t="shared" si="2"/>
+        <v>16.055700000000002</v>
       </c>
       <c r="S13" s="5" t="str">
         <f ca="1">_xll.QIns_CreateFxForward("ZARFwd_"&amp;P13,O13,"ZAR","USD",1000000,R13,"ZAR.DISC.[USD.OIS.1B]","ZAR.DISC.[USD.OIS.1B]")</f>
-        <v>ZARFwd_15m¬1</v>
+        <v>ZARFwd_15m¬0</v>
       </c>
       <c r="U13" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>44158</v>
+        <v>44176</v>
       </c>
       <c r="V13" s="1">
         <f ca="1">_xll.QCurves_GetDF($D$33,valDate,U13)</f>
-        <v>0.84464063044979254</v>
+        <v>0.84146320546568354</v>
       </c>
       <c r="W13" s="1">
         <f ca="1">_xll.QCurves_GetForwardRate($D$33,U13,U14,"Linear","Act365F")</f>
-        <v>8.0350111479949582E-2</v>
+        <v>8.3073121110234779E-2</v>
       </c>
       <c r="X13" s="1">
         <f ca="1">_xll.QCurves_GetDF($D$34,valDate,U13)</f>
-        <v>0.85227327644322692</v>
+        <v>0.84911974800451728</v>
       </c>
       <c r="Y13" s="1">
         <f ca="1">_xll.QCurves_GetDF($D$35,valDate,U13)</f>
-        <v>0.93802000724407397</v>
+        <v>0.93547314411445481</v>
       </c>
     </row>
     <row r="14" spans="2:25" x14ac:dyDescent="0.25">
@@ -3669,16 +3671,16 @@
         <v>20</v>
       </c>
       <c r="D14">
-        <f ca="1">_xll.BDP(C14,"PX_LAST")</f>
-        <v>7.8250000000000002</v>
+        <f>_xll.BDP(C14,"PX_LAST")</f>
+        <v>8.0374999999999996</v>
       </c>
       <c r="E14" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>7.825E-2</v>
+        <f t="shared" si="1"/>
+        <v>8.0375000000000002E-2</v>
       </c>
       <c r="F14" t="str">
         <f ca="1">_xll.QIns_CreateIRS("ZAROISSwap_"&amp;B14,valDate,B14,index,E14,1,"ZAR.JIBAR.3M","ZAR.OIS.1B","Pay","ZAR.JIBAR.3M")</f>
-        <v>ZAROISSwap_4y¬1</v>
+        <v>ZAROISSwap_4y¬0</v>
       </c>
       <c r="I14" t="s">
         <v>14</v>
@@ -3687,55 +3689,55 @@
         <v>48</v>
       </c>
       <c r="K14">
-        <f ca="1">_xll.BDP(J14,"PX_LAST")</f>
-        <v>2.8466999999999998</v>
+        <f>_xll.BDP(J14,"PX_LAST")</f>
+        <v>2.9748999999999999</v>
       </c>
       <c r="L14" s="1">
-        <f t="shared" ca="1" si="5"/>
-        <v>2.8466999999999999E-2</v>
+        <f t="shared" si="5"/>
+        <v>2.9748999999999998E-2</v>
       </c>
       <c r="M14" t="str">
         <f ca="1">_xll.QIns_CreateIRS("USDOISSwap_"&amp;I14,valDate,I14,$J$2,L14,1,"USD.LIBOR.3M","USD.OIS.1B","Pay","USD.LIBOR.3M")</f>
-        <v>USDOISSwap_4y¬1</v>
+        <v>USDOISSwap_4y¬0</v>
       </c>
       <c r="O14" s="2">
         <f ca="1">_xll.QDates_AddPeriod($R$5,P14,"MF","JHB+NYC")</f>
-        <v>43888</v>
+        <v>43903</v>
       </c>
       <c r="P14" t="s">
         <v>35</v>
       </c>
       <c r="Q14">
-        <f ca="1">_xll.BDP("ZAR"&amp;P14&amp;" Curncy","PX_LAST")</f>
-        <v>10853</v>
+        <f>_xll.BDP("ZAR"&amp;P14&amp;" Curncy","PX_LAST")</f>
+        <v>11493</v>
       </c>
       <c r="R14" s="5">
-        <f t="shared" ca="1" si="2"/>
-        <v>15.318</v>
+        <f t="shared" si="2"/>
+        <v>16.2515</v>
       </c>
       <c r="S14" s="5" t="str">
         <f ca="1">_xll.QIns_CreateFxForward("ZARFwd_"&amp;P14,O14,"ZAR","USD",1000000,R14,"ZAR.DISC.[USD.OIS.1B]","ZAR.DISC.[USD.OIS.1B]")</f>
-        <v>ZARFwd_18m¬1</v>
+        <v>ZARFwd_18m¬0</v>
       </c>
       <c r="U14" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>44250</v>
+        <v>44266</v>
       </c>
       <c r="V14" s="1">
         <f ca="1">_xll.QCurves_GetDF($D$33,valDate,U14)</f>
-        <v>0.82787400386842136</v>
+        <v>0.82457283422470196</v>
       </c>
       <c r="W14" s="1">
         <f ca="1">_xll.QCurves_GetForwardRate($D$33,U14,U15,"Linear","Act365F")</f>
-        <v>8.1264756950007871E-2</v>
+        <v>8.4230333626428192E-2</v>
       </c>
       <c r="X14" s="1">
         <f ca="1">_xll.QCurves_GetDF($D$34,valDate,U14)</f>
-        <v>0.83632917995452449</v>
+        <v>0.83309926423548697</v>
       </c>
       <c r="Y14" s="1">
         <f ca="1">_xll.QCurves_GetDF($D$35,valDate,U14)</f>
-        <v>0.93107988613105852</v>
+        <v>0.92839255403723897</v>
       </c>
     </row>
     <row r="15" spans="2:25" x14ac:dyDescent="0.25">
@@ -3746,16 +3748,16 @@
         <v>21</v>
       </c>
       <c r="D15">
-        <f ca="1">_xll.BDP(C15,"PX_LAST")</f>
-        <v>7.95</v>
+        <f>_xll.BDP(C15,"PX_LAST")</f>
+        <v>8.1850000000000005</v>
       </c>
       <c r="E15" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>7.9500000000000001E-2</v>
+        <f t="shared" si="1"/>
+        <v>8.1850000000000006E-2</v>
       </c>
       <c r="F15" t="str">
         <f ca="1">_xll.QIns_CreateIRS("ZAROISSwap_"&amp;B15,valDate,B15,index,E15,1,"ZAR.JIBAR.3M","ZAR.OIS.1B","Pay","ZAR.JIBAR.3M")</f>
-        <v>ZAROISSwap_5y¬1</v>
+        <v>ZAROISSwap_5y¬0</v>
       </c>
       <c r="I15" t="s">
         <v>15</v>
@@ -3764,55 +3766,55 @@
         <v>46</v>
       </c>
       <c r="K15">
-        <f ca="1">_xll.BDP(J15,"PX_LAST")</f>
-        <v>2.8500999999999999</v>
+        <f>_xll.BDP(J15,"PX_LAST")</f>
+        <v>2.9759000000000002</v>
       </c>
       <c r="L15" s="1">
-        <f t="shared" ca="1" si="5"/>
-        <v>2.8500999999999999E-2</v>
+        <f t="shared" si="5"/>
+        <v>2.9759000000000001E-2</v>
       </c>
       <c r="M15" t="str">
         <f ca="1">_xll.QIns_CreateIRS("USDOISSwap_"&amp;I15,valDate,I15,$J$2,L15,1,"USD.LIBOR.3M","USD.OIS.1B","Pay","USD.LIBOR.3M")</f>
-        <v>USDOISSwap_5y¬1</v>
+        <v>USDOISSwap_5y¬0</v>
       </c>
       <c r="O15" s="2">
         <f ca="1">_xll.QDates_AddPeriod($R$5,P15,"MF","JHB+NYC")</f>
-        <v>44070</v>
+        <v>44088</v>
       </c>
       <c r="P15" t="s">
         <v>12</v>
       </c>
       <c r="Q15">
-        <f ca="1">_xll.BDP("ZAR"&amp;P15&amp;" Curncy","PX_LAST")</f>
-        <v>14860</v>
+        <f>_xll.BDP("ZAR"&amp;P15&amp;" Curncy","PX_LAST")</f>
+        <v>15920</v>
       </c>
       <c r="R15" s="5">
-        <f t="shared" ca="1" si="2"/>
-        <v>15.7187</v>
+        <f t="shared" si="2"/>
+        <v>16.694199999999999</v>
       </c>
       <c r="S15" s="5" t="str">
         <f ca="1">_xll.QIns_CreateFxForward("ZARFwd_"&amp;P15,O15,"ZAR","USD",1000000,R15,"ZAR.DISC.[USD.OIS.1B]","ZAR.DISC.[USD.OIS.1B]")</f>
-        <v>ZARFwd_2y¬1</v>
+        <v>ZARFwd_2y¬0</v>
       </c>
       <c r="U15" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>44339</v>
+        <v>44358</v>
       </c>
       <c r="V15" s="1">
         <f ca="1">_xll.QCurves_GetDF($D$33,valDate,U15)</f>
-        <v>0.8117882236777566</v>
+        <v>0.80743055117559626</v>
       </c>
       <c r="W15" s="1">
         <f ca="1">_xll.QCurves_GetForwardRate($D$33,U15,U16,"Linear","Act365F")</f>
-        <v>8.2233557496078025E-2</v>
+        <v>8.5381599349537929E-2</v>
       </c>
       <c r="X15" s="1">
         <f ca="1">_xll.QCurves_GetDF($D$34,valDate,U15)</f>
-        <v>0.82102923899143121</v>
+        <v>0.8168451639322053</v>
       </c>
       <c r="Y15" s="1">
         <f ca="1">_xll.QCurves_GetDF($D$35,valDate,U15)</f>
-        <v>0.92436652942441988</v>
+        <v>0.92115465534331853</v>
       </c>
     </row>
     <row r="16" spans="2:25" x14ac:dyDescent="0.25">
@@ -3823,16 +3825,16 @@
         <v>22</v>
       </c>
       <c r="D16">
-        <f ca="1">_xll.BDP(C16,"PX_LAST")</f>
-        <v>8.1920000000000002</v>
+        <f>_xll.BDP(C16,"PX_LAST")</f>
+        <v>8.4320000000000004</v>
       </c>
       <c r="E16" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>8.1920000000000007E-2</v>
+        <f t="shared" si="1"/>
+        <v>8.4320000000000006E-2</v>
       </c>
       <c r="F16" t="str">
         <f ca="1">_xll.QIns_CreateIRS("ZAROISSwap_"&amp;B16,valDate,B16,index,E16,1,"ZAR.JIBAR.3M","ZAR.OIS.1B","Pay","ZAR.JIBAR.3M")</f>
-        <v>ZAROISSwap_7y¬1</v>
+        <v>ZAROISSwap_7y¬0</v>
       </c>
       <c r="I16" t="s">
         <v>16</v>
@@ -3841,55 +3843,55 @@
         <v>49</v>
       </c>
       <c r="K16">
-        <f ca="1">_xll.BDP(J16,"PX_LAST")</f>
-        <v>2.863</v>
+        <f>_xll.BDP(J16,"PX_LAST")</f>
+        <v>2.9853999999999998</v>
       </c>
       <c r="L16" s="1">
-        <f t="shared" ca="1" si="5"/>
-        <v>2.8629999999999999E-2</v>
+        <f t="shared" si="5"/>
+        <v>2.9853999999999999E-2</v>
       </c>
       <c r="M16" t="str">
         <f ca="1">_xll.QIns_CreateIRS("USDOISSwap_"&amp;I16,valDate,I16,$J$2,L16,1,"USD.LIBOR.3M","USD.OIS.1B","Pay","USD.LIBOR.3M")</f>
-        <v>USDOISSwap_7y¬1</v>
+        <v>USDOISSwap_7y¬0</v>
       </c>
       <c r="O16" s="2">
         <f ca="1">_xll.QDates_AddPeriod($R$5,P16,"MF","JHB+NYC")</f>
-        <v>44435</v>
+        <v>44452</v>
       </c>
       <c r="P16" t="s">
         <v>13</v>
       </c>
       <c r="Q16">
-        <f ca="1">_xll.BDP("ZAR"&amp;P16&amp;" Curncy","PX_LAST")</f>
-        <v>23734</v>
+        <f>_xll.BDP("ZAR"&amp;P16&amp;" Curncy","PX_LAST")</f>
+        <v>25645</v>
       </c>
       <c r="R16" s="5">
-        <f t="shared" ca="1" si="2"/>
-        <v>16.606099999999998</v>
+        <f t="shared" si="2"/>
+        <v>17.666699999999999</v>
       </c>
       <c r="S16" s="5" t="str">
         <f ca="1">_xll.QIns_CreateFxForward("ZARFwd_"&amp;P16,O16,"ZAR","USD",1000000,R16,"ZAR.DISC.[USD.OIS.1B]","ZAR.DISC.[USD.OIS.1B]")</f>
-        <v>ZARFwd_3y¬1</v>
+        <v>ZARFwd_3y¬0</v>
       </c>
       <c r="U16" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>44431</v>
+        <v>44450</v>
       </c>
       <c r="V16" s="1">
         <f ca="1">_xll.QCurves_GetDF($D$33,valDate,U16)</f>
-        <v>0.79530367613474107</v>
+        <v>0.7904200466491379</v>
       </c>
       <c r="W16" s="1">
         <f ca="1">_xll.QCurves_GetForwardRate($D$33,U16,U17,"Linear","Act365F")</f>
-        <v>8.2177299536205409E-2</v>
+        <v>8.4557755057582923E-2</v>
       </c>
       <c r="X16" s="1">
         <f ca="1">_xll.QCurves_GetDF($D$34,valDate,U16)</f>
-        <v>0.80534582462389337</v>
+        <v>0.8007199181669622</v>
       </c>
       <c r="Y16" s="1">
         <f ca="1">_xll.QCurves_GetDF($D$35,valDate,U16)</f>
-        <v>0.91742808825233146</v>
+        <v>0.91391766418381992</v>
       </c>
     </row>
     <row r="17" spans="2:25" x14ac:dyDescent="0.25">
@@ -3900,16 +3902,16 @@
         <v>23</v>
       </c>
       <c r="D17">
-        <f ca="1">_xll.BDP(C17,"PX_LAST")</f>
-        <v>8.4250000000000007</v>
+        <f>_xll.BDP(C17,"PX_LAST")</f>
+        <v>8.6649999999999991</v>
       </c>
       <c r="E17" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>8.4250000000000005E-2</v>
+        <f t="shared" si="1"/>
+        <v>8.6649999999999991E-2</v>
       </c>
       <c r="F17" t="str">
         <f ca="1">_xll.QIns_CreateIRS("ZAROISSwap_"&amp;B17,valDate,B17,index,E17,1,"ZAR.JIBAR.3M","ZAR.OIS.1B","Pay","ZAR.JIBAR.3M")</f>
-        <v>ZAROISSwap_10y¬1</v>
+        <v>ZAROISSwap_10y¬0</v>
       </c>
       <c r="I17" t="s">
         <v>17</v>
@@ -3918,55 +3920,55 @@
         <v>47</v>
       </c>
       <c r="K17">
-        <f ca="1">_xll.BDP(J17,"PX_LAST")</f>
-        <v>2.9005999999999998</v>
+        <f>_xll.BDP(J17,"PX_LAST")</f>
+        <v>3.0169999999999999</v>
       </c>
       <c r="L17" s="1">
-        <f t="shared" ca="1" si="5"/>
-        <v>2.9005999999999997E-2</v>
+        <f t="shared" si="5"/>
+        <v>3.0169999999999999E-2</v>
       </c>
       <c r="M17" t="str">
         <f ca="1">_xll.QIns_CreateIRS("USDOISSwap_"&amp;I17,valDate,I17,$J$2,L17,1,"USD.LIBOR.3M","USD.OIS.1B","Pay","USD.LIBOR.3M")</f>
-        <v>USDOISSwap_10y¬1</v>
+        <v>USDOISSwap_10y¬0</v>
       </c>
       <c r="O17" s="2">
         <f ca="1">_xll.QDates_AddPeriod($R$5,P17,"MF","JHB+NYC")</f>
-        <v>44802</v>
+        <v>44817</v>
       </c>
       <c r="P17" t="s">
         <v>14</v>
       </c>
       <c r="Q17">
-        <f ca="1">_xll.BDP("ZAR"&amp;P17&amp;" Curncy","PX_LAST")</f>
-        <v>33946</v>
+        <f>_xll.BDP("ZAR"&amp;P17&amp;" Curncy","PX_LAST")</f>
+        <v>36643</v>
       </c>
       <c r="R17" s="5">
-        <f t="shared" ca="1" si="2"/>
-        <v>17.627299999999998</v>
+        <f t="shared" si="2"/>
+        <v>18.766500000000001</v>
       </c>
       <c r="S17" s="5" t="str">
         <f ca="1">_xll.QIns_CreateFxForward("ZARFwd_"&amp;P17,O17,"ZAR","USD",1000000,R17,"ZAR.DISC.[USD.OIS.1B]","ZAR.DISC.[USD.OIS.1B]")</f>
-        <v>ZARFwd_4y¬1</v>
+        <v>ZARFwd_4y¬0</v>
       </c>
       <c r="U17" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>44523</v>
+        <v>44541</v>
       </c>
       <c r="V17" s="1">
         <f ca="1">_xll.QCurves_GetDF($D$33,valDate,U17)</f>
-        <v>0.77916469571265712</v>
+        <v>0.7741008227420263</v>
       </c>
       <c r="W17" s="1">
         <f ca="1">_xll.QCurves_GetForwardRate($D$33,U17,U18,"Linear","Act365F")</f>
-        <v>8.29779004146423E-2</v>
+        <v>8.5334097121602906E-2</v>
       </c>
       <c r="X17" s="1">
         <f ca="1">_xll.QCurves_GetDF($D$34,valDate,U17)</f>
-        <v>0.78980059504199984</v>
+        <v>0.78490157286767481</v>
       </c>
       <c r="Y17" s="1">
         <f ca="1">_xll.QCurves_GetDF($D$35,valDate,U17)</f>
-        <v>0.91075186593697322</v>
+        <v>0.90703192008093436</v>
       </c>
     </row>
     <row r="18" spans="2:25" x14ac:dyDescent="0.25">
@@ -3978,7 +3980,7 @@
       </c>
       <c r="F18" t="str">
         <f ca="1">_xll.QIns_CreateIRBasisSwap("ZAROISBasis_"&amp;B18,valDate,B18,oisIndex,index,E18,TRUE,1,"ZAR.OIS.1B","ZAR.JIBAR.3M","ZAR.OIS.1B","ZAR.OIS.1B")</f>
-        <v>ZAROISBasis_3m¬1</v>
+        <v>ZAROISBasis_3m¬0</v>
       </c>
       <c r="I18" t="s">
         <v>0</v>
@@ -3988,46 +3990,46 @@
       </c>
       <c r="M18" t="str">
         <f ca="1">_xll.QIns_CreateIRBasisSwap("USDOISBasis_"&amp;I18,valDate,I18,$J$3,$J$2,L18,TRUE,1,"USD.OIS.1B","USD.LIBOR.3M","USD.OIS.1B","USD.OIS.1B")</f>
-        <v>USDOISBasis_3m¬1</v>
+        <v>USDOISBasis_3m¬0</v>
       </c>
       <c r="O18" s="2">
         <f ca="1">_xll.QDates_AddPeriod($R$5,P18,"MF","JHB+NYC")</f>
-        <v>45166</v>
+        <v>45182</v>
       </c>
       <c r="P18" t="s">
         <v>15</v>
       </c>
       <c r="Q18">
-        <f ca="1">_xll.BDP("ZAR"&amp;P18&amp;" Curncy","PX_LAST")</f>
-        <v>44854</v>
+        <f>_xll.BDP("ZAR"&amp;P18&amp;" Curncy","PX_LAST")</f>
+        <v>48809</v>
       </c>
       <c r="R18" s="5">
-        <f t="shared" ca="1" si="2"/>
-        <v>18.7181</v>
+        <f t="shared" si="2"/>
+        <v>19.9831</v>
       </c>
       <c r="S18" s="5" t="str">
         <f ca="1">_xll.QIns_CreateFxForward("ZARFwd_"&amp;P18,O18,"ZAR","USD",1000000,R18,"ZAR.DISC.[USD.OIS.1B]","ZAR.DISC.[USD.OIS.1B]")</f>
-        <v>ZARFwd_5y¬1</v>
+        <v>ZARFwd_5y¬0</v>
       </c>
       <c r="U18" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>44615</v>
+        <v>44631</v>
       </c>
       <c r="V18" s="1">
         <f ca="1">_xll.QCurves_GetDF($D$33,valDate,U18)</f>
-        <v>0.76320233592297926</v>
+        <v>0.7581484066357258</v>
       </c>
       <c r="W18" s="1">
         <f ca="1">_xll.QCurves_GetForwardRate($D$33,U18,U19,"Linear","Act365F")</f>
-        <v>8.3736974129844627E-2</v>
+        <v>8.6185728618481366E-2</v>
       </c>
       <c r="X18" s="1">
         <f ca="1">_xll.QCurves_GetDF($D$34,valDate,U18)</f>
-        <v>0.77439717390111606</v>
+        <v>0.76939035534761735</v>
       </c>
       <c r="Y18" s="1">
         <f ca="1">_xll.QCurves_GetDF($D$35,valDate,U18)</f>
-        <v>0.90411448994346721</v>
+        <v>0.90026721919765751</v>
       </c>
     </row>
     <row r="19" spans="2:25" x14ac:dyDescent="0.25">
@@ -4039,7 +4041,7 @@
       </c>
       <c r="F19" t="str">
         <f ca="1">_xll.QIns_CreateIRBasisSwap("ZAROISBasis_"&amp;B19,valDate,B19,oisIndex,index,E19,TRUE,1,"ZAR.OIS.1B","ZAR.JIBAR.3M","ZAR.OIS.1B","ZAR.OIS.1B")</f>
-        <v>ZAROISBasis_6m¬1</v>
+        <v>ZAROISBasis_6m¬0</v>
       </c>
       <c r="I19" t="s">
         <v>32</v>
@@ -4049,29 +4051,29 @@
       </c>
       <c r="M19" t="str">
         <f ca="1">_xll.QIns_CreateIRBasisSwap("USDOISBasis_"&amp;I19,valDate,I19,$J$3,$J$2,L19,TRUE,1,"USD.OIS.1B","USD.LIBOR.3M","USD.OIS.1B","USD.OIS.1B")</f>
-        <v>USDOISBasis_6m¬1</v>
+        <v>USDOISBasis_6m¬0</v>
       </c>
       <c r="R19" s="5"/>
       <c r="S19" s="5"/>
       <c r="U19" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>44704</v>
+        <v>44723</v>
       </c>
       <c r="V19" s="1">
         <f ca="1">_xll.QCurves_GetDF($D$33,valDate,U19)</f>
-        <v>0.74793103758565227</v>
+        <v>0.74202892196935799</v>
       </c>
       <c r="W19" s="1">
         <f ca="1">_xll.QCurves_GetForwardRate($D$33,U19,U20,"Linear","Act365F")</f>
-        <v>8.4553457668628193E-2</v>
+        <v>8.702685948779712E-2</v>
       </c>
       <c r="X19" s="1">
         <f ca="1">_xll.QCurves_GetDF($D$34,valDate,U19)</f>
-        <v>0.75963425064404289</v>
+        <v>0.75367594163225826</v>
       </c>
       <c r="Y19" s="1">
         <f ca="1">_xll.QCurves_GetDF($D$35,valDate,U19)</f>
-        <v>0.89773038461039745</v>
+        <v>0.89339294041795647</v>
       </c>
     </row>
     <row r="20" spans="2:25" x14ac:dyDescent="0.25">
@@ -4083,7 +4085,7 @@
       </c>
       <c r="F20" t="str">
         <f ca="1">_xll.QIns_CreateIRBasisSwap("ZAROISBasis_"&amp;B20,valDate,B20,oisIndex,index,E20,TRUE,1,"ZAR.OIS.1B","ZAR.JIBAR.3M","ZAR.OIS.1B","ZAR.OIS.1B")</f>
-        <v>ZAROISBasis_9m¬1</v>
+        <v>ZAROISBasis_9m¬0</v>
       </c>
       <c r="I20" t="s">
         <v>33</v>
@@ -4093,27 +4095,27 @@
       </c>
       <c r="M20" t="str">
         <f ca="1">_xll.QIns_CreateIRBasisSwap("USDOISBasis_"&amp;I20,valDate,I20,$J$3,$J$2,L20,TRUE,1,"USD.OIS.1B","USD.LIBOR.3M","USD.OIS.1B","USD.OIS.1B")</f>
-        <v>USDOISBasis_9m¬1</v>
+        <v>USDOISBasis_9m¬0</v>
       </c>
       <c r="U20" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>44796</v>
+        <v>44815</v>
       </c>
       <c r="V20" s="1">
         <f ca="1">_xll.QCurves_GetDF($D$33,valDate,U20)</f>
-        <v>0.73232367888758354</v>
+        <v>0.72610149561158499</v>
       </c>
       <c r="W20" s="1">
         <f ca="1">_xll.QCurves_GetForwardRate($D$33,U20,U21,"Linear","Act365F")</f>
-        <v>8.4582047947675432E-2</v>
+        <v>8.7880030400768583E-2</v>
       </c>
       <c r="X20" s="1">
         <f ca="1">_xll.QCurves_GetDF($D$34,valDate,U20)</f>
-        <v>0.7445197962416189</v>
+        <v>0.73810893892134133</v>
       </c>
       <c r="Y20" s="1">
         <f ca="1">_xll.QCurves_GetDF($D$35,valDate,U20)</f>
-        <v>0.8911690237423634</v>
+        <v>0.88655972122946491</v>
       </c>
     </row>
     <row r="21" spans="2:25" x14ac:dyDescent="0.25">
@@ -4125,7 +4127,7 @@
       </c>
       <c r="F21" t="str">
         <f ca="1">_xll.QIns_CreateIRBasisSwap("ZAROISBasis_"&amp;B21,valDate,B21,oisIndex,index,E21,TRUE,1,"ZAR.OIS.1B","ZAR.JIBAR.3M","ZAR.OIS.1B","ZAR.OIS.1B")</f>
-        <v>ZAROISBasis_1y¬1</v>
+        <v>ZAROISBasis_1y¬0</v>
       </c>
       <c r="I21" t="s">
         <v>34</v>
@@ -4135,27 +4137,27 @@
       </c>
       <c r="M21" t="str">
         <f ca="1">_xll.QIns_CreateIRBasisSwap("USDOISBasis_"&amp;I21,valDate,I21,$J$3,$J$2,L21,TRUE,1,"USD.OIS.1B","USD.LIBOR.3M","USD.OIS.1B","USD.OIS.1B")</f>
-        <v>USDOISBasis_1y¬1</v>
+        <v>USDOISBasis_1y¬0</v>
       </c>
       <c r="U21" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>44888</v>
+        <v>44906</v>
       </c>
       <c r="V21" s="1">
         <f ca="1">_xll.QCurves_GetDF($D$33,valDate,U21)</f>
-        <v>0.71703694545292329</v>
+        <v>0.71053383027169559</v>
       </c>
       <c r="W21" s="1">
         <f ca="1">_xll.QCurves_GetForwardRate($D$33,U21,U22,"Linear","Act365F")</f>
-        <v>8.5291592157356336E-2</v>
+        <v>8.8700353527939077E-2</v>
       </c>
       <c r="X21" s="1">
         <f ca="1">_xll.QCurves_GetDF($D$34,valDate,U21)</f>
-        <v>0.72955698365763444</v>
+        <v>0.72286027472739678</v>
       </c>
       <c r="Y21" s="1">
         <f ca="1">_xll.QCurves_GetDF($D$35,valDate,U21)</f>
-        <v>0.88469730753313991</v>
+        <v>0.87993088463029911</v>
       </c>
     </row>
     <row r="22" spans="2:25" x14ac:dyDescent="0.25">
@@ -4167,7 +4169,7 @@
       </c>
       <c r="F22" t="str">
         <f ca="1">_xll.QIns_CreateIRBasisSwap("ZAROISBasis_"&amp;B22,valDate,B22,oisIndex,index,E22,TRUE,1,"ZAR.OIS.1B","ZAR.JIBAR.3M","ZAR.OIS.1B","ZAR.OIS.1B")</f>
-        <v>ZAROISBasis_18m¬1</v>
+        <v>ZAROISBasis_18m¬0</v>
       </c>
       <c r="I22" t="s">
         <v>35</v>
@@ -4177,27 +4179,27 @@
       </c>
       <c r="M22" t="str">
         <f ca="1">_xll.QIns_CreateIRBasisSwap("USDOISBasis_"&amp;I22,valDate,I22,$J$3,$J$2,L22,TRUE,1,"USD.OIS.1B","USD.LIBOR.3M","USD.OIS.1B","USD.OIS.1B")</f>
-        <v>USDOISBasis_18m¬1</v>
+        <v>USDOISBasis_18m¬0</v>
       </c>
       <c r="U22" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>44980</v>
+        <v>44996</v>
       </c>
       <c r="V22" s="1">
         <f ca="1">_xll.QCurves_GetDF($D$33,valDate,U22)</f>
-        <v>0.70194639327425024</v>
+        <v>0.69532612994592147</v>
       </c>
       <c r="W22" s="1">
         <f ca="1">_xll.QCurves_GetForwardRate($D$33,U22,U23,"Linear","Act365F")</f>
-        <v>8.5959525938580264E-2</v>
+        <v>8.955746058083941E-2</v>
       </c>
       <c r="X22" s="1">
         <f ca="1">_xll.QCurves_GetDF($D$34,valDate,U22)</f>
-        <v>0.7147488181534809</v>
+        <v>0.70792887397166893</v>
       </c>
       <c r="Y22" s="1">
         <f ca="1">_xll.QCurves_GetDF($D$35,valDate,U22)</f>
-        <v>0.8782691546182696</v>
+        <v>0.87342413101986671</v>
       </c>
     </row>
     <row r="23" spans="2:25" x14ac:dyDescent="0.25">
@@ -4209,7 +4211,7 @@
       </c>
       <c r="F23" t="str">
         <f ca="1">_xll.QIns_CreateIRBasisSwap("ZAROISBasis_"&amp;B23,valDate,B23,oisIndex,index,E23,TRUE,1,"ZAR.OIS.1B","ZAR.JIBAR.3M","ZAR.OIS.1B","ZAR.OIS.1B")</f>
-        <v>ZAROISBasis_2y¬1</v>
+        <v>ZAROISBasis_2y¬0</v>
       </c>
       <c r="I23" t="s">
         <v>12</v>
@@ -4219,27 +4221,27 @@
       </c>
       <c r="M23" t="str">
         <f ca="1">_xll.QIns_CreateIRBasisSwap("USDOISBasis_"&amp;I23,valDate,I23,$J$3,$J$2,L23,TRUE,1,"USD.OIS.1B","USD.LIBOR.3M","USD.OIS.1B","USD.OIS.1B")</f>
-        <v>USDOISBasis_2y¬1</v>
+        <v>USDOISBasis_2y¬0</v>
       </c>
       <c r="U23" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>45069</v>
+        <v>45088</v>
       </c>
       <c r="V23" s="1">
         <f ca="1">_xll.QCurves_GetDF($D$33,valDate,U23)</f>
-        <v>0.6875356501745673</v>
+        <v>0.67997675136569813</v>
       </c>
       <c r="W23" s="1">
         <f ca="1">_xll.QCurves_GetForwardRate($D$33,U23,U24,"Linear","Act365F")</f>
-        <v>8.668790596960757E-2</v>
+        <v>9.0402522752556377E-2</v>
       </c>
       <c r="X23" s="1">
         <f ca="1">_xll.QCurves_GetDF($D$34,valDate,U23)</f>
-        <v>0.70057337716066836</v>
+        <v>0.69282326581725506</v>
       </c>
       <c r="Y23" s="1">
         <f ca="1">_xll.QCurves_GetDF($D$35,valDate,U23)</f>
-        <v>0.87209182022908072</v>
+        <v>0.86682206667675066</v>
       </c>
     </row>
     <row r="24" spans="2:25" x14ac:dyDescent="0.25">
@@ -4251,7 +4253,7 @@
       </c>
       <c r="F24" t="str">
         <f ca="1">_xll.QIns_CreateIRBasisSwap("ZAROISBasis_"&amp;B24,valDate,B24,oisIndex,index,E24,TRUE,1,"ZAR.OIS.1B","ZAR.JIBAR.3M","ZAR.OIS.1B","ZAR.OIS.1B")</f>
-        <v>ZAROISBasis_5y¬1</v>
+        <v>ZAROISBasis_5y¬0</v>
       </c>
       <c r="I24" t="s">
         <v>15</v>
@@ -4261,27 +4263,27 @@
       </c>
       <c r="M24" t="str">
         <f ca="1">_xll.QIns_CreateIRBasisSwap("USDOISBasis_"&amp;I24,valDate,I24,$J$3,$J$2,L24,TRUE,1,"USD.OIS.1B","USD.LIBOR.3M","USD.OIS.1B","USD.OIS.1B")</f>
-        <v>USDOISBasis_5y¬1</v>
+        <v>USDOISBasis_5y¬0</v>
       </c>
       <c r="U24" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>45161</v>
+        <v>45180</v>
       </c>
       <c r="V24" s="1">
         <f ca="1">_xll.QCurves_GetDF($D$33,valDate,U24)</f>
-        <v>0.67283415503816146</v>
+        <v>0.66482772794168821</v>
       </c>
       <c r="W24" s="1">
         <f ca="1">_xll.QCurves_GetForwardRate($D$33,U24,U25,"Linear","Act365F")</f>
-        <v>8.7468024434981612E-2</v>
+        <v>9.0136764411830356E-2</v>
       </c>
       <c r="X24" s="1">
         <f ca="1">_xll.QCurves_GetDF($D$34,valDate,U24)</f>
-        <v>0.68607763963233137</v>
+        <v>0.67788059048674476</v>
       </c>
       <c r="Y24" s="1">
         <f ca="1">_xll.QCurves_GetDF($D$35,valDate,U24)</f>
-        <v>0.86574859698434281</v>
+        <v>0.86026946057276932</v>
       </c>
     </row>
     <row r="25" spans="2:25" x14ac:dyDescent="0.25">
@@ -4293,7 +4295,7 @@
       </c>
       <c r="F25" t="str">
         <f ca="1">_xll.QIns_CreateIRBasisSwap("ZAROISBasis_"&amp;B25,valDate,B25,oisIndex,index,E25,TRUE,1,"ZAR.OIS.1B","ZAR.JIBAR.3M","ZAR.OIS.1B","ZAR.OIS.1B")</f>
-        <v>ZAROISBasis_10y¬1</v>
+        <v>ZAROISBasis_10y¬0</v>
       </c>
       <c r="I25" t="s">
         <v>17</v>
@@ -4303,49 +4305,49 @@
       </c>
       <c r="M25" t="str">
         <f ca="1">_xll.QIns_CreateIRBasisSwap("USDOISBasis_"&amp;I25,valDate,I25,$J$3,$J$2,L25,TRUE,1,"USD.OIS.1B","USD.LIBOR.3M","USD.OIS.1B","USD.OIS.1B")</f>
-        <v>USDOISBasis_10y¬1</v>
+        <v>USDOISBasis_10y¬0</v>
       </c>
       <c r="U25" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>45253</v>
+        <v>45271</v>
       </c>
       <c r="V25" s="1">
         <f ca="1">_xll.QCurves_GetDF($D$33,valDate,U25)</f>
-        <v>0.65832034098404124</v>
+        <v>0.65021578391222823</v>
       </c>
       <c r="W25" s="1">
         <f ca="1">_xll.QCurves_GetForwardRate($D$33,U25,U26,"Linear","Act365F")</f>
-        <v>8.818481029603191E-2</v>
+        <v>9.0868583347310045E-2</v>
       </c>
       <c r="X25" s="1">
         <f ca="1">_xll.QCurves_GetDF($D$34,valDate,U25)</f>
-        <v>0.67215170884663966</v>
+        <v>0.66385703815433872</v>
       </c>
       <c r="Y25" s="1">
         <f ca="1">_xll.QCurves_GetDF($D$35,valDate,U25)</f>
-        <v>0.85940851475666524</v>
+        <v>0.8537877500242792</v>
       </c>
     </row>
     <row r="26" spans="2:25" x14ac:dyDescent="0.25">
       <c r="U26" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>45345</v>
+        <v>45362</v>
       </c>
       <c r="V26" s="1">
         <f ca="1">_xll.QCurves_GetDF($D$33,valDate,U26)</f>
-        <v>0.64400576452372627</v>
+        <v>0.63581153271741697</v>
       </c>
       <c r="W26" s="1">
         <f ca="1">_xll.QCurves_GetForwardRate($D$33,U26,U27,"Linear","Act365F")</f>
-        <v>8.887244334672606E-2</v>
+        <v>9.1615964415175832E-2</v>
       </c>
       <c r="X26" s="1">
         <f ca="1">_xll.QCurves_GetDF($D$34,valDate,U26)</f>
-        <v>0.65841217234739802</v>
+        <v>0.6500292288278654</v>
       </c>
       <c r="Y26" s="1">
         <f ca="1">_xll.QCurves_GetDF($D$35,valDate,U26)</f>
-        <v>0.85310775175103315</v>
+        <v>0.8473498651655994</v>
       </c>
     </row>
     <row r="27" spans="2:25" x14ac:dyDescent="0.25">
@@ -4354,7 +4356,7 @@
       </c>
       <c r="C27" t="str">
         <f ca="1">_xll.QIns_CreateFundingInstrumentCollection("FundingInstruments_ZAR",F6:F25)</f>
-        <v>FundingInstruments_ZAR¬1</v>
+        <v>FundingInstruments_ZAR¬0</v>
       </c>
       <c r="G27" t="s">
         <v>53</v>
@@ -4363,35 +4365,35 @@
         <v>0</v>
       </c>
       <c r="J27" t="str">
-        <f ca="1">_xll.QIns_CreateFxPair("USDZAR","ZAR","USD","NYC+JHB","2b")</f>
-        <v>USDZAR¬1</v>
+        <f>_xll.QIns_CreateFxPair("USDZAR","ZAR","USD","NYC+JHB","2b")</f>
+        <v>USDZAR¬0</v>
       </c>
       <c r="L27" t="s">
         <v>63</v>
       </c>
       <c r="M27">
-        <f ca="1">1/Q5</f>
-        <v>7.0260737597223302E-2</v>
+        <f>1/Q5</f>
+        <v>6.621551826886149E-2</v>
       </c>
       <c r="U27" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>45435</v>
+        <v>45454</v>
       </c>
       <c r="V27" s="1">
         <f ca="1">_xll.QCurves_GetDF($D$33,valDate,U27)</f>
-        <v>0.63019580912390771</v>
+        <v>0.62146061317004953</v>
       </c>
       <c r="W27" s="1">
         <f ca="1">_xll.QCurves_GetForwardRate($D$33,U27,U28,"Linear","Act365F")</f>
-        <v>8.9603173005125311E-2</v>
+        <v>9.2356275256131104E-2</v>
       </c>
       <c r="X27" s="1">
         <f ca="1">_xll.QCurves_GetDF($D$34,valDate,U27)</f>
-        <v>0.6451518417991543</v>
+        <v>0.63624833980417228</v>
       </c>
       <c r="Y27" s="1">
         <f ca="1">_xll.QCurves_GetDF($D$35,valDate,U27)</f>
-        <v>0.84698183182771469</v>
+        <v>0.84088552529130578</v>
       </c>
     </row>
     <row r="28" spans="2:25" x14ac:dyDescent="0.25">
@@ -4400,7 +4402,7 @@
       </c>
       <c r="C28" t="str">
         <f ca="1">_xll.QIns_CreateFundingInstrumentCollection("FundingInstruments_USD",M6:M25)</f>
-        <v>FundingInstruments_USD¬1</v>
+        <v>FundingInstruments_USD¬0</v>
       </c>
       <c r="G28" t="s">
         <v>54</v>
@@ -4410,27 +4412,27 @@
       </c>
       <c r="J28" t="str">
         <f ca="1">_xll.QIns_CreateFxMatrix("fxMatrix","USD",valDate,L27:M27,J27,L29:M30)</f>
-        <v>fxMatrix¬1</v>
+        <v>fxMatrix¬0</v>
       </c>
       <c r="U28" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>45527</v>
+        <v>45546</v>
       </c>
       <c r="V28" s="1">
         <f ca="1">_xll.QCurves_GetDF($D$33,valDate,U28)</f>
-        <v>0.61627724344006252</v>
+        <v>0.60732284072844955</v>
       </c>
       <c r="W28" s="1">
         <f ca="1">_xll.QCurves_GetForwardRate($D$33,U28,U29,"Linear","Act365F")</f>
-        <v>9.0320336300796625E-2</v>
+        <v>9.3080917788305087E-2</v>
       </c>
       <c r="X28" s="1">
         <f ca="1">_xll.QCurves_GetDF($D$34,valDate,U28)</f>
-        <v>0.63178145042207035</v>
+        <v>0.62266721870191188</v>
       </c>
       <c r="Y28" s="1">
         <f ca="1">_xll.QCurves_GetDF($D$35,valDate,U28)</f>
-        <v>0.84075831193153261</v>
+        <v>0.83446545746877154</v>
       </c>
     </row>
     <row r="29" spans="2:25" x14ac:dyDescent="0.25">
@@ -4439,7 +4441,7 @@
       </c>
       <c r="C29" t="str">
         <f ca="1">_xll.QIns_CreateFundingInstrumentCollection("FundingInstruments_XCY",S6:S18)</f>
-        <v>FundingInstruments_XCY¬1</v>
+        <v>FundingInstruments_XCY¬0</v>
       </c>
       <c r="G29" t="s">
         <v>55</v>
@@ -4455,23 +4457,23 @@
       </c>
       <c r="U29" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>45619</v>
+        <v>45637</v>
       </c>
       <c r="V29" s="1">
         <f ca="1">_xll.QCurves_GetDF($D$33,valDate,U29)</f>
-        <v>0.60255956884622741</v>
+        <v>0.59354866816564278</v>
       </c>
       <c r="W29" s="1">
         <f ca="1">_xll.QCurves_GetForwardRate($D$33,U29,U30,"Linear","Act365F")</f>
-        <v>9.1037626370909452E-2</v>
+        <v>9.3797276742446756E-2</v>
       </c>
       <c r="X29" s="1">
         <f ca="1">_xll.QCurves_GetDF($D$34,valDate,U29)</f>
-        <v>0.61859770140421388</v>
+        <v>0.60942996944214067</v>
       </c>
       <c r="Y29" s="1">
         <f ca="1">_xll.QCurves_GetDF($D$35,valDate,U29)</f>
-        <v>0.83457356548593986</v>
+        <v>0.82815847029312961</v>
       </c>
     </row>
     <row r="30" spans="2:25" x14ac:dyDescent="0.25">
@@ -4480,7 +4482,7 @@
       </c>
       <c r="C30" t="str">
         <f ca="1">_xll.QIns_CreateFundingInstrumentCollection("FundingInstrumentsComplex",C27:C29)</f>
-        <v>FundingInstrumentsComplex¬1</v>
+        <v>FundingInstrumentsComplex¬0</v>
       </c>
       <c r="G30" t="s">
         <v>56</v>
@@ -4496,23 +4498,23 @@
       </c>
       <c r="U30" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>45711</v>
+        <v>45727</v>
       </c>
       <c r="V30" s="1">
         <f ca="1">_xll.QCurves_GetDF($D$33,valDate,U30)</f>
-        <v>0.58904310870086662</v>
+        <v>0.58013133516501425</v>
       </c>
       <c r="W30" s="1">
         <f ca="1">_xll.QCurves_GetForwardRate($D$33,U30,U31,"Linear","Act365F")</f>
-        <v>9.1709027573280935E-2</v>
+        <v>9.4553862103882086E-2</v>
       </c>
       <c r="X30" s="1">
         <f ca="1">_xll.QCurves_GetDF($D$34,valDate,U30)</f>
-        <v>0.60560051463213449</v>
+        <v>0.59652981641541047</v>
       </c>
       <c r="Y30" s="1">
         <f ca="1">_xll.QCurves_GetDF($D$35,valDate,U30)</f>
-        <v>0.82842740998789899</v>
+        <v>0.82196289715911519</v>
       </c>
     </row>
     <row r="31" spans="2:25" x14ac:dyDescent="0.25">
@@ -4524,23 +4526,23 @@
       </c>
       <c r="U31" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>45800</v>
+        <v>45819</v>
       </c>
       <c r="V31" s="1">
         <f ca="1">_xll.QCurves_GetDF($D$33,valDate,U31)</f>
-        <v>0.57615908122971271</v>
+        <v>0.56662705186735196</v>
       </c>
       <c r="W31" s="1">
         <f ca="1">_xll.QCurves_GetForwardRate($D$33,U31,U32,"Linear","Act365F")</f>
-        <v>9.2449186759895399E-2</v>
+        <v>9.5294708779677398E-2</v>
       </c>
       <c r="X31" s="1">
         <f ca="1">_xll.QCurves_GetDF($D$34,valDate,U31)</f>
-        <v>0.59320453583268273</v>
+        <v>0.58353953778685475</v>
       </c>
       <c r="Y31" s="1">
         <f ca="1">_xll.QCurves_GetDF($D$35,valDate,U31)</f>
-        <v>0.82251822503913308</v>
+        <v>0.81567267186626857</v>
       </c>
     </row>
     <row r="32" spans="2:25" x14ac:dyDescent="0.25">
@@ -4549,27 +4551,27 @@
       </c>
       <c r="C32" t="str">
         <f ca="1">_xll.QCurves_CreateFundingModel("ModelComplex",valDate,C30,G27:H31,J28)</f>
-        <v>ModelComplex¬1</v>
+        <v>ModelComplex¬0</v>
       </c>
       <c r="U32" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>45892</v>
+        <v>45911</v>
       </c>
       <c r="V32" s="1">
         <f ca="1">_xll.QCurves_GetDF($D$33,valDate,U32)</f>
-        <v>0.56303899963520598</v>
+        <v>0.55333619952978252</v>
       </c>
       <c r="W32" s="1">
         <f ca="1">_xll.QCurves_GetForwardRate($D$33,U32,U33,"Linear","Act365F")</f>
-        <v>9.0071800789748427E-2</v>
+        <v>9.2503777726692216E-2</v>
       </c>
       <c r="X32" s="1">
         <f ca="1">_xll.QCurves_GetDF($D$34,valDate,U32)</f>
-        <v>0.58057385171904519</v>
+        <v>0.57074745213305456</v>
       </c>
       <c r="Y32" s="1">
         <f ca="1">_xll.QCurves_GetDF($D$35,valDate,U32)</f>
-        <v>0.81644746178467908</v>
+        <v>0.80942569135516473</v>
       </c>
     </row>
     <row r="33" spans="2:25" x14ac:dyDescent="0.25">
@@ -4582,27 +4584,27 @@
       </c>
       <c r="D33" t="str">
         <f ca="1">_xll.QCurves_ExtractCurveFromModel($C$32,C33,"curve.complex."&amp;C33)</f>
-        <v>curve.complex.ZAR.JIBAR.3M¬1</v>
+        <v>curve.complex.ZAR.JIBAR.3M¬0</v>
       </c>
       <c r="U33" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>45984</v>
+        <v>46002</v>
       </c>
       <c r="V33" s="1">
         <f ca="1">_xll.QCurves_GetDF($D$33,valDate,U33)</f>
-        <v>0.55054007227643664</v>
+        <v>0.54086251151692866</v>
       </c>
       <c r="W33" s="1">
         <f ca="1">_xll.QCurves_GetForwardRate($D$33,U33,U34,"Linear","Act365F")</f>
-        <v>9.0502965014314415E-2</v>
+        <v>9.2980021614007174E-2</v>
       </c>
       <c r="X33" s="1">
         <f ca="1">_xll.QCurves_GetDF($D$34,valDate,U33)</f>
-        <v>0.56812903221172051</v>
+        <v>0.55828880543211756</v>
       </c>
       <c r="Y33" s="1">
         <f ca="1">_xll.QCurves_GetDF($D$35,valDate,U33)</f>
-        <v>0.81031188201434223</v>
+        <v>0.80319148051228395</v>
       </c>
     </row>
     <row r="34" spans="2:25" x14ac:dyDescent="0.25">
@@ -4615,27 +4617,27 @@
       </c>
       <c r="D34" t="str">
         <f ca="1">_xll.QCurves_ExtractCurveFromModel($C$32,C34,"curve.complex."&amp;C34)</f>
-        <v>curve.complex.ZAR.OIS.1B¬1</v>
+        <v>curve.complex.ZAR.OIS.1B¬0</v>
       </c>
       <c r="U34" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>46076</v>
+        <v>46092</v>
       </c>
       <c r="V34" s="1">
         <f ca="1">_xll.QCurves_GetDF($D$33,valDate,U34)</f>
-        <v>0.53826141108104664</v>
+        <v>0.52874030427642538</v>
       </c>
       <c r="W34" s="1">
         <f ca="1">_xll.QCurves_GetForwardRate($D$33,U34,U35,"Linear","Act365F")</f>
-        <v>9.0958680944854972E-2</v>
+        <v>9.3494409144794455E-2</v>
       </c>
       <c r="X34" s="1">
         <f ca="1">_xll.QCurves_GetDF($D$34,valDate,U34)</f>
-        <v>0.55586969305428724</v>
+        <v>0.54615659222558233</v>
       </c>
       <c r="Y34" s="1">
         <f ca="1">_xll.QCurves_GetDF($D$35,valDate,U34)</f>
-        <v>0.80420626938220663</v>
+        <v>0.79706183472529535</v>
       </c>
     </row>
     <row r="35" spans="2:25" x14ac:dyDescent="0.25">
@@ -4648,27 +4650,27 @@
       </c>
       <c r="D35" t="str">
         <f ca="1">_xll.QCurves_ExtractCurveFromModel($C$32,C35,"curve.complex."&amp;C35)</f>
-        <v>curve.complex.USD.LIBOR.3M¬1</v>
+        <v>curve.complex.USD.LIBOR.3M¬0</v>
       </c>
       <c r="U35" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>46165</v>
+        <v>46184</v>
       </c>
       <c r="V35" s="1">
         <f ca="1">_xll.QCurves_GetDF($D$33,valDate,U35)</f>
-        <v>0.52658235882806859</v>
+        <v>0.51656703326436171</v>
       </c>
       <c r="W35" s="1">
         <f ca="1">_xll.QCurves_GetForwardRate($D$33,U35,U36,"Linear","Act365F")</f>
-        <v>9.1481976577978893E-2</v>
+        <v>9.3990740550498067E-2</v>
       </c>
       <c r="X35" s="1">
         <f ca="1">_xll.QCurves_GetDF($D$34,valDate,U35)</f>
-        <v>0.54418619239550969</v>
+        <v>0.5339488622715578</v>
       </c>
       <c r="Y35" s="1">
         <f ca="1">_xll.QCurves_GetDF($D$35,valDate,U35)</f>
-        <v>0.79833035603478864</v>
+        <v>0.79083292864844268</v>
       </c>
     </row>
     <row r="36" spans="2:25" x14ac:dyDescent="0.25">
@@ -4681,27 +4683,27 @@
       </c>
       <c r="D36" t="str">
         <f ca="1">_xll.QCurves_ExtractCurveFromModel($C$32,C36,"curve.complex."&amp;C36)</f>
-        <v>curve.complex.USD.OIS.1B¬1</v>
+        <v>curve.complex.USD.OIS.1B¬0</v>
       </c>
       <c r="U36" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>46257</v>
+        <v>46276</v>
       </c>
       <c r="V36" s="1">
         <f ca="1">_xll.QCurves_GetDF($D$33,valDate,U36)</f>
-        <v>0.51471384466600578</v>
+        <v>0.50461235442259156</v>
       </c>
       <c r="W36" s="1">
         <f ca="1">_xll.QCurves_GetForwardRate($D$33,U36,U37,"Linear","Act365F")</f>
-        <v>9.1979686251264889E-2</v>
+        <v>9.4472302459834262E-2</v>
       </c>
       <c r="X36" s="1">
         <f ca="1">_xll.QCurves_GetDF($D$34,valDate,U36)</f>
-        <v>0.53229036697521404</v>
+        <v>0.52193655432800024</v>
       </c>
       <c r="Y36" s="1">
         <f ca="1">_xll.QCurves_GetDF($D$35,valDate,U36)</f>
-        <v>0.79228798095811515</v>
+        <v>0.78464127228750757</v>
       </c>
     </row>
     <row r="37" spans="2:25" x14ac:dyDescent="0.25">
@@ -4714,11 +4716,11 @@
       </c>
       <c r="D37" t="str">
         <f ca="1">_xll.QCurves_ExtractCurveFromModel($C$32,C37,"curve.complex."&amp;C37)</f>
-        <v>curve.complex.ZAR.DISC.[USD.OIS.1B]¬1</v>
+        <v>curve.complex.ZAR.DISC.[USD.OIS.1B]¬0</v>
       </c>
       <c r="U37" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>46349</v>
+        <v>46367</v>
       </c>
       <c r="Y37" s="1"/>
     </row>

--- a/examples/Qwack - YeildCurveExample.xlsx
+++ b/examples/Qwack - YeildCurveExample.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Code\qwack\qwack-master\examples\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT\qwack\examples\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBC23335-AA15-49CA-91FA-15B065FDEAD4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="555" windowWidth="19200" windowHeight="11355"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="18240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SelfDiscounting" sheetId="1" r:id="rId1"/>
@@ -26,10 +27,18 @@
     <definedName name="valDate" localSheetId="1">OisDiscounting!$C$1</definedName>
     <definedName name="valDate">SelfDiscounting!$C$1</definedName>
   </definedNames>
-  <calcPr calcId="171027" calcMode="manual" calcOnSave="0"/>
+  <calcPr calcId="191029" calcMode="manual" calcCompleted="0" calcOnSave="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -239,7 +248,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="0.000"/>
@@ -313,7 +322,7 @@
   <volType type="realTimeData">
     <main first="bloomberg.rtd">
       <tp>
-        <v>7.6675000000000004</v>
+        <v>5.4275000000000002</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>SASW2 Curncy</stp>
@@ -322,7 +331,7 @@
         <tr r="D12" s="3"/>
       </tp>
       <tp>
-        <v>7.8849999999999998</v>
+        <v>5.9175000000000004</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>SASW3 Curncy</stp>
@@ -331,7 +340,7 @@
         <tr r="D13" s="3"/>
       </tp>
       <tp>
-        <v>8.0374999999999996</v>
+        <v>6.4550000000000001</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>SASW4 Curncy</stp>
@@ -340,7 +349,7 @@
         <tr r="D14" s="3"/>
       </tp>
       <tp>
-        <v>8.1850000000000005</v>
+        <v>7.0625</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>SASW5 Curncy</stp>
@@ -349,7 +358,7 @@
         <tr r="D15" s="3"/>
       </tp>
       <tp>
-        <v>8.4320000000000004</v>
+        <v>8.0924999999999994</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>SASW7 Curncy</stp>
@@ -358,7 +367,7 @@
         <tr r="D16" s="3"/>
       </tp>
       <tp>
-        <v>5578</v>
+        <v>5764</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>ZAR9m Curncy</stp>
@@ -367,7 +376,7 @@
         <tr r="Q11" s="3"/>
       </tp>
       <tp>
-        <v>25645</v>
+        <v>30940</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>ZAR3y Curncy</stp>
@@ -376,7 +385,7 @@
         <tr r="Q16" s="3"/>
       </tp>
       <tp>
-        <v>15920</v>
+        <v>18364</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>ZAR2y Curncy</stp>
@@ -385,7 +394,7 @@
         <tr r="Q15" s="3"/>
       </tp>
       <tp>
-        <v>3731</v>
+        <v>3837</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>ZAR6m Curncy</stp>
@@ -394,7 +403,7 @@
         <tr r="Q10" s="3"/>
       </tp>
       <tp>
-        <v>48809</v>
+        <v>66676</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>ZAR5y Curncy</stp>
@@ -403,7 +412,7 @@
         <tr r="Q18" s="3"/>
       </tp>
       <tp>
-        <v>36643</v>
+        <v>46326</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>ZAR4y Curncy</stp>
@@ -412,7 +421,7 @@
         <tr r="Q17" s="3"/>
       </tp>
       <tp>
-        <v>8.6649999999999991</v>
+        <v>8.9600000000000009</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>SASW10 Curncy</stp>
@@ -421,7 +430,7 @@
         <tr r="D17" s="3"/>
       </tp>
       <tp>
-        <v>7.0250000000000004</v>
+        <v>5.6</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>JIBA3M Index</stp>
@@ -429,327 +438,327 @@
         <stp>[Qwack - YeildCurveExample.xlsx]ComplexBuild!R6C4</stp>
         <tr r="D6" s="3"/>
       </tp>
+      <tp>
+        <v>18.044499999999999</v>
+        <stp/>
+        <stp>##V3_BDPV12</stp>
+        <stp>ZAR Curncy</stp>
+        <stp>PX_LAST</stp>
+        <stp>[Qwack - YeildCurveExample.xlsx]ComplexBuild!R5C17</stp>
+        <tr r="Q5" s="3"/>
+      </tp>
+      <tp>
+        <v>0.69269999999999998</v>
+        <stp/>
+        <stp>##V3_BDPV12</stp>
+        <stp>USSW7 Curncy</stp>
+        <stp>PX_LAST</stp>
+        <stp>[Qwack - YeildCurveExample.xlsx]ComplexBuild!R16C11</stp>
+        <tr r="K16" s="3"/>
+      </tp>
+      <tp>
+        <v>0.4677</v>
+        <stp/>
+        <stp>##V3_BDPV12</stp>
+        <stp>USSW2 Curncy</stp>
+        <stp>PX_LAST</stp>
+        <stp>[Qwack - YeildCurveExample.xlsx]ComplexBuild!R12C11</stp>
+        <tr r="K12" s="3"/>
+      </tp>
+      <tp>
+        <v>0.47160000000000002</v>
+        <stp/>
+        <stp>##V3_BDPV12</stp>
+        <stp>USSW3 Curncy</stp>
+        <stp>PX_LAST</stp>
+        <stp>[Qwack - YeildCurveExample.xlsx]ComplexBuild!R13C11</stp>
+        <tr r="K13" s="3"/>
+      </tp>
+      <tp>
+        <v>0.51839999999999997</v>
+        <stp/>
+        <stp>##V3_BDPV12</stp>
+        <stp>USSW4 Curncy</stp>
+        <stp>PX_LAST</stp>
+        <stp>[Qwack - YeildCurveExample.xlsx]ComplexBuild!R14C11</stp>
+        <tr r="K14" s="3"/>
+      </tp>
+      <tp>
+        <v>0.57820000000000005</v>
+        <stp/>
+        <stp>##V3_BDPV12</stp>
+        <stp>USSW5 Curncy</stp>
+        <stp>PX_LAST</stp>
+        <stp>[Qwack - YeildCurveExample.xlsx]ComplexBuild!R15C11</stp>
+        <tr r="K15" s="3"/>
+      </tp>
+      <tp>
+        <v>98.605000000000004</v>
+        <stp/>
+        <stp>##V3_BDPV12</stp>
+        <stp>EDM9 Comdty</stp>
+        <stp>PX_LAST</stp>
+        <stp>[Qwack - YeildCurveExample.xlsx]ComplexBuild!R10C11</stp>
+        <tr r="K10" s="3"/>
+      </tp>
+      <tp>
+        <v>98.594999999999999</v>
+        <stp/>
+        <stp>##V3_BDPV12</stp>
+        <stp>EDU9 Comdty</stp>
+        <stp>PX_LAST</stp>
+        <stp>[Qwack - YeildCurveExample.xlsx]ComplexBuild!R11C11</stp>
+        <tr r="K11" s="3"/>
+      </tp>
     </main>
     <main first="bloomberg.rtd">
       <tp>
-        <v>15.1022</v>
-        <stp/>
-        <stp>##V3_BDPV12</stp>
-        <stp>ZAR Curncy</stp>
-        <stp>PX_LAST</stp>
-        <stp>[Qwack - YeildCurveExample.xlsx]ComplexBuild!R5C17</stp>
-        <tr r="Q5" s="3"/>
-      </tp>
-      <tp>
-        <v>2.9853999999999998</v>
-        <stp/>
-        <stp>##V3_BDPV12</stp>
-        <stp>USSW7 Curncy</stp>
-        <stp>PX_LAST</stp>
-        <stp>[Qwack - YeildCurveExample.xlsx]ComplexBuild!R16C11</stp>
-        <tr r="K16" s="3"/>
-      </tp>
-      <tp>
-        <v>2.9161000000000001</v>
-        <stp/>
-        <stp>##V3_BDPV12</stp>
-        <stp>USSW2 Curncy</stp>
-        <stp>PX_LAST</stp>
-        <stp>[Qwack - YeildCurveExample.xlsx]ComplexBuild!R12C11</stp>
-        <tr r="K12" s="3"/>
-      </tp>
-      <tp>
-        <v>2.9643999999999999</v>
-        <stp/>
-        <stp>##V3_BDPV12</stp>
-        <stp>USSW3 Curncy</stp>
-        <stp>PX_LAST</stp>
-        <stp>[Qwack - YeildCurveExample.xlsx]ComplexBuild!R13C11</stp>
-        <tr r="K13" s="3"/>
-      </tp>
-      <tp>
-        <v>2.9748999999999999</v>
-        <stp/>
-        <stp>##V3_BDPV12</stp>
-        <stp>USSW4 Curncy</stp>
-        <stp>PX_LAST</stp>
-        <stp>[Qwack - YeildCurveExample.xlsx]ComplexBuild!R14C11</stp>
-        <tr r="K14" s="3"/>
-      </tp>
-      <tp>
-        <v>2.9759000000000002</v>
-        <stp/>
-        <stp>##V3_BDPV12</stp>
-        <stp>USSW5 Curncy</stp>
-        <stp>PX_LAST</stp>
-        <stp>[Qwack - YeildCurveExample.xlsx]ComplexBuild!R15C11</stp>
-        <tr r="K15" s="3"/>
-      </tp>
-      <tp>
-        <v>97.045000000000002</v>
-        <stp/>
-        <stp>##V3_BDPV12</stp>
-        <stp>EDM9 Comdty</stp>
-        <stp>PX_LAST</stp>
-        <stp>[Qwack - YeildCurveExample.xlsx]ComplexBuild!R10C11</stp>
-        <tr r="K10" s="3"/>
-      </tp>
-      <tp>
-        <v>96.975000000000009</v>
-        <stp/>
-        <stp>##V3_BDPV12</stp>
-        <stp>EDU9 Comdty</stp>
-        <stp>PX_LAST</stp>
-        <stp>[Qwack - YeildCurveExample.xlsx]ComplexBuild!R11C11</stp>
-        <tr r="K11" s="3"/>
+        <v>4.9000000000000004</v>
+        <stp/>
+        <stp>##V3_BDPV12</stp>
+        <stp>SAFR0I1 Curncy</stp>
+        <stp>PX_LAST</stp>
+        <stp>[Qwack - YeildCurveExample.xlsx]SelfDiscounting!R7C4</stp>
+        <tr r="D7" s="1"/>
+      </tp>
+      <tp>
+        <v>4.7850000000000001</v>
+        <stp/>
+        <stp>##V3_BDPV12</stp>
+        <stp>SAFR0FI Curncy</stp>
+        <stp>PX_LAST</stp>
+        <stp>[Qwack - YeildCurveExample.xlsx]SelfDiscounting!R6C4</stp>
+        <tr r="D6" s="1"/>
+      </tp>
+      <tp>
+        <v>4.8250000000000002</v>
+        <stp/>
+        <stp>##V3_BDPV12</stp>
+        <stp>SAFR0CF Curncy</stp>
+        <stp>PX_LAST</stp>
+        <stp>[Qwack - YeildCurveExample.xlsx]SelfDiscounting!R5C4</stp>
+        <tr r="D5" s="1"/>
+      </tp>
+      <tp>
+        <v>5.37</v>
+        <stp/>
+        <stp>##V3_BDPV12</stp>
+        <stp>SAFR011C Curncy</stp>
+        <stp>PX_LAST</stp>
+        <stp>[Qwack - YeildCurveExample.xlsx]OisDiscounting!R10C4</stp>
+        <tr r="D10" s="2"/>
+      </tp>
+      <tp>
+        <v>5.37</v>
+        <stp/>
+        <stp>##V3_BDPV12</stp>
+        <stp>SAFR011C Curncy</stp>
+        <stp>PX_LAST</stp>
+        <stp>[Qwack - YeildCurveExample.xlsx]ComplexBuild!R10C4</stp>
+        <tr r="D10" s="3"/>
+      </tp>
+      <tp>
+        <v>5.62</v>
+        <stp/>
+        <stp>##V3_BDPV12</stp>
+        <stp>SAFR1C1F Curncy</stp>
+        <stp>PX_LAST</stp>
+        <stp>[Qwack - YeildCurveExample.xlsx]ComplexBuild!R11C4</stp>
+        <tr r="D11" s="3"/>
+      </tp>
+      <tp>
+        <v>8.9600000000000009</v>
+        <stp/>
+        <stp>##V3_BDPV12</stp>
+        <stp>SASW10 Curncy</stp>
+        <stp>PX_LAST</stp>
+        <stp>[Qwack - YeildCurveExample.xlsx]SelfDiscounting!R15C4</stp>
+        <tr r="D15" s="1"/>
+      </tp>
+      <tp>
+        <v>1305</v>
+        <stp/>
+        <stp>##V3_BDPV12</stp>
+        <stp>ZAR2m Curncy</stp>
+        <stp>PX_LAST</stp>
+        <stp>[Qwack - YeildCurveExample.xlsx]ComplexBuild!R8C17</stp>
+        <tr r="Q8" s="3"/>
+      </tp>
+      <tp>
+        <v>1951</v>
+        <stp/>
+        <stp>##V3_BDPV12</stp>
+        <stp>ZAR3m Curncy</stp>
+        <stp>PX_LAST</stp>
+        <stp>[Qwack - YeildCurveExample.xlsx]ComplexBuild!R9C17</stp>
+        <tr r="Q9" s="3"/>
+      </tp>
+      <tp>
+        <v>670</v>
+        <stp/>
+        <stp>##V3_BDPV12</stp>
+        <stp>ZAR1m Curncy</stp>
+        <stp>PX_LAST</stp>
+        <stp>[Qwack - YeildCurveExample.xlsx]ComplexBuild!R7C17</stp>
+        <tr r="Q7" s="3"/>
+      </tp>
+      <tp>
+        <v>5.6</v>
+        <stp/>
+        <stp>##V3_BDPV12</stp>
+        <stp>JIBA3M Index</stp>
+        <stp>PX_LAST</stp>
+        <stp>[Qwack - YeildCurveExample.xlsx]SelfDiscounting!R4C4</stp>
+        <tr r="D4" s="1"/>
+      </tp>
+      <tp>
+        <v>5.37</v>
+        <stp/>
+        <stp>##V3_BDPV12</stp>
+        <stp>SAFR011C Curncy</stp>
+        <stp>PX_LAST</stp>
+        <stp>[Qwack - YeildCurveExample.xlsx]SelfDiscounting!R8C4</stp>
+        <tr r="D8" s="1"/>
+      </tp>
+      <tp>
+        <v>4.7850000000000001</v>
+        <stp/>
+        <stp>##V3_BDPV12</stp>
+        <stp>SAFR0FI Curncy</stp>
+        <stp>PX_LAST</stp>
+        <stp>[Qwack - YeildCurveExample.xlsx]ComplexBuild!R8C4</stp>
+        <tr r="D8" s="3"/>
+      </tp>
+      <tp>
+        <v>4.8250000000000002</v>
+        <stp/>
+        <stp>##V3_BDPV12</stp>
+        <stp>SAFR0CF Curncy</stp>
+        <stp>PX_LAST</stp>
+        <stp>[Qwack - YeildCurveExample.xlsx]ComplexBuild!R7C4</stp>
+        <tr r="D7" s="3"/>
+      </tp>
+      <tp>
+        <v>4.9000000000000004</v>
+        <stp/>
+        <stp>##V3_BDPV12</stp>
+        <stp>SAFR0I1 Curncy</stp>
+        <stp>PX_LAST</stp>
+        <stp>[Qwack - YeildCurveExample.xlsx]ComplexBuild!R9C4</stp>
+        <tr r="D9" s="3"/>
+      </tp>
+      <tp>
+        <v>152</v>
+        <stp/>
+        <stp>##V3_BDPV12</stp>
+        <stp>ZAR1w Curncy</stp>
+        <stp>PX_LAST</stp>
+        <stp>[Qwack - YeildCurveExample.xlsx]ComplexBuild!R6C17</stp>
+        <tr r="Q6" s="3"/>
+      </tp>
+      <tp>
+        <v>8.0924999999999994</v>
+        <stp/>
+        <stp>##V3_BDPV12</stp>
+        <stp>SASW7 Curncy</stp>
+        <stp>PX_LAST</stp>
+        <stp>[Qwack - YeildCurveExample.xlsx]SelfDiscounting!R14C4</stp>
+        <tr r="D14" s="1"/>
+      </tp>
+      <tp>
+        <v>8.9600000000000009</v>
+        <stp/>
+        <stp>##V3_BDPV12</stp>
+        <stp>SASW10 Curncy</stp>
+        <stp>PX_LAST</stp>
+        <stp>[Qwack - YeildCurveExample.xlsx]OisDiscounting!R17C4</stp>
+        <tr r="D17" s="2"/>
+      </tp>
+      <tp>
+        <v>5.9175000000000004</v>
+        <stp/>
+        <stp>##V3_BDPV12</stp>
+        <stp>SASW3 Curncy</stp>
+        <stp>PX_LAST</stp>
+        <stp>[Qwack - YeildCurveExample.xlsx]SelfDiscounting!R11C4</stp>
+        <tr r="D11" s="1"/>
+      </tp>
+      <tp>
+        <v>5.4275000000000002</v>
+        <stp/>
+        <stp>##V3_BDPV12</stp>
+        <stp>SASW2 Curncy</stp>
+        <stp>PX_LAST</stp>
+        <stp>[Qwack - YeildCurveExample.xlsx]SelfDiscounting!R10C4</stp>
+        <tr r="D10" s="1"/>
+      </tp>
+      <tp>
+        <v>7.0625</v>
+        <stp/>
+        <stp>##V3_BDPV12</stp>
+        <stp>SASW5 Curncy</stp>
+        <stp>PX_LAST</stp>
+        <stp>[Qwack - YeildCurveExample.xlsx]SelfDiscounting!R13C4</stp>
+        <tr r="D13" s="1"/>
+      </tp>
+      <tp>
+        <v>6.4550000000000001</v>
+        <stp/>
+        <stp>##V3_BDPV12</stp>
+        <stp>SASW4 Curncy</stp>
+        <stp>PX_LAST</stp>
+        <stp>[Qwack - YeildCurveExample.xlsx]SelfDiscounting!R12C4</stp>
+        <tr r="D12" s="1"/>
+      </tp>
+      <tp>
+        <v>0.8155</v>
+        <stp/>
+        <stp>##V3_BDPV12</stp>
+        <stp>USSW10 Curncy</stp>
+        <stp>PX_LAST</stp>
+        <stp>[Qwack - YeildCurveExample.xlsx]ComplexBuild!R17C11</stp>
+        <tr r="K17" s="3"/>
+      </tp>
+      <tp>
+        <v>7733</v>
+        <stp/>
+        <stp>##V3_BDPV12</stp>
+        <stp>ZAR12m Curncy</stp>
+        <stp>PX_LAST</stp>
+        <stp>[Qwack - YeildCurveExample.xlsx]ComplexBuild!R12C17</stp>
+        <tr r="Q12" s="3"/>
+      </tp>
+      <tp>
+        <v>9880</v>
+        <stp/>
+        <stp>##V3_BDPV12</stp>
+        <stp>ZAR15m Curncy</stp>
+        <stp>PX_LAST</stp>
+        <stp>[Qwack - YeildCurveExample.xlsx]ComplexBuild!R13C17</stp>
+        <tr r="Q13" s="3"/>
+      </tp>
+      <tp>
+        <v>12389</v>
+        <stp/>
+        <stp>##V3_BDPV12</stp>
+        <stp>ZAR18m Curncy</stp>
+        <stp>PX_LAST</stp>
+        <stp>[Qwack - YeildCurveExample.xlsx]ComplexBuild!R14C17</stp>
+        <tr r="Q14" s="3"/>
+      </tp>
+      <tp>
+        <v>5.62</v>
+        <stp/>
+        <stp>##V3_BDPV12</stp>
+        <stp>SAFR1C1F Curncy</stp>
+        <stp>PX_LAST</stp>
+        <stp>[Qwack - YeildCurveExample.xlsx]OisDiscounting!R11C4</stp>
+        <tr r="D11" s="2"/>
       </tp>
     </main>
     <main first="bloomberg.rtd">
       <tp>
-        <v>7.75</v>
-        <stp/>
-        <stp>##V3_BDPV12</stp>
-        <stp>SAFR0I1 Curncy</stp>
-        <stp>PX_LAST</stp>
-        <stp>[Qwack - YeildCurveExample.xlsx]SelfDiscounting!R7C4</stp>
-        <tr r="D7" s="1"/>
-      </tp>
-      <tp>
-        <v>7.47</v>
-        <stp/>
-        <stp>##V3_BDPV12</stp>
-        <stp>SAFR0FI Curncy</stp>
-        <stp>PX_LAST</stp>
-        <stp>[Qwack - YeildCurveExample.xlsx]SelfDiscounting!R6C4</stp>
-        <tr r="D6" s="1"/>
-      </tp>
-      <tp>
-        <v>7.28</v>
-        <stp/>
-        <stp>##V3_BDPV12</stp>
-        <stp>SAFR0CF Curncy</stp>
-        <stp>PX_LAST</stp>
-        <stp>[Qwack - YeildCurveExample.xlsx]SelfDiscounting!R5C4</stp>
-        <tr r="D5" s="1"/>
-      </tp>
-      <tp>
-        <v>7.85</v>
-        <stp/>
-        <stp>##V3_BDPV12</stp>
-        <stp>SAFR011C Curncy</stp>
-        <stp>PX_LAST</stp>
-        <stp>[Qwack - YeildCurveExample.xlsx]OisDiscounting!R10C4</stp>
-        <tr r="D10" s="2"/>
-      </tp>
-      <tp>
-        <v>7.85</v>
-        <stp/>
-        <stp>##V3_BDPV12</stp>
-        <stp>SAFR011C Curncy</stp>
-        <stp>PX_LAST</stp>
-        <stp>[Qwack - YeildCurveExample.xlsx]ComplexBuild!R10C4</stp>
-        <tr r="D10" s="3"/>
-      </tp>
-      <tp>
-        <v>7.98</v>
-        <stp/>
-        <stp>##V3_BDPV12</stp>
-        <stp>SAFR1C1F Curncy</stp>
-        <stp>PX_LAST</stp>
-        <stp>[Qwack - YeildCurveExample.xlsx]ComplexBuild!R11C4</stp>
-        <tr r="D11" s="3"/>
-      </tp>
-      <tp>
-        <v>8.6649999999999991</v>
-        <stp/>
-        <stp>##V3_BDPV12</stp>
-        <stp>SASW10 Curncy</stp>
-        <stp>PX_LAST</stp>
-        <stp>[Qwack - YeildCurveExample.xlsx]SelfDiscounting!R15C4</stp>
-        <tr r="D15" s="1"/>
-      </tp>
-      <tp>
-        <v>1276</v>
-        <stp/>
-        <stp>##V3_BDPV12</stp>
-        <stp>ZAR2m Curncy</stp>
-        <stp>PX_LAST</stp>
-        <stp>[Qwack - YeildCurveExample.xlsx]ComplexBuild!R8C17</stp>
-        <tr r="Q8" s="3"/>
-      </tp>
-      <tp>
-        <v>1902</v>
-        <stp/>
-        <stp>##V3_BDPV12</stp>
-        <stp>ZAR3m Curncy</stp>
-        <stp>PX_LAST</stp>
-        <stp>[Qwack - YeildCurveExample.xlsx]ComplexBuild!R9C17</stp>
-        <tr r="Q9" s="3"/>
-      </tp>
-      <tp>
-        <v>667</v>
-        <stp/>
-        <stp>##V3_BDPV12</stp>
-        <stp>ZAR1m Curncy</stp>
-        <stp>PX_LAST</stp>
-        <stp>[Qwack - YeildCurveExample.xlsx]ComplexBuild!R7C17</stp>
-        <tr r="Q7" s="3"/>
-      </tp>
-      <tp>
-        <v>7.0250000000000004</v>
-        <stp/>
-        <stp>##V3_BDPV12</stp>
-        <stp>JIBA3M Index</stp>
-        <stp>PX_LAST</stp>
-        <stp>[Qwack - YeildCurveExample.xlsx]SelfDiscounting!R4C4</stp>
-        <tr r="D4" s="1"/>
-      </tp>
-      <tp>
-        <v>7.85</v>
-        <stp/>
-        <stp>##V3_BDPV12</stp>
-        <stp>SAFR011C Curncy</stp>
-        <stp>PX_LAST</stp>
-        <stp>[Qwack - YeildCurveExample.xlsx]SelfDiscounting!R8C4</stp>
-        <tr r="D8" s="1"/>
-      </tp>
-      <tp>
-        <v>7.47</v>
-        <stp/>
-        <stp>##V3_BDPV12</stp>
-        <stp>SAFR0FI Curncy</stp>
-        <stp>PX_LAST</stp>
-        <stp>[Qwack - YeildCurveExample.xlsx]ComplexBuild!R8C4</stp>
-        <tr r="D8" s="3"/>
-      </tp>
-      <tp>
-        <v>7.28</v>
-        <stp/>
-        <stp>##V3_BDPV12</stp>
-        <stp>SAFR0CF Curncy</stp>
-        <stp>PX_LAST</stp>
-        <stp>[Qwack - YeildCurveExample.xlsx]ComplexBuild!R7C4</stp>
-        <tr r="D7" s="3"/>
-      </tp>
-      <tp>
-        <v>7.75</v>
-        <stp/>
-        <stp>##V3_BDPV12</stp>
-        <stp>SAFR0I1 Curncy</stp>
-        <stp>PX_LAST</stp>
-        <stp>[Qwack - YeildCurveExample.xlsx]ComplexBuild!R9C4</stp>
-        <tr r="D9" s="3"/>
-      </tp>
-      <tp>
-        <v>151</v>
-        <stp/>
-        <stp>##V3_BDPV12</stp>
-        <stp>ZAR1w Curncy</stp>
-        <stp>PX_LAST</stp>
-        <stp>[Qwack - YeildCurveExample.xlsx]ComplexBuild!R6C17</stp>
-        <tr r="Q6" s="3"/>
-      </tp>
-      <tp>
-        <v>8.4320000000000004</v>
-        <stp/>
-        <stp>##V3_BDPV12</stp>
-        <stp>SASW7 Curncy</stp>
-        <stp>PX_LAST</stp>
-        <stp>[Qwack - YeildCurveExample.xlsx]SelfDiscounting!R14C4</stp>
-        <tr r="D14" s="1"/>
-      </tp>
-      <tp>
-        <v>8.6649999999999991</v>
-        <stp/>
-        <stp>##V3_BDPV12</stp>
-        <stp>SASW10 Curncy</stp>
-        <stp>PX_LAST</stp>
-        <stp>[Qwack - YeildCurveExample.xlsx]OisDiscounting!R17C4</stp>
-        <tr r="D17" s="2"/>
-      </tp>
-      <tp>
-        <v>7.8849999999999998</v>
-        <stp/>
-        <stp>##V3_BDPV12</stp>
-        <stp>SASW3 Curncy</stp>
-        <stp>PX_LAST</stp>
-        <stp>[Qwack - YeildCurveExample.xlsx]SelfDiscounting!R11C4</stp>
-        <tr r="D11" s="1"/>
-      </tp>
-      <tp>
-        <v>7.6675000000000004</v>
-        <stp/>
-        <stp>##V3_BDPV12</stp>
-        <stp>SASW2 Curncy</stp>
-        <stp>PX_LAST</stp>
-        <stp>[Qwack - YeildCurveExample.xlsx]SelfDiscounting!R10C4</stp>
-        <tr r="D10" s="1"/>
-      </tp>
-      <tp>
-        <v>8.1850000000000005</v>
-        <stp/>
-        <stp>##V3_BDPV12</stp>
-        <stp>SASW5 Curncy</stp>
-        <stp>PX_LAST</stp>
-        <stp>[Qwack - YeildCurveExample.xlsx]SelfDiscounting!R13C4</stp>
-        <tr r="D13" s="1"/>
-      </tp>
-      <tp>
-        <v>8.0374999999999996</v>
-        <stp/>
-        <stp>##V3_BDPV12</stp>
-        <stp>SASW4 Curncy</stp>
-        <stp>PX_LAST</stp>
-        <stp>[Qwack - YeildCurveExample.xlsx]SelfDiscounting!R12C4</stp>
-        <tr r="D12" s="1"/>
-      </tp>
-      <tp>
-        <v>3.0169999999999999</v>
-        <stp/>
-        <stp>##V3_BDPV12</stp>
-        <stp>USSW10 Curncy</stp>
-        <stp>PX_LAST</stp>
-        <stp>[Qwack - YeildCurveExample.xlsx]ComplexBuild!R17C11</stp>
-        <tr r="K17" s="3"/>
-      </tp>
-      <tp>
-        <v>7477</v>
-        <stp/>
-        <stp>##V3_BDPV12</stp>
-        <stp>ZAR12m Curncy</stp>
-        <stp>PX_LAST</stp>
-        <stp>[Qwack - YeildCurveExample.xlsx]ComplexBuild!R12C17</stp>
-        <tr r="Q12" s="3"/>
-      </tp>
-      <tp>
-        <v>9535</v>
-        <stp/>
-        <stp>##V3_BDPV12</stp>
-        <stp>ZAR15m Curncy</stp>
-        <stp>PX_LAST</stp>
-        <stp>[Qwack - YeildCurveExample.xlsx]ComplexBuild!R13C17</stp>
-        <tr r="Q13" s="3"/>
-      </tp>
-      <tp>
-        <v>11493</v>
-        <stp/>
-        <stp>##V3_BDPV12</stp>
-        <stp>ZAR18m Curncy</stp>
-        <stp>PX_LAST</stp>
-        <stp>[Qwack - YeildCurveExample.xlsx]ComplexBuild!R14C17</stp>
-        <tr r="Q14" s="3"/>
-      </tp>
-      <tp>
-        <v>7.98</v>
-        <stp/>
-        <stp>##V3_BDPV12</stp>
-        <stp>SAFR1C1F Curncy</stp>
-        <stp>PX_LAST</stp>
-        <stp>[Qwack - YeildCurveExample.xlsx]OisDiscounting!R11C4</stp>
-        <tr r="D11" s="2"/>
-      </tp>
-      <tp>
-        <v>7.0250000000000004</v>
+        <v>5.6</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>JIBA3M Index</stp>
@@ -758,7 +767,7 @@
         <tr r="D6" s="2"/>
       </tp>
       <tp>
-        <v>8.1850000000000005</v>
+        <v>7.0625</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>SASW5 Curncy</stp>
@@ -767,7 +776,7 @@
         <tr r="D15" s="2"/>
       </tp>
       <tp>
-        <v>8.0374999999999996</v>
+        <v>6.4550000000000001</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>SASW4 Curncy</stp>
@@ -776,7 +785,7 @@
         <tr r="D14" s="2"/>
       </tp>
       <tp>
-        <v>8.4320000000000004</v>
+        <v>8.0924999999999994</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>SASW7 Curncy</stp>
@@ -785,7 +794,7 @@
         <tr r="D16" s="2"/>
       </tp>
       <tp>
-        <v>7.98</v>
+        <v>5.62</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>SAFR1C1F Curncy</stp>
@@ -794,7 +803,7 @@
         <tr r="D9" s="1"/>
       </tp>
       <tp>
-        <v>7.8849999999999998</v>
+        <v>5.9175000000000004</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>SASW3 Curncy</stp>
@@ -803,7 +812,7 @@
         <tr r="D13" s="2"/>
       </tp>
       <tp>
-        <v>7.6675000000000004</v>
+        <v>5.4275000000000002</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>SASW2 Curncy</stp>
@@ -812,7 +821,7 @@
         <tr r="D12" s="2"/>
       </tp>
       <tp>
-        <v>97.647500000000008</v>
+        <v>98.655000000000001</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>EDU8 Comdty</stp>
@@ -821,7 +830,7 @@
         <tr r="K7" s="3"/>
       </tp>
       <tp>
-        <v>97.335000000000008</v>
+        <v>98.614999999999995</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>EDZ8 Comdty</stp>
@@ -830,7 +839,7 @@
         <tr r="K8" s="3"/>
       </tp>
       <tp>
-        <v>97.17</v>
+        <v>98.614999999999995</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>EDH9 Comdty</stp>
@@ -839,7 +848,7 @@
         <tr r="K9" s="3"/>
       </tp>
       <tp>
-        <v>7.28</v>
+        <v>4.8250000000000002</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>SAFR0CF Curncy</stp>
@@ -848,7 +857,7 @@
         <tr r="D7" s="2"/>
       </tp>
       <tp>
-        <v>7.47</v>
+        <v>4.7850000000000001</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>SAFR0FI Curncy</stp>
@@ -857,7 +866,7 @@
         <tr r="D8" s="2"/>
       </tp>
       <tp>
-        <v>7.75</v>
+        <v>4.9000000000000004</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>SAFR0I1 Curncy</stp>
@@ -865,8 +874,10 @@
         <stp>[Qwack - YeildCurveExample.xlsx]OisDiscounting!R9C4</stp>
         <tr r="D9" s="2"/>
       </tp>
-      <tp>
-        <v>2.3342499999999999</v>
+    </main>
+    <main first="bloomberg.rtd">
+      <tp>
+        <v>1.31138</v>
         <stp/>
         <stp>##V3_BDPV12</stp>
         <stp>US0003M Index</stp>
@@ -1175,11 +1186,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:J37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1195,7 +1206,7 @@
       </c>
       <c r="C1" s="2">
         <f ca="1">TODAY()</f>
-        <v>43354</v>
+        <v>43930</v>
       </c>
     </row>
     <row r="2" spans="2:10" x14ac:dyDescent="0.25">
@@ -1203,8 +1214,8 @@
         <v>25</v>
       </c>
       <c r="C2" t="str">
-        <f>_xll.QIns_CreateRateIndex("ZAR.JIBAR.3M","ZAR","3M","Act365F","Act365F","3M","JHB","0b","MF")</f>
-        <v>ZAR.JIBAR.3M¬2</v>
+        <f ca="1">_xll.QIns_CreateRateIndex("ZAR.JIBAR.3M","ZAR","3M","Act365F","Act365F","3M","JHB","0b","MF")</f>
+        <v>ZAR.JIBAR.3M¬1</v>
       </c>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.25">
@@ -1223,12 +1234,12 @@
         <v>1</v>
       </c>
       <c r="D4">
-        <f>_xll.BDP(C4,"PX_LAST")</f>
-        <v>7.0250000000000004</v>
+        <f ca="1">_xll.BDP(C4,"PX_LAST")</f>
+        <v>5.6</v>
       </c>
       <c r="E4" s="1">
-        <f>D4/100</f>
-        <v>7.0250000000000007E-2</v>
+        <f ca="1">D4/100</f>
+        <v>5.5999999999999994E-2</v>
       </c>
       <c r="F4" t="str">
         <f ca="1">_xll.QIns_CreateFRA(B4,valDate,"0x3",index,"ZAR",E4,1,"ZAR.JIBAR.3M","ZAR.JIBAR.3M",,,"ZAR.JIBAR.3M")</f>
@@ -1236,7 +1247,7 @@
       </c>
       <c r="H4" s="2">
         <f ca="1">valDate</f>
-        <v>43354</v>
+        <v>43930</v>
       </c>
       <c r="I4" s="1">
         <f ca="1">_xll.QCurves_GetDF($C$21,valDate,H4)</f>
@@ -1244,7 +1255,7 @@
       </c>
       <c r="J4" s="1">
         <f ca="1">_xll.QCurves_GetForwardRate($C$21,H4,H5,"Linear","Act365F")</f>
-        <v>7.0249999999999896E-2</v>
+        <v>5.6000000000000202E-2</v>
       </c>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.25">
@@ -1255,12 +1266,12 @@
         <v>3</v>
       </c>
       <c r="D5">
-        <f>_xll.BDP(C5,"PX_LAST")</f>
-        <v>7.28</v>
+        <f ca="1">_xll.BDP(C5,"PX_LAST")</f>
+        <v>4.8250000000000002</v>
       </c>
       <c r="E5" s="1">
-        <f t="shared" ref="E5:E15" si="0">D5/100</f>
-        <v>7.2800000000000004E-2</v>
+        <f t="shared" ref="E5:E15" ca="1" si="0">D5/100</f>
+        <v>4.8250000000000001E-2</v>
       </c>
       <c r="F5" t="str">
         <f ca="1">_xll.QIns_CreateFRA(B5,valDate,B5,index,"ZAR",E5,1,"ZAR.JIBAR.3M","ZAR.JIBAR.3M",,,"ZAR.JIBAR.3M")</f>
@@ -1268,15 +1279,15 @@
       </c>
       <c r="H5" s="2">
         <f ca="1">EDATE(H4,3)</f>
-        <v>43445</v>
+        <v>44021</v>
       </c>
       <c r="I5" s="1">
         <f ca="1">_xll.QCurves_GetDF($C$21,valDate,H5)</f>
-        <v>0.98278708994723252</v>
+        <v>0.98623059962820459</v>
       </c>
       <c r="J5" s="1">
         <f ca="1">_xll.QCurves_GetForwardRate($C$21,H5,H6,"Linear","Act365F")</f>
-        <v>7.2800000000000517E-2</v>
+        <v>4.8250000000000098E-2</v>
       </c>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.25">
@@ -1287,12 +1298,12 @@
         <v>5</v>
       </c>
       <c r="D6">
-        <f>_xll.BDP(C6,"PX_LAST")</f>
-        <v>7.47</v>
+        <f ca="1">_xll.BDP(C6,"PX_LAST")</f>
+        <v>4.7850000000000001</v>
       </c>
       <c r="E6" s="1">
-        <f t="shared" si="0"/>
-        <v>7.4700000000000003E-2</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>4.7850000000000004E-2</v>
       </c>
       <c r="F6" t="str">
         <f ca="1">_xll.QIns_CreateFRA(B6,valDate,B6,index,"ZAR",E6,1,"ZAR.JIBAR.3M","ZAR.JIBAR.3M",,,"ZAR.JIBAR.3M")</f>
@@ -1300,15 +1311,15 @@
       </c>
       <c r="H6" s="2">
         <f t="shared" ref="H6:H37" ca="1" si="1">EDATE(H5,3)</f>
-        <v>43535</v>
+        <v>44113</v>
       </c>
       <c r="I6" s="1">
         <f ca="1">_xll.QCurves_GetDF($C$21,valDate,H6)</f>
-        <v>0.96545648477397461</v>
+        <v>0.9743805306540313</v>
       </c>
       <c r="J6" s="1">
         <f ca="1">_xll.QCurves_GetForwardRate($C$21,H6,H7,"Linear","Act365F")</f>
-        <v>7.4699999999999475E-2</v>
+        <v>4.787449751931195E-2</v>
       </c>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.25">
@@ -1319,12 +1330,12 @@
         <v>7</v>
       </c>
       <c r="D7">
-        <f>_xll.BDP(C7,"PX_LAST")</f>
-        <v>7.75</v>
+        <f ca="1">_xll.BDP(C7,"PX_LAST")</f>
+        <v>4.9000000000000004</v>
       </c>
       <c r="E7" s="1">
-        <f t="shared" si="0"/>
-        <v>7.7499999999999999E-2</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>4.9000000000000002E-2</v>
       </c>
       <c r="F7" t="str">
         <f ca="1">_xll.QIns_CreateFRA(B7,valDate,B7,index,"ZAR",E7,1,"ZAR.JIBAR.3M","ZAR.JIBAR.3M",,,"ZAR.JIBAR.3M")</f>
@@ -1332,15 +1343,15 @@
       </c>
       <c r="H7" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>43627</v>
+        <v>44205</v>
       </c>
       <c r="I7" s="1">
         <f ca="1">_xll.QCurves_GetDF($C$21,valDate,H7)</f>
-        <v>0.94761433476240986</v>
+        <v>0.96276287428967056</v>
       </c>
       <c r="J7" s="1">
         <f ca="1">_xll.QCurves_GetForwardRate($C$21,H7,H8,"Linear","Act365F")</f>
-        <v>7.7500000000000249E-2</v>
+        <v>4.8952714816994258E-2</v>
       </c>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.25">
@@ -1351,12 +1362,12 @@
         <v>9</v>
       </c>
       <c r="D8">
-        <f>_xll.BDP(C8,"PX_LAST")</f>
-        <v>7.85</v>
+        <f ca="1">_xll.BDP(C8,"PX_LAST")</f>
+        <v>5.37</v>
       </c>
       <c r="E8" s="1">
-        <f t="shared" si="0"/>
-        <v>7.85E-2</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>5.3699999999999998E-2</v>
       </c>
       <c r="F8" t="str">
         <f ca="1">_xll.QIns_CreateFRA(B8,valDate,B8,index,"ZAR",E8,1,"ZAR.JIBAR.3M","ZAR.JIBAR.3M",,,"ZAR.JIBAR.3M")</f>
@@ -1364,15 +1375,15 @@
       </c>
       <c r="H8" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>43719</v>
+        <v>44295</v>
       </c>
       <c r="I8" s="1">
         <f ca="1">_xll.QCurves_GetDF($C$21,valDate,H8)</f>
-        <v>0.92945807161013505</v>
+        <v>0.95128041322078016</v>
       </c>
       <c r="J8" s="1">
         <f ca="1">_xll.QCurves_GetForwardRate($C$21,H8,H9,"Linear","Act365F")</f>
-        <v>7.8500000000000139E-2</v>
+        <v>5.3700000000000456E-2</v>
       </c>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.25">
@@ -1383,12 +1394,12 @@
         <v>11</v>
       </c>
       <c r="D9">
-        <f>_xll.BDP(C9,"PX_LAST")</f>
-        <v>7.98</v>
+        <f ca="1">_xll.BDP(C9,"PX_LAST")</f>
+        <v>5.62</v>
       </c>
       <c r="E9" s="1">
-        <f t="shared" si="0"/>
-        <v>7.980000000000001E-2</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>5.62E-2</v>
       </c>
       <c r="F9" t="str">
         <f ca="1">_xll.QIns_CreateFRA(B9,valDate,B9,index,"ZAR",E9,1,"ZAR.JIBAR.3M","ZAR.JIBAR.3M",,,"ZAR.JIBAR.3M")</f>
@@ -1396,15 +1407,15 @@
       </c>
       <c r="H9" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>43810</v>
+        <v>44386</v>
       </c>
       <c r="I9" s="1">
         <f ca="1">_xll.QCurves_GetDF($C$21,valDate,H9)</f>
-        <v>0.91161661062923127</v>
+        <v>0.93871272155929031</v>
       </c>
       <c r="J9" s="1">
         <f ca="1">_xll.QCurves_GetForwardRate($C$21,H9,H10,"Linear","Act365F")</f>
-        <v>7.9799999999999524E-2</v>
+        <v>5.6172312479854318E-2</v>
       </c>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.25">
@@ -1415,12 +1426,12 @@
         <v>18</v>
       </c>
       <c r="D10">
-        <f>_xll.BDP(C10,"PX_LAST")</f>
-        <v>7.6675000000000004</v>
+        <f ca="1">_xll.BDP(C10,"PX_LAST")</f>
+        <v>5.4275000000000002</v>
       </c>
       <c r="E10" s="1">
-        <f t="shared" si="0"/>
-        <v>7.6675000000000007E-2</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>5.4275000000000004E-2</v>
       </c>
       <c r="F10" t="str">
         <f ca="1">_xll.QIns_CreateIRS(B10,valDate,B10,index,E10,1,"ZAR.JIBAR.3M","ZAR.JIBAR.3M","Pay","ZAR.JIBAR.3M")</f>
@@ -1428,15 +1439,15 @@
       </c>
       <c r="H10" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>43901</v>
+        <v>44478</v>
       </c>
       <c r="I10" s="1">
         <f ca="1">_xll.QCurves_GetDF($C$21,valDate,H10)</f>
-        <v>0.89383348729219447</v>
+        <v>0.92560750704156458</v>
       </c>
       <c r="J10" s="1">
         <f ca="1">_xll.QCurves_GetForwardRate($C$21,H10,H11,"Linear","Act365F")</f>
-        <v>7.9871749394926736E-2</v>
+        <v>6.0745627121553118E-2</v>
       </c>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.25">
@@ -1447,12 +1458,12 @@
         <v>19</v>
       </c>
       <c r="D11">
-        <f>_xll.BDP(C11,"PX_LAST")</f>
-        <v>7.8849999999999998</v>
+        <f ca="1">_xll.BDP(C11,"PX_LAST")</f>
+        <v>5.9175000000000004</v>
       </c>
       <c r="E11" s="1">
-        <f t="shared" si="0"/>
-        <v>7.8850000000000003E-2</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>5.9175000000000005E-2</v>
       </c>
       <c r="F11" t="str">
         <f ca="1">_xll.QIns_CreateIRS(B11,valDate,B11,index,E11,1,"ZAR.JIBAR.3M","ZAR.JIBAR.3M","Pay","ZAR.JIBAR.3M")</f>
@@ -1460,15 +1471,15 @@
       </c>
       <c r="H11" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>43993</v>
+        <v>44570</v>
       </c>
       <c r="I11" s="1">
         <f ca="1">_xll.QCurves_GetDF($C$21,valDate,H11)</f>
-        <v>0.8761939013918475</v>
+        <v>0.911649042014124</v>
       </c>
       <c r="J11" s="1">
         <f ca="1">_xll.QCurves_GetForwardRate($C$21,H11,H12,"Linear","Act365F")</f>
-        <v>8.1101602740768955E-2</v>
+        <v>6.3346542112462656E-2</v>
       </c>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.25">
@@ -1479,12 +1490,12 @@
         <v>20</v>
       </c>
       <c r="D12">
-        <f>_xll.BDP(C12,"PX_LAST")</f>
-        <v>8.0374999999999996</v>
+        <f ca="1">_xll.BDP(C12,"PX_LAST")</f>
+        <v>6.4550000000000001</v>
       </c>
       <c r="E12" s="1">
-        <f t="shared" si="0"/>
-        <v>8.0375000000000002E-2</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>6.4549999999999996E-2</v>
       </c>
       <c r="F12" t="str">
         <f ca="1">_xll.QIns_CreateIRS(B12,valDate,B12,index,E12,1,"ZAR.JIBAR.3M","ZAR.JIBAR.3M","Pay","ZAR.JIBAR.3M")</f>
@@ -1492,15 +1503,15 @@
       </c>
       <c r="H12" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>44085</v>
+        <v>44660</v>
       </c>
       <c r="I12" s="1">
         <f ca="1">_xll.QCurves_GetDF($C$21,valDate,H12)</f>
-        <v>0.85864151057744242</v>
+        <v>0.89762836051639427</v>
       </c>
       <c r="J12" s="1">
         <f ca="1">_xll.QCurves_GetForwardRate($C$21,H12,H13,"Linear","Act365F")</f>
-        <v>8.1978269089647698E-2</v>
+        <v>6.6064480834296058E-2</v>
       </c>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.25">
@@ -1511,12 +1522,12 @@
         <v>21</v>
       </c>
       <c r="D13">
-        <f>_xll.BDP(C13,"PX_LAST")</f>
-        <v>8.1850000000000005</v>
+        <f ca="1">_xll.BDP(C13,"PX_LAST")</f>
+        <v>7.0625</v>
       </c>
       <c r="E13" s="1">
-        <f t="shared" si="0"/>
-        <v>8.1850000000000006E-2</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>7.0624999999999993E-2</v>
       </c>
       <c r="F13" t="str">
         <f ca="1">_xll.QIns_CreateIRS(B13,valDate,B13,index,E13,1,"ZAR.JIBAR.3M","ZAR.JIBAR.3M","Pay","ZAR.JIBAR.3M")</f>
@@ -1524,15 +1535,15 @@
       </c>
       <c r="H13" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>44176</v>
+        <v>44751</v>
       </c>
       <c r="I13" s="1">
         <f ca="1">_xll.QCurves_GetDF($C$21,valDate,H13)</f>
-        <v>0.84144373204931644</v>
+        <v>0.88308321124656319</v>
       </c>
       <c r="J13" s="1">
         <f ca="1">_xll.QCurves_GetForwardRate($C$21,H13,H14,"Linear","Act365F")</f>
-        <v>8.3104663499671924E-2</v>
+        <v>6.868753865951642E-2</v>
       </c>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.25">
@@ -1543,12 +1554,12 @@
         <v>22</v>
       </c>
       <c r="D14">
-        <f>_xll.BDP(C14,"PX_LAST")</f>
-        <v>8.4320000000000004</v>
+        <f ca="1">_xll.BDP(C14,"PX_LAST")</f>
+        <v>8.0924999999999994</v>
       </c>
       <c r="E14" s="1">
-        <f t="shared" si="0"/>
-        <v>8.4320000000000006E-2</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>8.0924999999999997E-2</v>
       </c>
       <c r="F14" t="str">
         <f ca="1">_xll.QIns_CreateIRS(B14,valDate,B14,index,E14,1,"ZAR.JIBAR.3M","ZAR.JIBAR.3M","Pay","ZAR.JIBAR.3M")</f>
@@ -1556,15 +1567,15 @@
       </c>
       <c r="H14" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>44266</v>
+        <v>44843</v>
       </c>
       <c r="I14" s="1">
         <f ca="1">_xll.QCurves_GetDF($C$21,valDate,H14)</f>
-        <v>0.82454746743597507</v>
+        <v>0.86805456226039224</v>
       </c>
       <c r="J14" s="1">
         <f ca="1">_xll.QCurves_GetForwardRate($C$21,H14,H15,"Linear","Act365F")</f>
-        <v>8.4266104091386851E-2</v>
+        <v>7.1317300060843886E-2</v>
       </c>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.25">
@@ -1575,12 +1586,12 @@
         <v>23</v>
       </c>
       <c r="D15">
-        <f>_xll.BDP(C15,"PX_LAST")</f>
-        <v>8.6649999999999991</v>
+        <f ca="1">_xll.BDP(C15,"PX_LAST")</f>
+        <v>8.9600000000000009</v>
       </c>
       <c r="E15" s="1">
-        <f t="shared" si="0"/>
-        <v>8.6649999999999991E-2</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>8.9600000000000013E-2</v>
       </c>
       <c r="F15" t="str">
         <f ca="1">_xll.QIns_CreateIRS(B15,valDate,B15,index,E15,1,"ZAR.JIBAR.3M","ZAR.JIBAR.3M","Pay","ZAR.JIBAR.3M")</f>
@@ -1588,43 +1599,43 @@
       </c>
       <c r="H15" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>44358</v>
+        <v>44935</v>
       </c>
       <c r="I15" s="1">
         <f ca="1">_xll.QCurves_GetDF($C$21,valDate,H15)</f>
-        <v>0.80739858348183668</v>
+        <v>0.85272607146055324</v>
       </c>
       <c r="J15" s="1">
         <f ca="1">_xll.QCurves_GetForwardRate($C$21,H15,H16,"Linear","Act365F")</f>
-        <v>8.5421632387186405E-2</v>
+        <v>7.3905286443411974E-2</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.25">
       <c r="H16" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>44450</v>
+        <v>45025</v>
       </c>
       <c r="I16" s="1">
         <f ca="1">_xll.QCurves_GetDF($C$21,valDate,H16)</f>
-        <v>0.79038094509962142</v>
+        <v>0.83746476569198924</v>
       </c>
       <c r="J16" s="1">
         <f ca="1">_xll.QCurves_GetForwardRate($C$21,H16,H17,"Linear","Act365F")</f>
-        <v>8.460048509444576E-2</v>
+        <v>7.8661980007314503E-2</v>
       </c>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.25">
       <c r="H17" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>44541</v>
+        <v>45116</v>
       </c>
       <c r="I17" s="1">
         <f ca="1">_xll.QCurves_GetDF($C$21,valDate,H17)</f>
-        <v>0.774054452557149</v>
+        <v>0.82135663401994041</v>
       </c>
       <c r="J17" s="1">
         <f ca="1">_xll.QCurves_GetForwardRate($C$21,H17,H18,"Linear","Act365F")</f>
-        <v>8.5380739265794231E-2</v>
+        <v>8.1678302583325479E-2</v>
       </c>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.25">
@@ -1637,29 +1648,29 @@
       </c>
       <c r="H18" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>44631</v>
+        <v>45208</v>
       </c>
       <c r="I18" s="1">
         <f ca="1">_xll.QCurves_GetDF($C$21,valDate,H18)</f>
-        <v>0.75809445300971323</v>
+        <v>0.8047881325628492</v>
       </c>
       <c r="J18" s="1">
         <f ca="1">_xll.QCurves_GetForwardRate($C$21,H18,H19,"Linear","Act365F")</f>
-        <v>8.6236371577449941E-2</v>
+        <v>8.4659755047945914E-2</v>
       </c>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.25">
       <c r="H19" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>44723</v>
+        <v>45300</v>
       </c>
       <c r="I19" s="1">
         <f ca="1">_xll.QCurves_GetDF($C$21,valDate,H19)</f>
-        <v>0.74196684579782812</v>
+        <v>0.78797364400642311</v>
       </c>
       <c r="J19" s="1">
         <f ca="1">_xll.QCurves_GetForwardRate($C$21,H19,H20,"Linear","Act365F")</f>
-        <v>8.7081527057995781E-2</v>
+        <v>8.7616740332739224E-2</v>
       </c>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.25">
@@ -1672,15 +1683,15 @@
       </c>
       <c r="H20" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>44815</v>
+        <v>45391</v>
       </c>
       <c r="I20" s="1">
         <f ca="1">_xll.QCurves_GetDF($C$21,valDate,H20)</f>
-        <v>0.72603096247953336</v>
+        <v>0.77112896892790683</v>
       </c>
       <c r="J20" s="1">
         <f ca="1">_xll.QCurves_GetForwardRate($C$21,H20,H21,"Linear","Act365F")</f>
-        <v>8.7947310259188172E-2</v>
+        <v>9.5214525382017495E-2</v>
       </c>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.25">
@@ -1693,231 +1704,231 @@
       </c>
       <c r="H21" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>44906</v>
+        <v>45482</v>
       </c>
       <c r="I21" s="1">
         <f ca="1">_xll.QCurves_GetDF($C$21,valDate,H21)</f>
-        <v>0.71045314781967528</v>
+        <v>0.75324805334872325</v>
       </c>
       <c r="J21" s="1">
         <f ca="1">_xll.QCurves_GetForwardRate($C$21,H21,H22,"Linear","Act365F")</f>
-        <v>8.8772686046287491E-2</v>
+        <v>9.8750621474272507E-2</v>
       </c>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.25">
       <c r="H22" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>44996</v>
+        <v>45574</v>
       </c>
       <c r="I22" s="1">
         <f ca="1">_xll.QCurves_GetDF($C$21,valDate,H22)</f>
-        <v>0.69523503994663294</v>
+        <v>0.73495461579798316</v>
       </c>
       <c r="J22" s="1">
         <f ca="1">_xll.QCurves_GetForwardRate($C$21,H22,H23,"Linear","Act365F")</f>
-        <v>8.9634838704093639E-2</v>
+        <v>0.10229673180415129</v>
       </c>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.25">
       <c r="H23" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>45088</v>
+        <v>45666</v>
       </c>
       <c r="I23" s="1">
         <f ca="1">_xll.QCurves_GetDF($C$21,valDate,H23)</f>
-        <v>0.67987470494515023</v>
+        <v>0.71648060635238509</v>
       </c>
       <c r="J23" s="1">
         <f ca="1">_xll.QCurves_GetForwardRate($C$21,H23,H24,"Linear","Act365F")</f>
-        <v>9.0484968847432831E-2</v>
+        <v>0.1057769429280481</v>
       </c>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.25">
       <c r="H24" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>45180</v>
+        <v>45756</v>
       </c>
       <c r="I24" s="1">
         <f ca="1">_xll.QCurves_GetDF($C$21,valDate,H24)</f>
-        <v>0.66471444934458246</v>
+        <v>0.69826838028421911</v>
       </c>
       <c r="J24" s="1">
         <f ca="1">_xll.QCurves_GetForwardRate($C$21,H24,H25,"Linear","Act365F")</f>
-        <v>9.0249987387566927E-2</v>
+        <v>0.10565970450408878</v>
       </c>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.25">
       <c r="H25" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>45271</v>
+        <v>45847</v>
       </c>
       <c r="I25" s="1">
         <f ca="1">_xll.QCurves_GetDF($C$21,valDate,H25)</f>
-        <v>0.65008704755370206</v>
+        <v>0.68034631896096098</v>
       </c>
       <c r="J25" s="1">
         <f ca="1">_xll.QCurves_GetForwardRate($C$21,H25,H26,"Linear","Act365F")</f>
-        <v>9.0989270807947636E-2</v>
+        <v>0.10886135067736374</v>
       </c>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.25">
       <c r="H26" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>45362</v>
+        <v>45939</v>
       </c>
       <c r="I26" s="1">
         <f ca="1">_xll.QCurves_GetDF($C$21,valDate,H26)</f>
-        <v>0.63566694526279222</v>
+        <v>0.66217683206245936</v>
       </c>
       <c r="J26" s="1">
         <f ca="1">_xll.QCurves_GetForwardRate($C$21,H26,H27,"Linear","Act365F")</f>
-        <v>9.1744191907840791E-2</v>
+        <v>0.11206776067482987</v>
       </c>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.25">
       <c r="H27" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>45454</v>
+        <v>46031</v>
       </c>
       <c r="I27" s="1">
         <f ca="1">_xll.QCurves_GetDF($C$21,valDate,H27)</f>
-        <v>0.62129966181796603</v>
+        <v>0.64398601961473578</v>
       </c>
       <c r="J27" s="1">
         <f ca="1">_xll.QCurves_GetForwardRate($C$21,H27,H28,"Linear","Act365F")</f>
-        <v>9.24920568440461E-2</v>
+        <v>0.11520576895429656</v>
       </c>
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.25">
       <c r="H28" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>45546</v>
+        <v>46121</v>
       </c>
       <c r="I28" s="1">
         <f ca="1">_xll.QCurves_GetDF($C$21,valDate,H28)</f>
-        <v>0.60714524443066853</v>
+        <v>0.62619768343027404</v>
       </c>
       <c r="J28" s="1">
         <f ca="1">_xll.QCurves_GetForwardRate($C$21,H28,H29,"Linear","Act365F")</f>
-        <v>9.3224179010840597E-2</v>
+        <v>0.11838183447768585</v>
       </c>
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.25">
       <c r="H29" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>45637</v>
+        <v>46212</v>
       </c>
       <c r="I29" s="1">
         <f ca="1">_xll.QCurves_GetDF($C$21,valDate,H29)</f>
-        <v>0.59335438749119573</v>
+        <v>0.60824569188378097</v>
       </c>
       <c r="J29" s="1">
         <f ca="1">_xll.QCurves_GetForwardRate($C$21,H29,H30,"Linear","Act365F")</f>
-        <v>9.3947933818461185E-2</v>
+        <v>0.12159728807506742</v>
       </c>
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.25">
       <c r="H30" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>45727</v>
+        <v>46304</v>
       </c>
       <c r="I30" s="1">
         <f ca="1">_xll.QCurves_GetDF($C$21,valDate,H30)</f>
-        <v>0.57992039017810371</v>
+        <v>0.59015783838537195</v>
       </c>
       <c r="J30" s="1">
         <f ca="1">_xll.QCurves_GetForwardRate($C$21,H30,H31,"Linear","Act365F")</f>
-        <v>9.4712075928632344E-2</v>
+        <v>0.12481371625355868</v>
       </c>
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.25">
       <c r="H31" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>45819</v>
+        <v>46396</v>
       </c>
       <c r="I31" s="1">
         <f ca="1">_xll.QCurves_GetDF($C$21,valDate,H31)</f>
-        <v>0.56639895586557465</v>
+        <v>0.57215781330983928</v>
       </c>
       <c r="J31" s="1">
         <f ca="1">_xll.QCurves_GetForwardRate($C$21,H31,H32,"Linear","Act365F")</f>
-        <v>9.5460487674963276E-2</v>
+        <v>0.12795327149028174</v>
       </c>
     </row>
     <row r="32" spans="2:10" x14ac:dyDescent="0.25">
       <c r="H32" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>45911</v>
+        <v>46486</v>
       </c>
       <c r="I32" s="1">
         <f ca="1">_xll.QCurves_GetDF($C$21,valDate,H32)</f>
-        <v>0.55309088475855583</v>
+        <v>0.55465827714334903</v>
       </c>
       <c r="J32" s="1">
         <f ca="1">_xll.QCurves_GetForwardRate($C$21,H32,H33,"Linear","Act365F")</f>
-        <v>9.2661905221587765E-2</v>
+        <v>0.1140754343407147</v>
       </c>
     </row>
     <row r="33" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H33" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>46002</v>
+        <v>46577</v>
       </c>
       <c r="I33" s="1">
         <f ca="1">_xll.QCurves_GetDF($C$21,valDate,H33)</f>
-        <v>0.54060189478624432</v>
+        <v>0.53931963584104503</v>
       </c>
       <c r="J33" s="1">
         <f ca="1">_xll.QCurves_GetForwardRate($C$21,H33,H34,"Linear","Act365F")</f>
-        <v>9.3144509356420324E-2</v>
+        <v>0.11610750253143677</v>
       </c>
     </row>
     <row r="34" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H34" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>46092</v>
+        <v>46669</v>
       </c>
       <c r="I34" s="1">
         <f ca="1">_xll.QCurves_GetDF($C$21,valDate,H34)</f>
-        <v>0.52846457527431079</v>
+        <v>0.52398497824835111</v>
       </c>
       <c r="J34" s="1">
         <f ca="1">_xll.QCurves_GetForwardRate($C$21,H34,H35,"Linear","Act365F")</f>
-        <v>9.3665420316010106E-2</v>
+        <v>0.11813391928799184</v>
       </c>
     </row>
     <row r="35" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H35" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>46184</v>
+        <v>46761</v>
       </c>
       <c r="I35" s="1">
         <f ca="1">_xll.QCurves_GetDF($C$21,valDate,H35)</f>
-        <v>0.51627591111097348</v>
+        <v>0.50883382980594249</v>
       </c>
       <c r="J35" s="1">
         <f ca="1">_xll.QCurves_GetForwardRate($C$21,H35,H36,"Linear","Act365F")</f>
-        <v>9.4168264565581722E-2</v>
+        <v>0.12013074362945345</v>
       </c>
     </row>
     <row r="36" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H36" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>46276</v>
+        <v>46852</v>
       </c>
       <c r="I36" s="1">
         <f ca="1">_xll.QCurves_GetDF($C$21,valDate,H36)</f>
-        <v>0.50430592624150583</v>
+        <v>0.49403721533112049</v>
       </c>
       <c r="J36" s="1">
         <f ca="1">_xll.QCurves_GetForwardRate($C$21,H36,H37,"Linear","Act365F")</f>
-        <v>9.4656258397491214E-2</v>
+        <v>0.12213645723330883</v>
       </c>
     </row>
     <row r="37" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H37" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>46367</v>
+        <v>46943</v>
       </c>
     </row>
   </sheetData>
@@ -1926,11 +1937,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B1:K43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1947,7 +1958,7 @@
       </c>
       <c r="C1" s="2">
         <f ca="1">TODAY()</f>
-        <v>43354</v>
+        <v>43930</v>
       </c>
     </row>
     <row r="2" spans="2:11" x14ac:dyDescent="0.25">
@@ -1955,8 +1966,8 @@
         <v>25</v>
       </c>
       <c r="C2" t="str">
-        <f>_xll.QIns_CreateRateIndex("ZAR.JIBAR.3M","ZAR","3M","Act365F","Act365F","3M","JHB","0b","MF")</f>
-        <v>ZAR.JIBAR.3M¬1</v>
+        <f ca="1">_xll.QIns_CreateRateIndex("ZAR.JIBAR.3M","ZAR","3M","Act365F","Act365F","3M","JHB","0b","MF")</f>
+        <v>ZAR.JIBAR.3M¬2</v>
       </c>
       <c r="I2" s="3"/>
     </row>
@@ -1965,7 +1976,7 @@
         <v>31</v>
       </c>
       <c r="C3" t="str">
-        <f>_xll.QIns_CreateRateIndex("ZAR.OIS.1B","ZAR","3M","Act365F","Act365F","3M","JHB","0b","MF")</f>
+        <f ca="1">_xll.QIns_CreateRateIndex("ZAR.OIS.1B","ZAR","3M","Act365F","Act365F","3M","JHB","0b","MF")</f>
         <v>ZAR.OIS.1B¬1</v>
       </c>
       <c r="I3" t="s">
@@ -1981,7 +1992,7 @@
     <row r="4" spans="2:11" x14ac:dyDescent="0.25">
       <c r="H4" s="2">
         <f ca="1">valDate</f>
-        <v>43354</v>
+        <v>43930</v>
       </c>
       <c r="I4" s="1">
         <f ca="1">_xll.QCurves_GetDF($C$32,valDate,H4)</f>
@@ -1989,7 +2000,7 @@
       </c>
       <c r="J4" s="1">
         <f ca="1">_xll.QCurves_GetForwardRate($C$32,H4,H5,"Linear","Act365F")</f>
-        <v>7.0250000000000784E-2</v>
+        <v>5.6000000000000202E-2</v>
       </c>
       <c r="K4" s="1">
         <f ca="1">_xll.QCurves_GetDF($C$33,valDate,H4)</f>
@@ -1999,19 +2010,19 @@
     <row r="5" spans="2:11" x14ac:dyDescent="0.25">
       <c r="H5" s="2">
         <f ca="1">EDATE(H4,3)</f>
-        <v>43445</v>
+        <v>44021</v>
       </c>
       <c r="I5" s="1">
         <f ca="1">_xll.QCurves_GetDF($C$32,valDate,H5)</f>
-        <v>0.9827870899472323</v>
+        <v>0.98623059962820459</v>
       </c>
       <c r="J5" s="1">
         <f ca="1">_xll.QCurves_GetForwardRate($C$32,H5,H6,"Linear","Act365F")</f>
-        <v>7.2799999999999629E-2</v>
+        <v>4.8250000000000098E-2</v>
       </c>
       <c r="K5" s="1">
         <f ca="1">_xll.QCurves_GetDF($C$33,valDate,H5)</f>
-        <v>0.98375125916792172</v>
+        <v>0.9872015405753356</v>
       </c>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.25">
@@ -2022,32 +2033,32 @@
         <v>1</v>
       </c>
       <c r="D6">
-        <f>_xll.BDP(C6,"PX_LAST")</f>
-        <v>7.0250000000000004</v>
+        <f ca="1">_xll.BDP(C6,"PX_LAST")</f>
+        <v>5.6</v>
       </c>
       <c r="E6" s="1">
-        <f>D6/100</f>
-        <v>7.0250000000000007E-2</v>
+        <f ca="1">D6/100</f>
+        <v>5.5999999999999994E-2</v>
       </c>
       <c r="F6" t="str">
         <f ca="1">_xll.QIns_CreateFRA("OISFra_"&amp;B6,valDate,"0x3",index,"ZAR",E6,1,"ZAR.JIBAR.3M","ZAR.OIS.1B",,,"ZAR.JIBAR.3M")</f>
-        <v>OISFra_3m¬0</v>
+        <v>OISFra_3m¬1</v>
       </c>
       <c r="H6" s="2">
         <f t="shared" ref="H6:H37" ca="1" si="0">EDATE(H5,3)</f>
-        <v>43535</v>
+        <v>44113</v>
       </c>
       <c r="I6" s="1">
         <f ca="1">_xll.QCurves_GetDF($C$32,valDate,H6)</f>
-        <v>0.96545648477397461</v>
+        <v>0.9743805306540313</v>
       </c>
       <c r="J6" s="1">
         <f ca="1">_xll.QCurves_GetForwardRate($C$32,H6,H7,"Linear","Act365F")</f>
-        <v>7.4699999999999475E-2</v>
+        <v>4.7874497519312831E-2</v>
       </c>
       <c r="K6" s="1">
         <f ca="1">_xll.QCurves_GetDF($C$33,valDate,H6)</f>
-        <v>0.96734091682011292</v>
+        <v>0.97631231473076319</v>
       </c>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.25">
@@ -2058,32 +2069,32 @@
         <v>3</v>
       </c>
       <c r="D7">
-        <f>_xll.BDP(C7,"PX_LAST")</f>
-        <v>7.28</v>
+        <f ca="1">_xll.BDP(C7,"PX_LAST")</f>
+        <v>4.8250000000000002</v>
       </c>
       <c r="E7" s="1">
-        <f t="shared" ref="E7:E17" si="1">D7/100</f>
-        <v>7.2800000000000004E-2</v>
+        <f t="shared" ref="E7:E17" ca="1" si="1">D7/100</f>
+        <v>4.8250000000000001E-2</v>
       </c>
       <c r="F7" t="str">
         <f ca="1">_xll.QIns_CreateFRA("OISFra_"&amp;B7,valDate,B7,index,"ZAR",E7,1,"ZAR.JIBAR.3M","ZAR.OIS.1B",,,"ZAR.JIBAR.3M")</f>
-        <v>OISFra_3x6¬0</v>
+        <v>OISFra_3x6¬1</v>
       </c>
       <c r="H7" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>43627</v>
+        <v>44205</v>
       </c>
       <c r="I7" s="1">
         <f ca="1">_xll.QCurves_GetDF($C$32,valDate,H7)</f>
-        <v>0.94761433476240975</v>
+        <v>0.96276287428967033</v>
       </c>
       <c r="J7" s="1">
         <f ca="1">_xll.QCurves_GetForwardRate($C$32,H7,H8,"Linear","Act365F")</f>
-        <v>7.7500000000000249E-2</v>
+        <v>4.8952714816993363E-2</v>
       </c>
       <c r="K7" s="1">
         <f ca="1">_xll.QCurves_GetDF($C$33,valDate,H7)</f>
-        <v>0.9504044491514535</v>
+        <v>0.9656327019227805</v>
       </c>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.25">
@@ -2094,32 +2105,32 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <f>_xll.BDP(C8,"PX_LAST")</f>
-        <v>7.47</v>
+        <f ca="1">_xll.BDP(C8,"PX_LAST")</f>
+        <v>4.7850000000000001</v>
       </c>
       <c r="E8" s="1">
-        <f t="shared" si="1"/>
-        <v>7.4700000000000003E-2</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>4.7850000000000004E-2</v>
       </c>
       <c r="F8" t="str">
         <f ca="1">_xll.QIns_CreateFRA("OISFra_"&amp;B8,valDate,B8,index,"ZAR",E8,1,"ZAR.JIBAR.3M","ZAR.OIS.1B",,,"ZAR.JIBAR.3M")</f>
-        <v>OISFra_6x9¬0</v>
+        <v>OISFra_6x9¬1</v>
       </c>
       <c r="H8" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>43719</v>
+        <v>44295</v>
       </c>
       <c r="I8" s="1">
         <f ca="1">_xll.QCurves_GetDF($C$32,valDate,H8)</f>
-        <v>0.92945807161013494</v>
+        <v>0.95128041322078005</v>
       </c>
       <c r="J8" s="1">
         <f ca="1">_xll.QCurves_GetForwardRate($C$32,H8,H9,"Linear","Act365F")</f>
-        <v>7.8500000000000139E-2</v>
+        <v>5.3699999999999568E-2</v>
       </c>
       <c r="K8" s="1">
         <f ca="1">_xll.QCurves_GetDF($C$33,valDate,H8)</f>
-        <v>0.93311748898564284</v>
+        <v>0.95508414419060306</v>
       </c>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.25">
@@ -2130,32 +2141,32 @@
         <v>7</v>
       </c>
       <c r="D9">
-        <f>_xll.BDP(C9,"PX_LAST")</f>
-        <v>7.75</v>
+        <f ca="1">_xll.BDP(C9,"PX_LAST")</f>
+        <v>4.9000000000000004</v>
       </c>
       <c r="E9" s="1">
-        <f t="shared" si="1"/>
-        <v>7.7499999999999999E-2</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>4.9000000000000002E-2</v>
       </c>
       <c r="F9" t="str">
         <f ca="1">_xll.QIns_CreateFRA("OISFra_"&amp;B9,valDate,B9,index,"ZAR",E9,1,"ZAR.JIBAR.3M","ZAR.OIS.1B",,,"ZAR.JIBAR.3M")</f>
-        <v>OISFra_9x12¬0</v>
+        <v>OISFra_9x12¬1</v>
       </c>
       <c r="H9" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>43810</v>
+        <v>44386</v>
       </c>
       <c r="I9" s="1">
         <f ca="1">_xll.QCurves_GetDF($C$32,valDate,H9)</f>
-        <v>0.91161661062923127</v>
+        <v>0.93871272155929031</v>
       </c>
       <c r="J9" s="1">
         <f ca="1">_xll.QCurves_GetForwardRate($C$32,H9,H10,"Linear","Act365F")</f>
-        <v>7.9799999999999524E-2</v>
+        <v>5.6172312479854318E-2</v>
       </c>
       <c r="K9" s="1">
         <f ca="1">_xll.QCurves_GetDF($C$33,valDate,H9)</f>
-        <v>0.91615444467808482</v>
+        <v>0.94327489164363509</v>
       </c>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.25">
@@ -2166,32 +2177,32 @@
         <v>9</v>
       </c>
       <c r="D10">
-        <f>_xll.BDP(C10,"PX_LAST")</f>
-        <v>7.85</v>
+        <f ca="1">_xll.BDP(C10,"PX_LAST")</f>
+        <v>5.37</v>
       </c>
       <c r="E10" s="1">
-        <f t="shared" si="1"/>
-        <v>7.85E-2</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>5.3699999999999998E-2</v>
       </c>
       <c r="F10" t="str">
         <f ca="1">_xll.QIns_CreateFRA("OISFra_"&amp;B10,valDate,B10,index,"ZAR",E10,1,"ZAR.JIBAR.3M","ZAR.OIS.1B",,,"ZAR.JIBAR.3M")</f>
-        <v>OISFra_12x15¬0</v>
+        <v>OISFra_12x15¬1</v>
       </c>
       <c r="H10" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>43901</v>
+        <v>44478</v>
       </c>
       <c r="I10" s="1">
         <f ca="1">_xll.QCurves_GetDF($C$32,valDate,H10)</f>
-        <v>0.89383348729219447</v>
+        <v>0.92560750704156458</v>
       </c>
       <c r="J10" s="1">
         <f ca="1">_xll.QCurves_GetForwardRate($C$32,H10,H11,"Linear","Act365F")</f>
-        <v>7.9842637216428577E-2</v>
+        <v>6.0714308999312856E-2</v>
       </c>
       <c r="K10" s="1">
         <f ca="1">_xll.QCurves_GetDF($C$33,valDate,H10)</f>
-        <v>0.89910941775419073</v>
+        <v>0.9311124050637537</v>
       </c>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.25">
@@ -2202,32 +2213,32 @@
         <v>11</v>
       </c>
       <c r="D11">
-        <f>_xll.BDP(C11,"PX_LAST")</f>
-        <v>7.98</v>
+        <f ca="1">_xll.BDP(C11,"PX_LAST")</f>
+        <v>5.62</v>
       </c>
       <c r="E11" s="1">
-        <f t="shared" si="1"/>
-        <v>7.980000000000001E-2</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>5.62E-2</v>
       </c>
       <c r="F11" t="str">
         <f ca="1">_xll.QIns_CreateFRA("OISFra_"&amp;B11,valDate,B11,index,"ZAR",E11,1,"ZAR.JIBAR.3M","ZAR.OIS.1B",,,"ZAR.JIBAR.3M")</f>
-        <v>OISFra_15x18¬0</v>
+        <v>OISFra_15x18¬1</v>
       </c>
       <c r="H11" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>43993</v>
+        <v>44570</v>
       </c>
       <c r="I11" s="1">
         <f ca="1">_xll.QCurves_GetDF($C$32,valDate,H11)</f>
-        <v>0.87620020394653664</v>
+        <v>0.91165612999514489</v>
       </c>
       <c r="J11" s="1">
         <f ca="1">_xll.QCurves_GetForwardRate($C$32,H11,H12,"Linear","Act365F")</f>
-        <v>8.1064096357870888E-2</v>
+        <v>6.3305511654691615E-2</v>
       </c>
       <c r="K11" s="1">
         <f ca="1">_xll.QCurves_GetDF($C$33,valDate,H11)</f>
-        <v>0.88224399825491229</v>
+        <v>0.91799187684709571</v>
       </c>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.25">
@@ -2238,32 +2249,32 @@
         <v>18</v>
       </c>
       <c r="D12">
-        <f>_xll.BDP(C12,"PX_LAST")</f>
-        <v>7.6675000000000004</v>
+        <f ca="1">_xll.BDP(C12,"PX_LAST")</f>
+        <v>5.4275000000000002</v>
       </c>
       <c r="E12" s="1">
-        <f t="shared" si="1"/>
-        <v>7.6675000000000007E-2</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>5.4275000000000004E-2</v>
       </c>
       <c r="F12" t="str">
         <f ca="1">_xll.QIns_CreateIRS("OISSwap_"&amp;B12,valDate,B12,index,E12,1,"ZAR.JIBAR.3M","ZAR.OIS.1B","Pay","ZAR.JIBAR.3M")</f>
-        <v>OISSwap_2y¬0</v>
+        <v>OISSwap_2y¬1</v>
       </c>
       <c r="H12" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>44085</v>
+        <v>44660</v>
       </c>
       <c r="I12" s="1">
         <f ca="1">_xll.QCurves_GetDF($C$32,valDate,H12)</f>
-        <v>0.85865564170456976</v>
+        <v>0.89764428137467944</v>
       </c>
       <c r="J12" s="1">
         <f ca="1">_xll.QCurves_GetForwardRate($C$32,H12,H13,"Linear","Act365F")</f>
-        <v>8.1950906918311028E-2</v>
+        <v>6.6022872672555147E-2</v>
       </c>
       <c r="K12" s="1">
         <f ca="1">_xll.QCurves_GetDF($C$33,valDate,H12)</f>
-        <v>0.86543349533498681</v>
+        <v>0.90476115186497996</v>
       </c>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.25">
@@ -2274,32 +2285,32 @@
         <v>19</v>
       </c>
       <c r="D13">
-        <f>_xll.BDP(C13,"PX_LAST")</f>
-        <v>7.8849999999999998</v>
+        <f ca="1">_xll.BDP(C13,"PX_LAST")</f>
+        <v>5.9175000000000004</v>
       </c>
       <c r="E13" s="1">
-        <f t="shared" si="1"/>
-        <v>7.8850000000000003E-2</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>5.9175000000000005E-2</v>
       </c>
       <c r="F13" t="str">
         <f ca="1">_xll.QIns_CreateIRS("OISSwap_"&amp;B13,valDate,B13,index,E13,1,"ZAR.JIBAR.3M","ZAR.OIS.1B","Pay","ZAR.JIBAR.3M")</f>
-        <v>OISSwap_3y¬0</v>
+        <v>OISSwap_3y¬1</v>
       </c>
       <c r="H13" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>44176</v>
+        <v>44751</v>
       </c>
       <c r="I13" s="1">
         <f ca="1">_xll.QCurves_GetDF($C$32,valDate,H13)</f>
-        <v>0.84146320546568354</v>
+        <v>0.88310788663618245</v>
       </c>
       <c r="J13" s="1">
         <f ca="1">_xll.QCurves_GetForwardRate($C$32,H13,H14,"Linear","Act365F")</f>
-        <v>8.3073121110234779E-2</v>
+        <v>6.8638838016895798E-2</v>
       </c>
       <c r="K13" s="1">
         <f ca="1">_xll.QCurves_GetDF($C$33,valDate,H13)</f>
-        <v>0.84911974800451728</v>
+        <v>0.89061526662429957</v>
       </c>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.25">
@@ -2310,32 +2321,32 @@
         <v>20</v>
       </c>
       <c r="D14">
-        <f>_xll.BDP(C14,"PX_LAST")</f>
-        <v>8.0374999999999996</v>
+        <f ca="1">_xll.BDP(C14,"PX_LAST")</f>
+        <v>6.4550000000000001</v>
       </c>
       <c r="E14" s="1">
-        <f t="shared" si="1"/>
-        <v>8.0375000000000002E-2</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>6.4549999999999996E-2</v>
       </c>
       <c r="F14" t="str">
         <f ca="1">_xll.QIns_CreateIRS("OISSwap_"&amp;B14,valDate,B14,index,E14,1,"ZAR.JIBAR.3M","ZAR.OIS.1B","Pay","ZAR.JIBAR.3M")</f>
-        <v>OISSwap_4y¬0</v>
+        <v>OISSwap_4y¬1</v>
       </c>
       <c r="H14" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>44266</v>
+        <v>44843</v>
       </c>
       <c r="I14" s="1">
         <f ca="1">_xll.QCurves_GetDF($C$32,valDate,H14)</f>
-        <v>0.82457283422470196</v>
+        <v>0.86808929236306109</v>
       </c>
       <c r="J14" s="1">
         <f ca="1">_xll.QCurves_GetForwardRate($C$32,H14,H15,"Linear","Act365F")</f>
-        <v>8.4230333626428192E-2</v>
+        <v>7.126129505508913E-2</v>
       </c>
       <c r="K14" s="1">
         <f ca="1">_xll.QCurves_GetDF($C$33,valDate,H14)</f>
-        <v>0.83309926423548697</v>
+        <v>0.87588056205160736</v>
       </c>
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.25">
@@ -2346,32 +2357,32 @@
         <v>21</v>
       </c>
       <c r="D15">
-        <f>_xll.BDP(C15,"PX_LAST")</f>
-        <v>8.1850000000000005</v>
+        <f ca="1">_xll.BDP(C15,"PX_LAST")</f>
+        <v>7.0625</v>
       </c>
       <c r="E15" s="1">
-        <f t="shared" si="1"/>
-        <v>8.1850000000000006E-2</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>7.0624999999999993E-2</v>
       </c>
       <c r="F15" t="str">
         <f ca="1">_xll.QIns_CreateIRS("OISSwap_"&amp;B15,valDate,B15,index,E15,1,"ZAR.JIBAR.3M","ZAR.OIS.1B","Pay","ZAR.JIBAR.3M")</f>
-        <v>OISSwap_5y¬0</v>
+        <v>OISSwap_5y¬1</v>
       </c>
       <c r="H15" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>44358</v>
+        <v>44935</v>
       </c>
       <c r="I15" s="1">
         <f ca="1">_xll.QCurves_GetDF($C$32,valDate,H15)</f>
-        <v>0.80743055117559626</v>
+        <v>0.85277201372255773</v>
       </c>
       <c r="J15" s="1">
         <f ca="1">_xll.QCurves_GetForwardRate($C$32,H15,H16,"Linear","Act365F")</f>
-        <v>8.5381599349537929E-2</v>
+        <v>7.3842072502186704E-2</v>
       </c>
       <c r="K15" s="1">
         <f ca="1">_xll.QCurves_GetDF($C$33,valDate,H15)</f>
-        <v>0.8168451639322053</v>
+        <v>0.86074727431237563</v>
       </c>
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.25">
@@ -2382,32 +2393,32 @@
         <v>22</v>
       </c>
       <c r="D16">
-        <f>_xll.BDP(C16,"PX_LAST")</f>
-        <v>8.4320000000000004</v>
+        <f ca="1">_xll.BDP(C16,"PX_LAST")</f>
+        <v>8.0924999999999994</v>
       </c>
       <c r="E16" s="1">
-        <f t="shared" si="1"/>
-        <v>8.4320000000000006E-2</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>8.0924999999999997E-2</v>
       </c>
       <c r="F16" t="str">
         <f ca="1">_xll.QIns_CreateIRS("OISSwap_"&amp;B16,valDate,B16,index,E16,1,"ZAR.JIBAR.3M","ZAR.OIS.1B","Pay","ZAR.JIBAR.3M")</f>
-        <v>OISSwap_7y¬0</v>
+        <v>OISSwap_7y¬1</v>
       </c>
       <c r="H16" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>44450</v>
+        <v>45025</v>
       </c>
       <c r="I16" s="1">
         <f ca="1">_xll.QCurves_GetDF($C$32,valDate,H16)</f>
-        <v>0.7904200466491379</v>
+        <v>0.83752270655066519</v>
       </c>
       <c r="J16" s="1">
         <f ca="1">_xll.QCurves_GetForwardRate($C$32,H16,H17,"Linear","Act365F")</f>
-        <v>8.4557755057582923E-2</v>
+        <v>7.857175418754106E-2</v>
       </c>
       <c r="K16" s="1">
         <f ca="1">_xll.QCurves_GetDF($C$33,valDate,H16)</f>
-        <v>0.8007199181669622</v>
+        <v>0.84558539907893437</v>
       </c>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.25">
@@ -2418,32 +2429,32 @@
         <v>23</v>
       </c>
       <c r="D17">
-        <f>_xll.BDP(C17,"PX_LAST")</f>
-        <v>8.6649999999999991</v>
+        <f ca="1">_xll.BDP(C17,"PX_LAST")</f>
+        <v>8.9600000000000009</v>
       </c>
       <c r="E17" s="1">
-        <f t="shared" si="1"/>
-        <v>8.6649999999999991E-2</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>8.9600000000000013E-2</v>
       </c>
       <c r="F17" t="str">
         <f ca="1">_xll.QIns_CreateIRS("OISSwap_"&amp;B17,valDate,B17,index,E17,1,"ZAR.JIBAR.3M","ZAR.OIS.1B","Pay","ZAR.JIBAR.3M")</f>
-        <v>OISSwap_10y¬0</v>
+        <v>OISSwap_10y¬1</v>
       </c>
       <c r="H17" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>44541</v>
+        <v>45116</v>
       </c>
       <c r="I17" s="1">
         <f ca="1">_xll.QCurves_GetDF($C$32,valDate,H17)</f>
-        <v>0.7741008227420263</v>
+        <v>0.82143158283245765</v>
       </c>
       <c r="J17" s="1">
         <f ca="1">_xll.QCurves_GetForwardRate($C$32,H17,H18,"Linear","Act365F")</f>
-        <v>8.5334097121602906E-2</v>
+        <v>8.1577207989190395E-2</v>
       </c>
       <c r="K17" s="1">
         <f ca="1">_xll.QCurves_GetDF($C$33,valDate,H17)</f>
-        <v>0.78490157286767481</v>
+        <v>0.82992395098678051</v>
       </c>
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.25">
@@ -2455,23 +2466,23 @@
       </c>
       <c r="F18" t="str">
         <f ca="1">_xll.QIns_CreateIRBasisSwap("OIS_"&amp;B18,valDate,B18,oisIndex,index,E18,TRUE,1,"ZAR.OIS.1B","ZAR.JIBAR.3M","ZAR.OIS.1B","ZAR.OIS.1B")</f>
-        <v>OIS_3m¬0</v>
+        <v>OIS_3m¬1</v>
       </c>
       <c r="H18" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>44631</v>
+        <v>45208</v>
       </c>
       <c r="I18" s="1">
         <f ca="1">_xll.QCurves_GetDF($C$32,valDate,H18)</f>
-        <v>0.7581484066357258</v>
+        <v>0.80488166527260585</v>
       </c>
       <c r="J18" s="1">
         <f ca="1">_xll.QCurves_GetForwardRate($C$32,H18,H19,"Linear","Act365F")</f>
-        <v>8.6185728618481366E-2</v>
+        <v>8.4548149616066187E-2</v>
       </c>
       <c r="K18" s="1">
         <f ca="1">_xll.QCurves_GetDF($C$33,valDate,H18)</f>
-        <v>0.76939035534761735</v>
+        <v>0.81378124182284473</v>
       </c>
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.25">
@@ -2483,23 +2494,23 @@
       </c>
       <c r="F19" t="str">
         <f ca="1">_xll.QIns_CreateIRBasisSwap("OIS_"&amp;B19,valDate,B19,oisIndex,index,E19,TRUE,1,"ZAR.OIS.1B","ZAR.JIBAR.3M","ZAR.OIS.1B","ZAR.OIS.1B")</f>
-        <v>OIS_6m¬0</v>
+        <v>OIS_6m¬1</v>
       </c>
       <c r="H19" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>44723</v>
+        <v>45300</v>
       </c>
       <c r="I19" s="1">
         <f ca="1">_xll.QCurves_GetDF($C$32,valDate,H19)</f>
-        <v>0.74202892196935799</v>
+        <v>0.78808692876880038</v>
       </c>
       <c r="J19" s="1">
         <f ca="1">_xll.QCurves_GetForwardRate($C$32,H19,H20,"Linear","Act365F")</f>
-        <v>8.702685948779712E-2</v>
+        <v>8.7494694879952345E-2</v>
       </c>
       <c r="K19" s="1">
         <f ca="1">_xll.QCurves_GetDF($C$33,valDate,H19)</f>
-        <v>0.75367594163225826</v>
+        <v>0.79735746824190035</v>
       </c>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.25">
@@ -2511,23 +2522,23 @@
       </c>
       <c r="F20" t="str">
         <f ca="1">_xll.QIns_CreateIRBasisSwap("OIS_"&amp;B20,valDate,B20,oisIndex,index,E20,TRUE,1,"ZAR.OIS.1B","ZAR.JIBAR.3M","ZAR.OIS.1B","ZAR.OIS.1B")</f>
-        <v>OIS_9m¬0</v>
+        <v>OIS_9m¬1</v>
       </c>
       <c r="H20" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>44815</v>
+        <v>45391</v>
       </c>
       <c r="I20" s="1">
         <f ca="1">_xll.QCurves_GetDF($C$32,valDate,H20)</f>
-        <v>0.72610149561158499</v>
+        <v>0.77126279810975573</v>
       </c>
       <c r="J20" s="1">
         <f ca="1">_xll.QCurves_GetForwardRate($C$32,H20,H21,"Linear","Act365F")</f>
-        <v>8.7880030400768583E-2</v>
+        <v>9.4941632972784462E-2</v>
       </c>
       <c r="K20" s="1">
         <f ca="1">_xll.QCurves_GetDF($C$33,valDate,H20)</f>
-        <v>0.73810893892134133</v>
+        <v>0.78086504341135521</v>
       </c>
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.25">
@@ -2539,23 +2550,23 @@
       </c>
       <c r="F21" t="str">
         <f ca="1">_xll.QIns_CreateIRBasisSwap("OIS_"&amp;B21,valDate,B21,oisIndex,index,E21,TRUE,1,"ZAR.OIS.1B","ZAR.JIBAR.3M","ZAR.OIS.1B","ZAR.OIS.1B")</f>
-        <v>OIS_1y¬0</v>
+        <v>OIS_1y¬1</v>
       </c>
       <c r="H21" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>44906</v>
+        <v>45482</v>
       </c>
       <c r="I21" s="1">
         <f ca="1">_xll.QCurves_GetDF($C$32,valDate,H21)</f>
-        <v>0.71053383027169559</v>
+        <v>0.75342885110644131</v>
       </c>
       <c r="J21" s="1">
         <f ca="1">_xll.QCurves_GetForwardRate($C$32,H21,H22,"Linear","Act365F")</f>
-        <v>8.8700353527939077E-2</v>
+        <v>9.8450448476763722E-2</v>
       </c>
       <c r="K21" s="1">
         <f ca="1">_xll.QCurves_GetDF($C$33,valDate,H21)</f>
-        <v>0.72286027472739678</v>
+        <v>0.76415580420091456</v>
       </c>
     </row>
     <row r="22" spans="2:11" x14ac:dyDescent="0.25">
@@ -2567,23 +2578,23 @@
       </c>
       <c r="F22" t="str">
         <f ca="1">_xll.QIns_CreateIRBasisSwap("OIS_"&amp;B22,valDate,B22,oisIndex,index,E22,TRUE,1,"ZAR.OIS.1B","ZAR.JIBAR.3M","ZAR.OIS.1B","ZAR.OIS.1B")</f>
-        <v>OIS_18m¬0</v>
+        <v>OIS_18m¬1</v>
       </c>
       <c r="H22" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>44996</v>
+        <v>45574</v>
       </c>
       <c r="I22" s="1">
         <f ca="1">_xll.QCurves_GetDF($C$32,valDate,H22)</f>
-        <v>0.69532612994592147</v>
+        <v>0.73518529594711146</v>
       </c>
       <c r="J22" s="1">
         <f ca="1">_xll.QCurves_GetForwardRate($C$32,H22,H23,"Linear","Act365F")</f>
-        <v>8.955746058083941E-2</v>
+        <v>0.10196915259017414</v>
       </c>
       <c r="K22" s="1">
         <f ca="1">_xll.QCurves_GetDF($C$33,valDate,H22)</f>
-        <v>0.70792887397166893</v>
+        <v>0.74707188897943855</v>
       </c>
     </row>
     <row r="23" spans="2:11" x14ac:dyDescent="0.25">
@@ -2595,23 +2606,23 @@
       </c>
       <c r="F23" t="str">
         <f ca="1">_xll.QIns_CreateIRBasisSwap("OIS_"&amp;B23,valDate,B23,oisIndex,index,E23,TRUE,1,"ZAR.OIS.1B","ZAR.JIBAR.3M","ZAR.OIS.1B","ZAR.OIS.1B")</f>
-        <v>OIS_2y¬0</v>
+        <v>OIS_2y¬1</v>
       </c>
       <c r="H23" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>45088</v>
+        <v>45666</v>
       </c>
       <c r="I23" s="1">
         <f ca="1">_xll.QCurves_GetDF($C$32,valDate,H23)</f>
-        <v>0.67997675136569813</v>
+        <v>0.71676318209954837</v>
       </c>
       <c r="J23" s="1">
         <f ca="1">_xll.QCurves_GetForwardRate($C$32,H23,H24,"Linear","Act365F")</f>
-        <v>9.0402522752556377E-2</v>
+        <v>0.10542241134319731</v>
       </c>
       <c r="K23" s="1">
         <f ca="1">_xll.QCurves_GetDF($C$33,valDate,H23)</f>
-        <v>0.69282326581725506</v>
+        <v>0.72982525635703765</v>
       </c>
     </row>
     <row r="24" spans="2:11" x14ac:dyDescent="0.25">
@@ -2623,23 +2634,23 @@
       </c>
       <c r="F24" t="str">
         <f ca="1">_xll.QIns_CreateIRBasisSwap("OIS_"&amp;B24,valDate,B24,oisIndex,index,E24,TRUE,1,"ZAR.OIS.1B","ZAR.JIBAR.3M","ZAR.OIS.1B","ZAR.OIS.1B")</f>
-        <v>OIS_5y¬0</v>
+        <v>OIS_5y¬1</v>
       </c>
       <c r="H24" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>45180</v>
+        <v>45756</v>
       </c>
       <c r="I24" s="1">
         <f ca="1">_xll.QCurves_GetDF($C$32,valDate,H24)</f>
-        <v>0.66482772794168821</v>
+        <v>0.69860329189583359</v>
       </c>
       <c r="J24" s="1">
         <f ca="1">_xll.QCurves_GetForwardRate($C$32,H24,H25,"Linear","Act365F")</f>
-        <v>9.0136764411830356E-2</v>
+        <v>0.10491977430031936</v>
       </c>
       <c r="K24" s="1">
         <f ca="1">_xll.QCurves_GetDF($C$33,valDate,H24)</f>
-        <v>0.67788059048674476</v>
+        <v>0.7128241353515089</v>
       </c>
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.25">
@@ -2651,77 +2662,77 @@
       </c>
       <c r="F25" t="str">
         <f ca="1">_xll.QIns_CreateIRBasisSwap("OIS_"&amp;B25,valDate,B25,oisIndex,index,E25,TRUE,1,"ZAR.OIS.1B","ZAR.JIBAR.3M","ZAR.OIS.1B","ZAR.OIS.1B")</f>
-        <v>OIS_10y¬0</v>
+        <v>OIS_10y¬1</v>
       </c>
       <c r="H25" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>45271</v>
+        <v>45847</v>
       </c>
       <c r="I25" s="1">
         <f ca="1">_xll.QCurves_GetDF($C$32,valDate,H25)</f>
-        <v>0.65021578391222823</v>
+        <v>0.68079500130077886</v>
       </c>
       <c r="J25" s="1">
         <f ca="1">_xll.QCurves_GetForwardRate($C$32,H25,H26,"Linear","Act365F")</f>
-        <v>9.0868583347310045E-2</v>
+        <v>0.1080593266864182</v>
       </c>
       <c r="K25" s="1">
         <f ca="1">_xll.QCurves_GetDF($C$33,valDate,H25)</f>
-        <v>0.66385703815433872</v>
+        <v>0.69644975390208053</v>
       </c>
     </row>
     <row r="26" spans="2:11" x14ac:dyDescent="0.25">
       <c r="H26" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>45362</v>
+        <v>45939</v>
       </c>
       <c r="I26" s="1">
         <f ca="1">_xll.QCurves_GetDF($C$32,valDate,H26)</f>
-        <v>0.63581153271741697</v>
+        <v>0.66274393011570798</v>
       </c>
       <c r="J26" s="1">
         <f ca="1">_xll.QCurves_GetForwardRate($C$32,H26,H27,"Linear","Act365F")</f>
-        <v>9.1615964415175832E-2</v>
+        <v>0.11120341922427235</v>
       </c>
       <c r="K26" s="1">
         <f ca="1">_xll.QCurves_GetDF($C$33,valDate,H26)</f>
-        <v>0.6500292288278654</v>
+        <v>0.67985976179011709</v>
       </c>
     </row>
     <row r="27" spans="2:11" x14ac:dyDescent="0.25">
       <c r="H27" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>45454</v>
+        <v>46031</v>
       </c>
       <c r="I27" s="1">
         <f ca="1">_xll.QCurves_GetDF($C$32,valDate,H27)</f>
-        <v>0.62146061317004953</v>
+        <v>0.64467413007574426</v>
       </c>
       <c r="J27" s="1">
         <f ca="1">_xll.QCurves_GetForwardRate($C$32,H27,H28,"Linear","Act365F")</f>
-        <v>9.2356275256131104E-2</v>
+        <v>0.11428026635733614</v>
       </c>
       <c r="K27" s="1">
         <f ca="1">_xll.QCurves_GetDF($C$33,valDate,H27)</f>
-        <v>0.63624833980417228</v>
+        <v>0.66325493574990402</v>
       </c>
     </row>
     <row r="28" spans="2:11" x14ac:dyDescent="0.25">
       <c r="H28" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>45546</v>
+        <v>46121</v>
       </c>
       <c r="I28" s="1">
         <f ca="1">_xll.QCurves_GetDF($C$32,valDate,H28)</f>
-        <v>0.60732284072844955</v>
+        <v>0.62700592095547669</v>
       </c>
       <c r="J28" s="1">
         <f ca="1">_xll.QCurves_GetForwardRate($C$32,H28,H29,"Linear","Act365F")</f>
-        <v>9.3080917788305087E-2</v>
+        <v>0.11739458242899767</v>
       </c>
       <c r="K28" s="1">
         <f ca="1">_xll.QCurves_GetDF($C$33,valDate,H28)</f>
-        <v>0.62266721870191188</v>
+        <v>0.64701654978952006</v>
       </c>
     </row>
     <row r="29" spans="2:11" x14ac:dyDescent="0.25">
@@ -2730,41 +2741,41 @@
       </c>
       <c r="C29" t="str">
         <f ca="1">_xll.QIns_CreateFundingInstrumentCollection("FundingInstrumentsOis",F6:F25)</f>
-        <v>FundingInstrumentsOis¬0</v>
+        <v>FundingInstrumentsOis¬1</v>
       </c>
       <c r="H29" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>45637</v>
+        <v>46212</v>
       </c>
       <c r="I29" s="1">
         <f ca="1">_xll.QCurves_GetDF($C$32,valDate,H29)</f>
-        <v>0.59354866816564278</v>
+        <v>0.60917640085263758</v>
       </c>
       <c r="J29" s="1">
         <f ca="1">_xll.QCurves_GetForwardRate($C$32,H29,H30,"Linear","Act365F")</f>
-        <v>9.3797276742446756E-2</v>
+        <v>0.12054745722348974</v>
       </c>
       <c r="K29" s="1">
         <f ca="1">_xll.QCurves_GetDF($C$33,valDate,H29)</f>
-        <v>0.60942996944214067</v>
+        <v>0.63062259340956817</v>
       </c>
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.25">
       <c r="H30" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>45727</v>
+        <v>46304</v>
       </c>
       <c r="I30" s="1">
         <f ca="1">_xll.QCurves_GetDF($C$32,valDate,H30)</f>
-        <v>0.58013133516501425</v>
+        <v>0.59121266156826624</v>
       </c>
       <c r="J30" s="1">
         <f ca="1">_xll.QCurves_GetForwardRate($C$32,H30,H31,"Linear","Act365F")</f>
-        <v>9.4553862103882086E-2</v>
+        <v>0.12370118399362676</v>
       </c>
       <c r="K30" s="1">
         <f ca="1">_xll.QCurves_GetDF($C$33,valDate,H30)</f>
-        <v>0.59652981641541047</v>
+        <v>0.61409313718099956</v>
       </c>
     </row>
     <row r="31" spans="2:11" x14ac:dyDescent="0.25">
@@ -2773,23 +2784,23 @@
       </c>
       <c r="C31" t="str">
         <f ca="1">_xll.QCurves_CreateFundingModel("ModelOis",valDate,C29)</f>
-        <v>ModelOis¬0</v>
+        <v>ModelOis¬1</v>
       </c>
       <c r="H31" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>45819</v>
+        <v>46396</v>
       </c>
       <c r="I31" s="1">
         <f ca="1">_xll.QCurves_GetDF($C$32,valDate,H31)</f>
-        <v>0.56662705186735196</v>
+        <v>0.5733363347835676</v>
       </c>
       <c r="J31" s="1">
         <f ca="1">_xll.QCurves_GetForwardRate($C$32,H31,H32,"Linear","Act365F")</f>
-        <v>9.5294708779677398E-2</v>
+        <v>0.12677943077668374</v>
       </c>
       <c r="K31" s="1">
         <f ca="1">_xll.QCurves_GetDF($C$33,valDate,H31)</f>
-        <v>0.58353953778685475</v>
+        <v>0.59762748966727686</v>
       </c>
     </row>
     <row r="32" spans="2:11" x14ac:dyDescent="0.25">
@@ -2798,23 +2809,23 @@
       </c>
       <c r="C32" t="str">
         <f ca="1">_xll.QCurves_ExtractCurveFromModel(C31,"ZAR.JIBAR.3M","curve.ois.ZAR.JIBAR.3M")</f>
-        <v>curve.ois.ZAR.JIBAR.3M¬0</v>
+        <v>curve.ois.ZAR.JIBAR.3M¬1</v>
       </c>
       <c r="H32" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>45911</v>
+        <v>46486</v>
       </c>
       <c r="I32" s="1">
         <f ca="1">_xll.QCurves_GetDF($C$32,valDate,H32)</f>
-        <v>0.55333619952978252</v>
+        <v>0.55595674792479355</v>
       </c>
       <c r="J32" s="1">
         <f ca="1">_xll.QCurves_GetForwardRate($C$32,H32,H33,"Linear","Act365F")</f>
-        <v>9.2503777726692216E-2</v>
+        <v>0.11324381779953492</v>
       </c>
       <c r="K32" s="1">
         <f ca="1">_xll.QCurves_GetDF($C$33,valDate,H32)</f>
-        <v>0.57074745213305456</v>
+        <v>0.58159917600275446</v>
       </c>
     </row>
     <row r="33" spans="2:11" x14ac:dyDescent="0.25">
@@ -2823,89 +2834,89 @@
       </c>
       <c r="C33" t="str">
         <f ca="1">_xll.QCurves_ExtractCurveFromModel(C31,"ZAR.OIS.1B","curve.ois.ZAR.OIS.1B")</f>
-        <v>curve.ois.ZAR.OIS.1B¬0</v>
+        <v>curve.ois.ZAR.OIS.1B¬1</v>
       </c>
       <c r="H33" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>46002</v>
+        <v>46577</v>
       </c>
       <c r="I33" s="1">
         <f ca="1">_xll.QCurves_GetDF($C$32,valDate,H33)</f>
-        <v>0.54086251151692866</v>
+        <v>0.54069120223907363</v>
       </c>
       <c r="J33" s="1">
         <f ca="1">_xll.QCurves_GetForwardRate($C$32,H33,H34,"Linear","Act365F")</f>
-        <v>9.2980021614007174E-2</v>
+        <v>0.11524144192979881</v>
       </c>
       <c r="K33" s="1">
         <f ca="1">_xll.QCurves_GetDF($C$33,valDate,H33)</f>
-        <v>0.55828880543211756</v>
+        <v>0.56548965287335351</v>
       </c>
     </row>
     <row r="34" spans="2:11" x14ac:dyDescent="0.25">
       <c r="H34" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>46092</v>
+        <v>46669</v>
       </c>
       <c r="I34" s="1">
         <f ca="1">_xll.QCurves_GetDF($C$32,valDate,H34)</f>
-        <v>0.52874030427642538</v>
+        <v>0.52542898355393741</v>
       </c>
       <c r="J34" s="1">
         <f ca="1">_xll.QCurves_GetForwardRate($C$32,H34,H35,"Linear","Act365F")</f>
-        <v>9.3494409144794455E-2</v>
+        <v>0.11723344966439958</v>
       </c>
       <c r="K34" s="1">
         <f ca="1">_xll.QCurves_GetDF($C$33,valDate,H34)</f>
-        <v>0.54615659222558233</v>
+        <v>0.54931891008299771</v>
       </c>
     </row>
     <row r="35" spans="2:11" x14ac:dyDescent="0.25">
       <c r="H35" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>46184</v>
+        <v>46761</v>
       </c>
       <c r="I35" s="1">
         <f ca="1">_xll.QCurves_GetDF($C$32,valDate,H35)</f>
-        <v>0.51656703326436171</v>
+        <v>0.51034856466474054</v>
       </c>
       <c r="J35" s="1">
         <f ca="1">_xll.QCurves_GetForwardRate($C$32,H35,H36,"Linear","Act365F")</f>
-        <v>9.3990740550498067E-2</v>
+        <v>0.11919632052293011</v>
       </c>
       <c r="K35" s="1">
         <f ca="1">_xll.QCurves_GetDF($C$33,valDate,H35)</f>
-        <v>0.5339488622715578</v>
+        <v>0.53328091430168234</v>
       </c>
     </row>
     <row r="36" spans="2:11" x14ac:dyDescent="0.25">
       <c r="H36" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>46276</v>
+        <v>46852</v>
       </c>
       <c r="I36" s="1">
         <f ca="1">_xll.QCurves_GetDF($C$32,valDate,H36)</f>
-        <v>0.50461235442259156</v>
+        <v>0.49562000741863577</v>
       </c>
       <c r="J36" s="1">
         <f ca="1">_xll.QCurves_GetForwardRate($C$32,H36,H37,"Linear","Act365F")</f>
-        <v>9.4472302459834262E-2</v>
+        <v>0.12116794901357843</v>
       </c>
       <c r="K36" s="1">
         <f ca="1">_xll.QCurves_GetDF($C$33,valDate,H36)</f>
-        <v>0.52193655432800024</v>
+        <v>0.51756317891717318</v>
       </c>
     </row>
     <row r="37" spans="2:11" x14ac:dyDescent="0.25">
       <c r="H37" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>46367</v>
+        <v>46943</v>
       </c>
     </row>
     <row r="43" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B43" t="str">
         <f ca="1">C31</f>
-        <v>ModelOis¬0</v>
+        <v>ModelOis¬1</v>
       </c>
     </row>
   </sheetData>
@@ -2914,11 +2925,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B1:Y38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K32" sqref="A32:K32"/>
+      <selection activeCell="J36" sqref="J36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2939,7 +2950,7 @@
       </c>
       <c r="C1" s="2">
         <f ca="1">TODAY()</f>
-        <v>43354</v>
+        <v>43930</v>
       </c>
     </row>
     <row r="2" spans="2:25" x14ac:dyDescent="0.25">
@@ -2947,15 +2958,15 @@
         <v>25</v>
       </c>
       <c r="C2" t="str">
-        <f>_xll.QIns_CreateRateIndex("ZAR.JIBAR.3M","ZAR","3M","Act365F","Act365F","3M","JHB","0b","MF")</f>
-        <v>ZAR.JIBAR.3M¬0</v>
+        <f ca="1">_xll.QIns_CreateRateIndex("ZAR.JIBAR.3M","ZAR","3M","Act365F","Act365F","3M","JHB","0b","MF")</f>
+        <v>ZAR.JIBAR.3M¬6</v>
       </c>
       <c r="I2" t="s">
         <v>25</v>
       </c>
       <c r="J2" t="str">
-        <f>_xll.QIns_CreateRateIndex("USD.LIBOR.3M","USD","3M","Act360","Act360","6M","NYC","2b","MF")</f>
-        <v>USD.LIBOR.3M¬0</v>
+        <f ca="1">_xll.QIns_CreateRateIndex("USD.LIBOR.3M","USD","3M","Act360","Act360","6M","NYC","2b","MF")</f>
+        <v>USD.LIBOR.3M¬3</v>
       </c>
       <c r="V2" s="3"/>
     </row>
@@ -2964,15 +2975,15 @@
         <v>31</v>
       </c>
       <c r="C3" t="str">
-        <f>_xll.QIns_CreateRateIndex("ZAR.OIS.1B","ZAR","3M","Act365F","Act365F","3M","JHB","0b","MF")</f>
-        <v>ZAR.OIS.1B¬0</v>
+        <f ca="1">_xll.QIns_CreateRateIndex("ZAR.OIS.1B","ZAR","3M","Act365F","Act365F","3M","JHB","0b","MF")</f>
+        <v>ZAR.OIS.1B¬5</v>
       </c>
       <c r="I3" t="s">
         <v>31</v>
       </c>
       <c r="J3" t="str">
-        <f>_xll.QIns_CreateRateIndex("USD.OIS.1B","USD","3M","Act360","Act360","3M","NYC","0b","MF")</f>
-        <v>USD.OIS.1B¬0</v>
+        <f ca="1">_xll.QIns_CreateRateIndex("USD.OIS.1B","USD","3M","Act360","Act360","3M","NYC","0b","MF")</f>
+        <v>USD.OIS.1B¬3</v>
       </c>
       <c r="V3" t="s">
         <v>36</v>
@@ -2990,7 +3001,7 @@
     <row r="4" spans="2:25" x14ac:dyDescent="0.25">
       <c r="U4" s="2">
         <f ca="1">valDate</f>
-        <v>43354</v>
+        <v>43930</v>
       </c>
       <c r="V4" s="1">
         <f ca="1">_xll.QCurves_GetDF($D$33,valDate,U4)</f>
@@ -2998,7 +3009,7 @@
       </c>
       <c r="W4" s="1">
         <f ca="1">_xll.QCurves_GetForwardRate($D$33,U4,U5,"Linear","Act365F")</f>
-        <v>7.0250000000000784E-2</v>
+        <v>5.6000000000000202E-2</v>
       </c>
       <c r="X4" s="1">
         <f ca="1">_xll.QCurves_GetDF($D$34,valDate,U4)</f>
@@ -3014,32 +3025,32 @@
         <v>63</v>
       </c>
       <c r="Q5">
-        <f>_xll.BDP("ZAR Curncy","PX_LAST")</f>
-        <v>15.1022</v>
+        <f ca="1">_xll.BDP("ZAR Curncy","PX_LAST")</f>
+        <v>18.044499999999999</v>
       </c>
       <c r="R5" s="2">
         <f ca="1">_xll.QDates_AddPeriod(valDate,"2b","F","JHB+NYC")</f>
-        <v>43356</v>
+        <v>43936</v>
       </c>
       <c r="U5" s="2">
         <f ca="1">EDATE(U4,3)</f>
-        <v>43445</v>
+        <v>44021</v>
       </c>
       <c r="V5" s="1">
         <f ca="1">_xll.QCurves_GetDF($D$33,valDate,U5)</f>
-        <v>0.9827870899472323</v>
+        <v>0.98623059962820459</v>
       </c>
       <c r="W5" s="1">
         <f ca="1">_xll.QCurves_GetForwardRate($D$33,U5,U6,"Linear","Act365F")</f>
-        <v>7.2799999999999629E-2</v>
+        <v>4.8250000000000098E-2</v>
       </c>
       <c r="X5" s="1">
         <f ca="1">_xll.QCurves_GetDF($D$34,valDate,U5)</f>
-        <v>0.98375125916792172</v>
+        <v>0.9872015405753356</v>
       </c>
       <c r="Y5" s="1">
         <f ca="1">_xll.QCurves_GetDF($D$35,valDate,U5)</f>
-        <v>0.99413414599013195</v>
+        <v>0.99669607488388912</v>
       </c>
     </row>
     <row r="6" spans="2:25" x14ac:dyDescent="0.25">
@@ -3050,16 +3061,16 @@
         <v>1</v>
       </c>
       <c r="D6">
-        <f>_xll.BDP(C6,"PX_LAST")</f>
-        <v>7.0250000000000004</v>
+        <f ca="1">_xll.BDP(C6,"PX_LAST")</f>
+        <v>5.6</v>
       </c>
       <c r="E6" s="1">
-        <f>D6/100</f>
-        <v>7.0250000000000007E-2</v>
+        <f ca="1">D6/100</f>
+        <v>5.5999999999999994E-2</v>
       </c>
       <c r="F6" t="str">
         <f ca="1">_xll.QIns_CreateFRA("ZAROISFra_"&amp;B6,valDate,"0x3",index,"ZAR",E6,1,"ZAR.JIBAR.3M","ZAR.OIS.1B",,,"ZAR.JIBAR.3M")</f>
-        <v>ZAROISFra_3m¬0</v>
+        <v>ZAROISFra_3m¬3</v>
       </c>
       <c r="I6" t="s">
         <v>0</v>
@@ -3068,55 +3079,55 @@
         <v>38</v>
       </c>
       <c r="K6">
-        <f>_xll.BDP(J6,"PX_LAST")</f>
-        <v>2.3342499999999999</v>
+        <f ca="1">_xll.BDP(J6,"PX_LAST")</f>
+        <v>1.31138</v>
       </c>
       <c r="L6" s="1">
-        <f>K6/100</f>
-        <v>2.3342499999999999E-2</v>
+        <f ca="1">K6/100</f>
+        <v>1.31138E-2</v>
       </c>
       <c r="M6" t="str">
         <f ca="1">_xll.QIns_CreateFRA("USDOISFra_"&amp;I6,valDate,"0x3",J2,"USD",L6,1,"USD.LIBOR.3M","USD.OIS.1B",,,"USD.LIBOR.3M")</f>
-        <v>USDOISFra_3m¬0</v>
+        <v>USDOISFra_3m¬3</v>
       </c>
       <c r="O6" s="2">
         <f ca="1">_xll.QDates_AddPeriod($R$5,P6,"F","JHB+NYC")</f>
-        <v>43363</v>
+        <v>43943</v>
       </c>
       <c r="P6" t="s">
         <v>57</v>
       </c>
       <c r="Q6">
-        <f>_xll.BDP("ZAR"&amp;P6&amp;" Curncy","PX_LAST")</f>
-        <v>151</v>
+        <f ca="1">_xll.BDP("ZAR"&amp;P6&amp;" Curncy","PX_LAST")</f>
+        <v>152</v>
       </c>
       <c r="R6" s="5">
-        <f>$Q$5+Q6/10000</f>
-        <v>15.1173</v>
+        <f ca="1">$Q$5+Q6/10000</f>
+        <v>18.059699999999999</v>
       </c>
       <c r="S6" s="5" t="str">
         <f ca="1">_xll.QIns_CreateFxForward("ZARFwd_"&amp;P6,O6,"ZAR","USD",1000000,R6,"ZAR.DISC.[USD.OIS.1B]","ZAR.DISC.[USD.OIS.1B]")</f>
-        <v>ZARFwd_1w¬0</v>
+        <v>ZARFwd_1w¬3</v>
       </c>
       <c r="U6" s="2">
         <f t="shared" ref="U6:U37" ca="1" si="0">EDATE(U5,3)</f>
-        <v>43535</v>
+        <v>44113</v>
       </c>
       <c r="V6" s="1">
         <f ca="1">_xll.QCurves_GetDF($D$33,valDate,U6)</f>
-        <v>0.96545648477397461</v>
+        <v>0.9743805306540313</v>
       </c>
       <c r="W6" s="1">
         <f ca="1">_xll.QCurves_GetForwardRate($D$33,U6,U7,"Linear","Act365F")</f>
-        <v>7.4699999999999475E-2</v>
+        <v>4.7874497519312831E-2</v>
       </c>
       <c r="X6" s="1">
         <f ca="1">_xll.QCurves_GetDF($D$34,valDate,U6)</f>
-        <v>0.96734091682011292</v>
+        <v>0.97631231473076319</v>
       </c>
       <c r="Y6" s="1">
         <f ca="1">_xll.QCurves_GetDF($D$35,valDate,U6)</f>
-        <v>0.9876325221228397</v>
+        <v>0.99397688519022931</v>
       </c>
     </row>
     <row r="7" spans="2:25" x14ac:dyDescent="0.25">
@@ -3127,74 +3138,74 @@
         <v>3</v>
       </c>
       <c r="D7">
-        <f>_xll.BDP(C7,"PX_LAST")</f>
-        <v>7.28</v>
+        <f ca="1">_xll.BDP(C7,"PX_LAST")</f>
+        <v>4.8250000000000002</v>
       </c>
       <c r="E7" s="1">
-        <f t="shared" ref="E7:E17" si="1">D7/100</f>
-        <v>7.2800000000000004E-2</v>
+        <f t="shared" ref="E7:E17" ca="1" si="1">D7/100</f>
+        <v>4.8250000000000001E-2</v>
       </c>
       <c r="F7" t="str">
         <f ca="1">_xll.QIns_CreateFRA("ZAROISFra_"&amp;B7,valDate,B7,index,"ZAR",E7,1,"ZAR.JIBAR.3M","ZAR.OIS.1B",,,"ZAR.JIBAR.3M")</f>
-        <v>ZAROISFra_3x6¬0</v>
+        <v>ZAROISFra_3x6¬3</v>
       </c>
       <c r="I7" t="s">
         <v>39</v>
       </c>
       <c r="J7" t="str">
-        <f>I7&amp;" Comdty"</f>
+        <f ca="1">I7&amp;" Comdty"</f>
         <v>EDU8 Comdty</v>
       </c>
       <c r="K7">
-        <f>_xll.BDP(J7,"PX_LAST")</f>
-        <v>97.647500000000008</v>
+        <f ca="1">_xll.BDP(J7,"PX_LAST")</f>
+        <v>98.655000000000001</v>
       </c>
       <c r="L7" s="4">
-        <f>K7</f>
-        <v>97.647500000000008</v>
+        <f ca="1">K7</f>
+        <v>98.655000000000001</v>
       </c>
       <c r="M7" t="str">
         <f ca="1">_xll.QIns_CreateSTIRFromCode(I7,valDate,I7,$J$2,L7,1,0,"USD.LIBOR.3M","USD.LIBOR.3M")</f>
-        <v>EDU8¬0</v>
+        <v>EDU8¬3</v>
       </c>
       <c r="O7" s="2">
         <f ca="1">_xll.QDates_AddPeriod($R$5,P7,"MF","JHB+NYC")</f>
-        <v>43388</v>
+        <v>43966</v>
       </c>
       <c r="P7" t="s">
         <v>58</v>
       </c>
       <c r="Q7">
-        <f>_xll.BDP("ZAR"&amp;P7&amp;" Curncy","PX_LAST")</f>
-        <v>667</v>
+        <f ca="1">_xll.BDP("ZAR"&amp;P7&amp;" Curncy","PX_LAST")</f>
+        <v>670</v>
       </c>
       <c r="R7" s="5">
-        <f t="shared" ref="R7:R18" si="2">$Q$5+Q7/10000</f>
-        <v>15.168900000000001</v>
+        <f t="shared" ref="R7:R18" ca="1" si="2">$Q$5+Q7/10000</f>
+        <v>18.111499999999999</v>
       </c>
       <c r="S7" s="5" t="str">
         <f ca="1">_xll.QIns_CreateFxForward("ZARFwd_"&amp;P7,O7,"ZAR","USD",1000000,R7,"ZAR.DISC.[USD.OIS.1B]","ZAR.DISC.[USD.OIS.1B]")</f>
-        <v>ZARFwd_1m¬0</v>
+        <v>ZARFwd_1m¬3</v>
       </c>
       <c r="U7" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>43627</v>
+        <v>44205</v>
       </c>
       <c r="V7" s="1">
         <f ca="1">_xll.QCurves_GetDF($D$33,valDate,U7)</f>
-        <v>0.94761433476240975</v>
+        <v>0.96276287428967033</v>
       </c>
       <c r="W7" s="1">
         <f ca="1">_xll.QCurves_GetForwardRate($D$33,U7,U8,"Linear","Act365F")</f>
-        <v>7.7500000000000249E-2</v>
+        <v>4.8952714816993363E-2</v>
       </c>
       <c r="X7" s="1">
         <f ca="1">_xll.QCurves_GetDF($D$34,valDate,U7)</f>
-        <v>0.9504044491514535</v>
+        <v>0.9656327019227805</v>
       </c>
       <c r="Y7" s="1">
         <f ca="1">_xll.QCurves_GetDF($D$35,valDate,U7)</f>
-        <v>0.98057323743836877</v>
+        <v>0.99187709636447929</v>
       </c>
     </row>
     <row r="8" spans="2:25" x14ac:dyDescent="0.25">
@@ -3205,74 +3216,74 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <f>_xll.BDP(C8,"PX_LAST")</f>
-        <v>7.47</v>
+        <f ca="1">_xll.BDP(C8,"PX_LAST")</f>
+        <v>4.7850000000000001</v>
       </c>
       <c r="E8" s="1">
-        <f t="shared" si="1"/>
-        <v>7.4700000000000003E-2</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>4.7850000000000004E-2</v>
       </c>
       <c r="F8" t="str">
         <f ca="1">_xll.QIns_CreateFRA("ZAROISFra_"&amp;B8,valDate,B8,index,"ZAR",E8,1,"ZAR.JIBAR.3M","ZAR.OIS.1B",,,"ZAR.JIBAR.3M")</f>
-        <v>ZAROISFra_6x9¬0</v>
+        <v>ZAROISFra_6x9¬3</v>
       </c>
       <c r="I8" t="s">
         <v>40</v>
       </c>
       <c r="J8" t="str">
-        <f t="shared" ref="J8:J11" si="3">I8&amp;" Comdty"</f>
+        <f t="shared" ref="J8:J11" ca="1" si="3">I8&amp;" Comdty"</f>
         <v>EDZ8 Comdty</v>
       </c>
       <c r="K8">
-        <f>_xll.BDP(J8,"PX_LAST")</f>
-        <v>97.335000000000008</v>
+        <f ca="1">_xll.BDP(J8,"PX_LAST")</f>
+        <v>98.614999999999995</v>
       </c>
       <c r="L8" s="4">
-        <f t="shared" ref="L8:L11" si="4">K8</f>
-        <v>97.335000000000008</v>
+        <f t="shared" ref="L8:L11" ca="1" si="4">K8</f>
+        <v>98.614999999999995</v>
       </c>
       <c r="M8" t="str">
         <f ca="1">_xll.QIns_CreateSTIRFromCode(I8,valDate,I8,$J$2,L8,1,0,"USD.LIBOR.3M","USD.LIBOR.3M")</f>
-        <v>EDZ8¬0</v>
+        <v>EDZ8¬3</v>
       </c>
       <c r="O8" s="2">
         <f ca="1">_xll.QDates_AddPeriod($R$5,P8,"MF","JHB+NYC")</f>
-        <v>43417</v>
+        <v>43997</v>
       </c>
       <c r="P8" t="s">
         <v>59</v>
       </c>
       <c r="Q8">
-        <f>_xll.BDP("ZAR"&amp;P8&amp;" Curncy","PX_LAST")</f>
-        <v>1276</v>
+        <f ca="1">_xll.BDP("ZAR"&amp;P8&amp;" Curncy","PX_LAST")</f>
+        <v>1305</v>
       </c>
       <c r="R8" s="5">
-        <f t="shared" si="2"/>
-        <v>15.229799999999999</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>18.175000000000001</v>
       </c>
       <c r="S8" s="5" t="str">
         <f ca="1">_xll.QIns_CreateFxForward("ZARFwd_"&amp;P8,O8,"ZAR","USD",1000000,R8,"ZAR.DISC.[USD.OIS.1B]","ZAR.DISC.[USD.OIS.1B]")</f>
-        <v>ZARFwd_2m¬0</v>
+        <v>ZARFwd_2m¬3</v>
       </c>
       <c r="U8" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>43719</v>
+        <v>44295</v>
       </c>
       <c r="V8" s="1">
         <f ca="1">_xll.QCurves_GetDF($D$33,valDate,U8)</f>
-        <v>0.92945807161013494</v>
+        <v>0.95128041322078005</v>
       </c>
       <c r="W8" s="1">
         <f ca="1">_xll.QCurves_GetForwardRate($D$33,U8,U9,"Linear","Act365F")</f>
-        <v>7.8500000000000139E-2</v>
+        <v>5.3699999999999568E-2</v>
       </c>
       <c r="X8" s="1">
         <f ca="1">_xll.QCurves_GetDF($D$34,valDate,U8)</f>
-        <v>0.93311748898564284</v>
+        <v>0.95508414419060306</v>
       </c>
       <c r="Y8" s="1">
         <f ca="1">_xll.QCurves_GetDF($D$35,valDate,U8)</f>
-        <v>0.97324658326694446</v>
+        <v>0.99041855357294528</v>
       </c>
     </row>
     <row r="9" spans="2:25" x14ac:dyDescent="0.25">
@@ -3283,74 +3294,74 @@
         <v>7</v>
       </c>
       <c r="D9">
-        <f>_xll.BDP(C9,"PX_LAST")</f>
-        <v>7.75</v>
+        <f ca="1">_xll.BDP(C9,"PX_LAST")</f>
+        <v>4.9000000000000004</v>
       </c>
       <c r="E9" s="1">
-        <f t="shared" si="1"/>
-        <v>7.7499999999999999E-2</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>4.9000000000000002E-2</v>
       </c>
       <c r="F9" t="str">
         <f ca="1">_xll.QIns_CreateFRA("ZAROISFra_"&amp;B9,valDate,B9,index,"ZAR",E9,1,"ZAR.JIBAR.3M","ZAR.OIS.1B",,,"ZAR.JIBAR.3M")</f>
-        <v>ZAROISFra_9x12¬0</v>
+        <v>ZAROISFra_9x12¬3</v>
       </c>
       <c r="I9" t="s">
         <v>42</v>
       </c>
       <c r="J9" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" ca="1" si="3"/>
         <v>EDH9 Comdty</v>
       </c>
       <c r="K9">
-        <f>_xll.BDP(J9,"PX_LAST")</f>
-        <v>97.17</v>
+        <f ca="1">_xll.BDP(J9,"PX_LAST")</f>
+        <v>98.614999999999995</v>
       </c>
       <c r="L9" s="4">
-        <f t="shared" si="4"/>
-        <v>97.17</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>98.614999999999995</v>
       </c>
       <c r="M9" t="str">
         <f ca="1">_xll.QIns_CreateSTIRFromCode(I9,valDate,I9,$J$2,L9,1,0,"USD.LIBOR.3M","USD.LIBOR.3M")</f>
-        <v>EDH9¬0</v>
+        <v>EDH9¬3</v>
       </c>
       <c r="O9" s="2">
         <f ca="1">_xll.QDates_AddPeriod($R$5,P9,"MF","JHB+NYC")</f>
-        <v>43447</v>
+        <v>44027</v>
       </c>
       <c r="P9" t="s">
         <v>0</v>
       </c>
       <c r="Q9">
-        <f>_xll.BDP("ZAR"&amp;P9&amp;" Curncy","PX_LAST")</f>
-        <v>1902</v>
+        <f ca="1">_xll.BDP("ZAR"&amp;P9&amp;" Curncy","PX_LAST")</f>
+        <v>1951</v>
       </c>
       <c r="R9" s="5">
-        <f t="shared" si="2"/>
-        <v>15.292400000000001</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>18.239599999999999</v>
       </c>
       <c r="S9" s="5" t="str">
         <f ca="1">_xll.QIns_CreateFxForward("ZARFwd_"&amp;P9,O9,"ZAR","USD",1000000,R9,"ZAR.DISC.[USD.OIS.1B]","ZAR.DISC.[USD.OIS.1B]")</f>
-        <v>ZARFwd_3m¬0</v>
+        <v>ZARFwd_3m¬3</v>
       </c>
       <c r="U9" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>43810</v>
+        <v>44386</v>
       </c>
       <c r="V9" s="1">
         <f ca="1">_xll.QCurves_GetDF($D$33,valDate,U9)</f>
-        <v>0.91161661062923127</v>
+        <v>0.93871272155929031</v>
       </c>
       <c r="W9" s="1">
         <f ca="1">_xll.QCurves_GetForwardRate($D$33,U9,U10,"Linear","Act365F")</f>
-        <v>7.9799999999999524E-2</v>
+        <v>5.6172312479854318E-2</v>
       </c>
       <c r="X9" s="1">
         <f ca="1">_xll.QCurves_GetDF($D$34,valDate,U9)</f>
-        <v>0.91615444467808482</v>
+        <v>0.94327489164363509</v>
       </c>
       <c r="Y9" s="1">
         <f ca="1">_xll.QCurves_GetDF($D$35,valDate,U9)</f>
-        <v>0.96587094753467573</v>
+        <v>0.98954004818296759</v>
       </c>
     </row>
     <row r="10" spans="2:25" x14ac:dyDescent="0.25">
@@ -3361,74 +3372,74 @@
         <v>9</v>
       </c>
       <c r="D10">
-        <f>_xll.BDP(C10,"PX_LAST")</f>
-        <v>7.85</v>
+        <f ca="1">_xll.BDP(C10,"PX_LAST")</f>
+        <v>5.37</v>
       </c>
       <c r="E10" s="1">
-        <f t="shared" si="1"/>
-        <v>7.85E-2</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>5.3699999999999998E-2</v>
       </c>
       <c r="F10" t="str">
         <f ca="1">_xll.QIns_CreateFRA("ZAROISFra_"&amp;B10,valDate,B10,index,"ZAR",E10,1,"ZAR.JIBAR.3M","ZAR.OIS.1B",,,"ZAR.JIBAR.3M")</f>
-        <v>ZAROISFra_12x15¬0</v>
+        <v>ZAROISFra_12x15¬3</v>
       </c>
       <c r="I10" t="s">
         <v>41</v>
       </c>
       <c r="J10" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" ca="1" si="3"/>
         <v>EDM9 Comdty</v>
       </c>
       <c r="K10">
-        <f>_xll.BDP(J10,"PX_LAST")</f>
-        <v>97.045000000000002</v>
+        <f ca="1">_xll.BDP(J10,"PX_LAST")</f>
+        <v>98.605000000000004</v>
       </c>
       <c r="L10" s="4">
-        <f t="shared" si="4"/>
-        <v>97.045000000000002</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>98.605000000000004</v>
       </c>
       <c r="M10" t="str">
         <f ca="1">_xll.QIns_CreateSTIRFromCode(I10,valDate,I10,$J$2,L10,1,0,"USD.LIBOR.3M","USD.LIBOR.3M")</f>
-        <v>EDM9¬0</v>
+        <v>EDM9¬3</v>
       </c>
       <c r="O10" s="2">
         <f ca="1">_xll.QDates_AddPeriod($R$5,P10,"MF","JHB+NYC")</f>
-        <v>43537</v>
+        <v>44119</v>
       </c>
       <c r="P10" t="s">
         <v>32</v>
       </c>
       <c r="Q10">
-        <f>_xll.BDP("ZAR"&amp;P10&amp;" Curncy","PX_LAST")</f>
-        <v>3731</v>
+        <f ca="1">_xll.BDP("ZAR"&amp;P10&amp;" Curncy","PX_LAST")</f>
+        <v>3837</v>
       </c>
       <c r="R10" s="5">
-        <f t="shared" si="2"/>
-        <v>15.475300000000001</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>18.4282</v>
       </c>
       <c r="S10" s="5" t="str">
         <f ca="1">_xll.QIns_CreateFxForward("ZARFwd_"&amp;P10,O10,"ZAR","USD",1000000,R10,"ZAR.DISC.[USD.OIS.1B]","ZAR.DISC.[USD.OIS.1B]")</f>
-        <v>ZARFwd_6m¬0</v>
+        <v>ZARFwd_6m¬3</v>
       </c>
       <c r="U10" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>43901</v>
+        <v>44478</v>
       </c>
       <c r="V10" s="1">
         <f ca="1">_xll.QCurves_GetDF($D$33,valDate,U10)</f>
-        <v>0.89383348729219447</v>
+        <v>0.92560750704156458</v>
       </c>
       <c r="W10" s="1">
         <f ca="1">_xll.QCurves_GetForwardRate($D$33,U10,U11,"Linear","Act365F")</f>
-        <v>7.9842637216428577E-2</v>
+        <v>6.0714308999312856E-2</v>
       </c>
       <c r="X10" s="1">
         <f ca="1">_xll.QCurves_GetDF($D$34,valDate,U10)</f>
-        <v>0.89910941775419073</v>
+        <v>0.9311124050637537</v>
       </c>
       <c r="Y10" s="1">
         <f ca="1">_xll.QCurves_GetDF($D$35,valDate,U10)</f>
-        <v>0.95838321150920625</v>
+        <v>0.98925973228493425</v>
       </c>
     </row>
     <row r="11" spans="2:25" x14ac:dyDescent="0.25">
@@ -3439,74 +3450,74 @@
         <v>11</v>
       </c>
       <c r="D11">
-        <f>_xll.BDP(C11,"PX_LAST")</f>
-        <v>7.98</v>
+        <f ca="1">_xll.BDP(C11,"PX_LAST")</f>
+        <v>5.62</v>
       </c>
       <c r="E11" s="1">
-        <f t="shared" si="1"/>
-        <v>7.980000000000001E-2</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>5.62E-2</v>
       </c>
       <c r="F11" t="str">
         <f ca="1">_xll.QIns_CreateFRA("ZAROISFra_"&amp;B11,valDate,B11,index,"ZAR",E11,1,"ZAR.JIBAR.3M","ZAR.OIS.1B",,,"ZAR.JIBAR.3M")</f>
-        <v>ZAROISFra_15x18¬0</v>
+        <v>ZAROISFra_15x18¬3</v>
       </c>
       <c r="I11" t="s">
         <v>43</v>
       </c>
       <c r="J11" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" ca="1" si="3"/>
         <v>EDU9 Comdty</v>
       </c>
       <c r="K11">
-        <f>_xll.BDP(J11,"PX_LAST")</f>
-        <v>96.975000000000009</v>
+        <f ca="1">_xll.BDP(J11,"PX_LAST")</f>
+        <v>98.594999999999999</v>
       </c>
       <c r="L11" s="4">
-        <f t="shared" si="4"/>
-        <v>96.975000000000009</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>98.594999999999999</v>
       </c>
       <c r="M11" t="str">
         <f ca="1">_xll.QIns_CreateSTIRFromCode(I11,valDate,I11,$J$2,L11,1,0,"USD.LIBOR.3M","USD.LIBOR.3M")</f>
-        <v>EDU9¬0</v>
+        <v>EDU9¬3</v>
       </c>
       <c r="O11" s="2">
         <f ca="1">_xll.QDates_AddPeriod($R$5,P11,"MF","JHB+NYC")</f>
-        <v>43629</v>
+        <v>44211</v>
       </c>
       <c r="P11" t="s">
         <v>33</v>
       </c>
       <c r="Q11">
-        <f>_xll.BDP("ZAR"&amp;P11&amp;" Curncy","PX_LAST")</f>
-        <v>5578</v>
+        <f ca="1">_xll.BDP("ZAR"&amp;P11&amp;" Curncy","PX_LAST")</f>
+        <v>5764</v>
       </c>
       <c r="R11" s="5">
-        <f t="shared" si="2"/>
-        <v>15.66</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>18.620899999999999</v>
       </c>
       <c r="S11" s="5" t="str">
         <f ca="1">_xll.QIns_CreateFxForward("ZARFwd_"&amp;P11,O11,"ZAR","USD",1000000,R11,"ZAR.DISC.[USD.OIS.1B]","ZAR.DISC.[USD.OIS.1B]")</f>
-        <v>ZARFwd_9m¬0</v>
+        <v>ZARFwd_9m¬3</v>
       </c>
       <c r="U11" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>43993</v>
+        <v>44570</v>
       </c>
       <c r="V11" s="1">
         <f ca="1">_xll.QCurves_GetDF($D$33,valDate,U11)</f>
-        <v>0.87620020394653664</v>
+        <v>0.91165612999514489</v>
       </c>
       <c r="W11" s="1">
         <f ca="1">_xll.QCurves_GetForwardRate($D$33,U11,U12,"Linear","Act365F")</f>
-        <v>8.1064096357870888E-2</v>
+        <v>6.3305511654691615E-2</v>
       </c>
       <c r="X11" s="1">
         <f ca="1">_xll.QCurves_GetDF($D$34,valDate,U11)</f>
-        <v>0.88224399825491229</v>
+        <v>0.91799187684709571</v>
       </c>
       <c r="Y11" s="1">
         <f ca="1">_xll.QCurves_GetDF($D$35,valDate,U11)</f>
-        <v>0.9506107620164328</v>
+        <v>0.98959006707595532</v>
       </c>
     </row>
     <row r="12" spans="2:25" x14ac:dyDescent="0.25">
@@ -3517,16 +3528,16 @@
         <v>18</v>
       </c>
       <c r="D12">
-        <f>_xll.BDP(C12,"PX_LAST")</f>
-        <v>7.6675000000000004</v>
+        <f ca="1">_xll.BDP(C12,"PX_LAST")</f>
+        <v>5.4275000000000002</v>
       </c>
       <c r="E12" s="1">
-        <f t="shared" si="1"/>
-        <v>7.6675000000000007E-2</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>5.4275000000000004E-2</v>
       </c>
       <c r="F12" t="str">
         <f ca="1">_xll.QIns_CreateIRS("ZAROISSwap_"&amp;B12,valDate,B12,index,E12,1,"ZAR.JIBAR.3M","ZAR.OIS.1B","Pay","ZAR.JIBAR.3M")</f>
-        <v>ZAROISSwap_2y¬0</v>
+        <v>ZAROISSwap_2y¬3</v>
       </c>
       <c r="I12" t="s">
         <v>12</v>
@@ -3535,55 +3546,55 @@
         <v>44</v>
       </c>
       <c r="K12">
-        <f>_xll.BDP(J12,"PX_LAST")</f>
-        <v>2.9161000000000001</v>
+        <f ca="1">_xll.BDP(J12,"PX_LAST")</f>
+        <v>0.4677</v>
       </c>
       <c r="L12" s="1">
-        <f t="shared" ref="L12:L17" si="5">K12/100</f>
-        <v>2.9161000000000003E-2</v>
+        <f t="shared" ref="L12:L17" ca="1" si="5">K12/100</f>
+        <v>4.6769999999999997E-3</v>
       </c>
       <c r="M12" t="str">
         <f ca="1">_xll.QIns_CreateIRS("USDOISSwap_"&amp;I12,valDate,I12,$J$2,L12,1,"USD.LIBOR.3M","USD.OIS.1B","Pay","USD.LIBOR.3M")</f>
-        <v>USDOISSwap_2y¬0</v>
+        <v>USDOISSwap_2y¬3</v>
       </c>
       <c r="O12" s="2">
         <f ca="1">_xll.QDates_AddPeriod($R$5,P12,"MF","JHB+NYC")</f>
-        <v>43721</v>
+        <v>44301</v>
       </c>
       <c r="P12" t="s">
         <v>61</v>
       </c>
       <c r="Q12">
-        <f>_xll.BDP("ZAR"&amp;P12&amp;" Curncy","PX_LAST")</f>
-        <v>7477</v>
+        <f ca="1">_xll.BDP("ZAR"&amp;P12&amp;" Curncy","PX_LAST")</f>
+        <v>7733</v>
       </c>
       <c r="R12" s="5">
-        <f t="shared" si="2"/>
-        <v>15.8499</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>18.817799999999998</v>
       </c>
       <c r="S12" s="5" t="str">
         <f ca="1">_xll.QIns_CreateFxForward("ZARFwd_"&amp;P12,O12,"ZAR","USD",1000000,R12,"ZAR.DISC.[USD.OIS.1B]","ZAR.DISC.[USD.OIS.1B]")</f>
-        <v>ZARFwd_12m¬0</v>
+        <v>ZARFwd_12m¬3</v>
       </c>
       <c r="U12" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>44085</v>
+        <v>44660</v>
       </c>
       <c r="V12" s="1">
         <f ca="1">_xll.QCurves_GetDF($D$33,valDate,U12)</f>
-        <v>0.85865564170456976</v>
+        <v>0.89764428137467944</v>
       </c>
       <c r="W12" s="1">
         <f ca="1">_xll.QCurves_GetForwardRate($D$33,U12,U13,"Linear","Act365F")</f>
-        <v>8.1950906918311028E-2</v>
+        <v>6.6022872672555147E-2</v>
       </c>
       <c r="X12" s="1">
         <f ca="1">_xll.QCurves_GetDF($D$34,valDate,U12)</f>
-        <v>0.86543349533498681</v>
+        <v>0.90476115186497996</v>
       </c>
       <c r="Y12" s="1">
         <f ca="1">_xll.QCurves_GetDF($D$35,valDate,U12)</f>
-        <v>0.94263159534347363</v>
+        <v>0.99050468498643596</v>
       </c>
     </row>
     <row r="13" spans="2:25" x14ac:dyDescent="0.25">
@@ -3594,16 +3605,16 @@
         <v>19</v>
       </c>
       <c r="D13">
-        <f>_xll.BDP(C13,"PX_LAST")</f>
-        <v>7.8849999999999998</v>
+        <f ca="1">_xll.BDP(C13,"PX_LAST")</f>
+        <v>5.9175000000000004</v>
       </c>
       <c r="E13" s="1">
-        <f t="shared" si="1"/>
-        <v>7.8850000000000003E-2</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>5.9175000000000005E-2</v>
       </c>
       <c r="F13" t="str">
         <f ca="1">_xll.QIns_CreateIRS("ZAROISSwap_"&amp;B13,valDate,B13,index,E13,1,"ZAR.JIBAR.3M","ZAR.OIS.1B","Pay","ZAR.JIBAR.3M")</f>
-        <v>ZAROISSwap_3y¬0</v>
+        <v>ZAROISSwap_3y¬3</v>
       </c>
       <c r="I13" t="s">
         <v>13</v>
@@ -3612,55 +3623,55 @@
         <v>45</v>
       </c>
       <c r="K13">
-        <f>_xll.BDP(J13,"PX_LAST")</f>
-        <v>2.9643999999999999</v>
+        <f ca="1">_xll.BDP(J13,"PX_LAST")</f>
+        <v>0.47160000000000002</v>
       </c>
       <c r="L13" s="1">
-        <f t="shared" si="5"/>
-        <v>2.9644E-2</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>4.7160000000000006E-3</v>
       </c>
       <c r="M13" t="str">
         <f ca="1">_xll.QIns_CreateIRS("USDOISSwap_"&amp;I13,valDate,I13,$J$2,L13,1,"USD.LIBOR.3M","USD.OIS.1B","Pay","USD.LIBOR.3M")</f>
-        <v>USDOISSwap_3y¬0</v>
+        <v>USDOISSwap_3y¬3</v>
       </c>
       <c r="O13" s="2">
         <f ca="1">_xll.QDates_AddPeriod($R$5,P13,"MF","JHB+NYC")</f>
-        <v>43812</v>
+        <v>44392</v>
       </c>
       <c r="P13" t="s">
         <v>60</v>
       </c>
       <c r="Q13">
-        <f>_xll.BDP("ZAR"&amp;P13&amp;" Curncy","PX_LAST")</f>
-        <v>9535</v>
+        <f ca="1">_xll.BDP("ZAR"&amp;P13&amp;" Curncy","PX_LAST")</f>
+        <v>9880</v>
       </c>
       <c r="R13" s="5">
-        <f t="shared" si="2"/>
-        <v>16.055700000000002</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>19.032499999999999</v>
       </c>
       <c r="S13" s="5" t="str">
         <f ca="1">_xll.QIns_CreateFxForward("ZARFwd_"&amp;P13,O13,"ZAR","USD",1000000,R13,"ZAR.DISC.[USD.OIS.1B]","ZAR.DISC.[USD.OIS.1B]")</f>
-        <v>ZARFwd_15m¬0</v>
+        <v>ZARFwd_15m¬3</v>
       </c>
       <c r="U13" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>44176</v>
+        <v>44751</v>
       </c>
       <c r="V13" s="1">
         <f ca="1">_xll.QCurves_GetDF($D$33,valDate,U13)</f>
-        <v>0.84146320546568354</v>
+        <v>0.88310788663618245</v>
       </c>
       <c r="W13" s="1">
         <f ca="1">_xll.QCurves_GetForwardRate($D$33,U13,U14,"Linear","Act365F")</f>
-        <v>8.3073121110234779E-2</v>
+        <v>6.8638838016895798E-2</v>
       </c>
       <c r="X13" s="1">
         <f ca="1">_xll.QCurves_GetDF($D$34,valDate,U13)</f>
-        <v>0.84911974800451728</v>
+        <v>0.89061526662429957</v>
       </c>
       <c r="Y13" s="1">
         <f ca="1">_xll.QCurves_GetDF($D$35,valDate,U13)</f>
-        <v>0.93547314411445481</v>
+        <v>0.98936595621968559</v>
       </c>
     </row>
     <row r="14" spans="2:25" x14ac:dyDescent="0.25">
@@ -3671,16 +3682,16 @@
         <v>20</v>
       </c>
       <c r="D14">
-        <f>_xll.BDP(C14,"PX_LAST")</f>
-        <v>8.0374999999999996</v>
+        <f ca="1">_xll.BDP(C14,"PX_LAST")</f>
+        <v>6.4550000000000001</v>
       </c>
       <c r="E14" s="1">
-        <f t="shared" si="1"/>
-        <v>8.0375000000000002E-2</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>6.4549999999999996E-2</v>
       </c>
       <c r="F14" t="str">
         <f ca="1">_xll.QIns_CreateIRS("ZAROISSwap_"&amp;B14,valDate,B14,index,E14,1,"ZAR.JIBAR.3M","ZAR.OIS.1B","Pay","ZAR.JIBAR.3M")</f>
-        <v>ZAROISSwap_4y¬0</v>
+        <v>ZAROISSwap_4y¬3</v>
       </c>
       <c r="I14" t="s">
         <v>14</v>
@@ -3689,55 +3700,55 @@
         <v>48</v>
       </c>
       <c r="K14">
-        <f>_xll.BDP(J14,"PX_LAST")</f>
-        <v>2.9748999999999999</v>
+        <f ca="1">_xll.BDP(J14,"PX_LAST")</f>
+        <v>0.51839999999999997</v>
       </c>
       <c r="L14" s="1">
-        <f t="shared" si="5"/>
-        <v>2.9748999999999998E-2</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>5.1839999999999994E-3</v>
       </c>
       <c r="M14" t="str">
         <f ca="1">_xll.QIns_CreateIRS("USDOISSwap_"&amp;I14,valDate,I14,$J$2,L14,1,"USD.LIBOR.3M","USD.OIS.1B","Pay","USD.LIBOR.3M")</f>
-        <v>USDOISSwap_4y¬0</v>
+        <v>USDOISSwap_4y¬3</v>
       </c>
       <c r="O14" s="2">
         <f ca="1">_xll.QDates_AddPeriod($R$5,P14,"MF","JHB+NYC")</f>
-        <v>43903</v>
+        <v>44484</v>
       </c>
       <c r="P14" t="s">
         <v>35</v>
       </c>
       <c r="Q14">
-        <f>_xll.BDP("ZAR"&amp;P14&amp;" Curncy","PX_LAST")</f>
-        <v>11493</v>
+        <f ca="1">_xll.BDP("ZAR"&amp;P14&amp;" Curncy","PX_LAST")</f>
+        <v>12389</v>
       </c>
       <c r="R14" s="5">
-        <f t="shared" si="2"/>
-        <v>16.2515</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>19.2834</v>
       </c>
       <c r="S14" s="5" t="str">
         <f ca="1">_xll.QIns_CreateFxForward("ZARFwd_"&amp;P14,O14,"ZAR","USD",1000000,R14,"ZAR.DISC.[USD.OIS.1B]","ZAR.DISC.[USD.OIS.1B]")</f>
-        <v>ZARFwd_18m¬0</v>
+        <v>ZARFwd_18m¬3</v>
       </c>
       <c r="U14" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>44266</v>
+        <v>44843</v>
       </c>
       <c r="V14" s="1">
         <f ca="1">_xll.QCurves_GetDF($D$33,valDate,U14)</f>
-        <v>0.82457283422470196</v>
+        <v>0.86808929236306109</v>
       </c>
       <c r="W14" s="1">
         <f ca="1">_xll.QCurves_GetForwardRate($D$33,U14,U15,"Linear","Act365F")</f>
-        <v>8.4230333626428192E-2</v>
+        <v>7.126129505508913E-2</v>
       </c>
       <c r="X14" s="1">
         <f ca="1">_xll.QCurves_GetDF($D$34,valDate,U14)</f>
-        <v>0.83309926423548697</v>
+        <v>0.87588056205160736</v>
       </c>
       <c r="Y14" s="1">
         <f ca="1">_xll.QCurves_GetDF($D$35,valDate,U14)</f>
-        <v>0.92839255403723897</v>
+        <v>0.98815770009348625</v>
       </c>
     </row>
     <row r="15" spans="2:25" x14ac:dyDescent="0.25">
@@ -3748,16 +3759,16 @@
         <v>21</v>
       </c>
       <c r="D15">
-        <f>_xll.BDP(C15,"PX_LAST")</f>
-        <v>8.1850000000000005</v>
+        <f ca="1">_xll.BDP(C15,"PX_LAST")</f>
+        <v>7.0625</v>
       </c>
       <c r="E15" s="1">
-        <f t="shared" si="1"/>
-        <v>8.1850000000000006E-2</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>7.0624999999999993E-2</v>
       </c>
       <c r="F15" t="str">
         <f ca="1">_xll.QIns_CreateIRS("ZAROISSwap_"&amp;B15,valDate,B15,index,E15,1,"ZAR.JIBAR.3M","ZAR.OIS.1B","Pay","ZAR.JIBAR.3M")</f>
-        <v>ZAROISSwap_5y¬0</v>
+        <v>ZAROISSwap_5y¬3</v>
       </c>
       <c r="I15" t="s">
         <v>15</v>
@@ -3766,55 +3777,55 @@
         <v>46</v>
       </c>
       <c r="K15">
-        <f>_xll.BDP(J15,"PX_LAST")</f>
-        <v>2.9759000000000002</v>
+        <f ca="1">_xll.BDP(J15,"PX_LAST")</f>
+        <v>0.57820000000000005</v>
       </c>
       <c r="L15" s="1">
-        <f t="shared" si="5"/>
-        <v>2.9759000000000001E-2</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>5.7820000000000007E-3</v>
       </c>
       <c r="M15" t="str">
         <f ca="1">_xll.QIns_CreateIRS("USDOISSwap_"&amp;I15,valDate,I15,$J$2,L15,1,"USD.LIBOR.3M","USD.OIS.1B","Pay","USD.LIBOR.3M")</f>
-        <v>USDOISSwap_5y¬0</v>
+        <v>USDOISSwap_5y¬3</v>
       </c>
       <c r="O15" s="2">
         <f ca="1">_xll.QDates_AddPeriod($R$5,P15,"MF","JHB+NYC")</f>
-        <v>44088</v>
+        <v>44670</v>
       </c>
       <c r="P15" t="s">
         <v>12</v>
       </c>
       <c r="Q15">
-        <f>_xll.BDP("ZAR"&amp;P15&amp;" Curncy","PX_LAST")</f>
-        <v>15920</v>
+        <f ca="1">_xll.BDP("ZAR"&amp;P15&amp;" Curncy","PX_LAST")</f>
+        <v>18364</v>
       </c>
       <c r="R15" s="5">
-        <f t="shared" si="2"/>
-        <v>16.694199999999999</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>19.8809</v>
       </c>
       <c r="S15" s="5" t="str">
         <f ca="1">_xll.QIns_CreateFxForward("ZARFwd_"&amp;P15,O15,"ZAR","USD",1000000,R15,"ZAR.DISC.[USD.OIS.1B]","ZAR.DISC.[USD.OIS.1B]")</f>
-        <v>ZARFwd_2y¬0</v>
+        <v>ZARFwd_2y¬3</v>
       </c>
       <c r="U15" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>44358</v>
+        <v>44935</v>
       </c>
       <c r="V15" s="1">
         <f ca="1">_xll.QCurves_GetDF($D$33,valDate,U15)</f>
-        <v>0.80743055117559626</v>
+        <v>0.85277201372255773</v>
       </c>
       <c r="W15" s="1">
         <f ca="1">_xll.QCurves_GetForwardRate($D$33,U15,U16,"Linear","Act365F")</f>
-        <v>8.5381599349537929E-2</v>
+        <v>7.3842072502186704E-2</v>
       </c>
       <c r="X15" s="1">
         <f ca="1">_xll.QCurves_GetDF($D$34,valDate,U15)</f>
-        <v>0.8168451639322053</v>
+        <v>0.86074727431237563</v>
       </c>
       <c r="Y15" s="1">
         <f ca="1">_xll.QCurves_GetDF($D$35,valDate,U15)</f>
-        <v>0.92115465534331853</v>
+        <v>0.98694615116806683</v>
       </c>
     </row>
     <row r="16" spans="2:25" x14ac:dyDescent="0.25">
@@ -3825,16 +3836,16 @@
         <v>22</v>
       </c>
       <c r="D16">
-        <f>_xll.BDP(C16,"PX_LAST")</f>
-        <v>8.4320000000000004</v>
+        <f ca="1">_xll.BDP(C16,"PX_LAST")</f>
+        <v>8.0924999999999994</v>
       </c>
       <c r="E16" s="1">
-        <f t="shared" si="1"/>
-        <v>8.4320000000000006E-2</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>8.0924999999999997E-2</v>
       </c>
       <c r="F16" t="str">
         <f ca="1">_xll.QIns_CreateIRS("ZAROISSwap_"&amp;B16,valDate,B16,index,E16,1,"ZAR.JIBAR.3M","ZAR.OIS.1B","Pay","ZAR.JIBAR.3M")</f>
-        <v>ZAROISSwap_7y¬0</v>
+        <v>ZAROISSwap_7y¬3</v>
       </c>
       <c r="I16" t="s">
         <v>16</v>
@@ -3843,55 +3854,55 @@
         <v>49</v>
       </c>
       <c r="K16">
-        <f>_xll.BDP(J16,"PX_LAST")</f>
-        <v>2.9853999999999998</v>
+        <f ca="1">_xll.BDP(J16,"PX_LAST")</f>
+        <v>0.69269999999999998</v>
       </c>
       <c r="L16" s="1">
-        <f t="shared" si="5"/>
-        <v>2.9853999999999999E-2</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>6.927E-3</v>
       </c>
       <c r="M16" t="str">
         <f ca="1">_xll.QIns_CreateIRS("USDOISSwap_"&amp;I16,valDate,I16,$J$2,L16,1,"USD.LIBOR.3M","USD.OIS.1B","Pay","USD.LIBOR.3M")</f>
-        <v>USDOISSwap_7y¬0</v>
+        <v>USDOISSwap_7y¬3</v>
       </c>
       <c r="O16" s="2">
         <f ca="1">_xll.QDates_AddPeriod($R$5,P16,"MF","JHB+NYC")</f>
-        <v>44452</v>
+        <v>45033</v>
       </c>
       <c r="P16" t="s">
         <v>13</v>
       </c>
       <c r="Q16">
-        <f>_xll.BDP("ZAR"&amp;P16&amp;" Curncy","PX_LAST")</f>
-        <v>25645</v>
+        <f ca="1">_xll.BDP("ZAR"&amp;P16&amp;" Curncy","PX_LAST")</f>
+        <v>30940</v>
       </c>
       <c r="R16" s="5">
-        <f t="shared" si="2"/>
-        <v>17.666699999999999</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>21.138500000000001</v>
       </c>
       <c r="S16" s="5" t="str">
         <f ca="1">_xll.QIns_CreateFxForward("ZARFwd_"&amp;P16,O16,"ZAR","USD",1000000,R16,"ZAR.DISC.[USD.OIS.1B]","ZAR.DISC.[USD.OIS.1B]")</f>
-        <v>ZARFwd_3y¬0</v>
+        <v>ZARFwd_3y¬3</v>
       </c>
       <c r="U16" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>44450</v>
+        <v>45025</v>
       </c>
       <c r="V16" s="1">
         <f ca="1">_xll.QCurves_GetDF($D$33,valDate,U16)</f>
-        <v>0.7904200466491379</v>
+        <v>0.83752270655066519</v>
       </c>
       <c r="W16" s="1">
         <f ca="1">_xll.QCurves_GetForwardRate($D$33,U16,U17,"Linear","Act365F")</f>
-        <v>8.4557755057582923E-2</v>
+        <v>7.857175418754106E-2</v>
       </c>
       <c r="X16" s="1">
         <f ca="1">_xll.QCurves_GetDF($D$34,valDate,U16)</f>
-        <v>0.8007199181669622</v>
+        <v>0.84558539907893437</v>
       </c>
       <c r="Y16" s="1">
         <f ca="1">_xll.QCurves_GetDF($D$35,valDate,U16)</f>
-        <v>0.91391766418381992</v>
+        <v>0.98575776917644509</v>
       </c>
     </row>
     <row r="17" spans="2:25" x14ac:dyDescent="0.25">
@@ -3902,16 +3913,16 @@
         <v>23</v>
       </c>
       <c r="D17">
-        <f>_xll.BDP(C17,"PX_LAST")</f>
-        <v>8.6649999999999991</v>
+        <f ca="1">_xll.BDP(C17,"PX_LAST")</f>
+        <v>8.9600000000000009</v>
       </c>
       <c r="E17" s="1">
-        <f t="shared" si="1"/>
-        <v>8.6649999999999991E-2</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>8.9600000000000013E-2</v>
       </c>
       <c r="F17" t="str">
         <f ca="1">_xll.QIns_CreateIRS("ZAROISSwap_"&amp;B17,valDate,B17,index,E17,1,"ZAR.JIBAR.3M","ZAR.OIS.1B","Pay","ZAR.JIBAR.3M")</f>
-        <v>ZAROISSwap_10y¬0</v>
+        <v>ZAROISSwap_10y¬3</v>
       </c>
       <c r="I17" t="s">
         <v>17</v>
@@ -3920,55 +3931,55 @@
         <v>47</v>
       </c>
       <c r="K17">
-        <f>_xll.BDP(J17,"PX_LAST")</f>
-        <v>3.0169999999999999</v>
+        <f ca="1">_xll.BDP(J17,"PX_LAST")</f>
+        <v>0.8155</v>
       </c>
       <c r="L17" s="1">
-        <f t="shared" si="5"/>
-        <v>3.0169999999999999E-2</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>8.1550000000000008E-3</v>
       </c>
       <c r="M17" t="str">
         <f ca="1">_xll.QIns_CreateIRS("USDOISSwap_"&amp;I17,valDate,I17,$J$2,L17,1,"USD.LIBOR.3M","USD.OIS.1B","Pay","USD.LIBOR.3M")</f>
-        <v>USDOISSwap_10y¬0</v>
+        <v>USDOISSwap_10y¬3</v>
       </c>
       <c r="O17" s="2">
         <f ca="1">_xll.QDates_AddPeriod($R$5,P17,"MF","JHB+NYC")</f>
-        <v>44817</v>
+        <v>45397</v>
       </c>
       <c r="P17" t="s">
         <v>14</v>
       </c>
       <c r="Q17">
-        <f>_xll.BDP("ZAR"&amp;P17&amp;" Curncy","PX_LAST")</f>
-        <v>36643</v>
+        <f ca="1">_xll.BDP("ZAR"&amp;P17&amp;" Curncy","PX_LAST")</f>
+        <v>46326</v>
       </c>
       <c r="R17" s="5">
-        <f t="shared" si="2"/>
-        <v>18.766500000000001</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>22.677099999999999</v>
       </c>
       <c r="S17" s="5" t="str">
         <f ca="1">_xll.QIns_CreateFxForward("ZARFwd_"&amp;P17,O17,"ZAR","USD",1000000,R17,"ZAR.DISC.[USD.OIS.1B]","ZAR.DISC.[USD.OIS.1B]")</f>
-        <v>ZARFwd_4y¬0</v>
+        <v>ZARFwd_4y¬3</v>
       </c>
       <c r="U17" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>44541</v>
+        <v>45116</v>
       </c>
       <c r="V17" s="1">
         <f ca="1">_xll.QCurves_GetDF($D$33,valDate,U17)</f>
-        <v>0.7741008227420263</v>
+        <v>0.82143158283245765</v>
       </c>
       <c r="W17" s="1">
         <f ca="1">_xll.QCurves_GetForwardRate($D$33,U17,U18,"Linear","Act365F")</f>
-        <v>8.5334097121602906E-2</v>
+        <v>8.1577207989190395E-2</v>
       </c>
       <c r="X17" s="1">
         <f ca="1">_xll.QCurves_GetDF($D$34,valDate,U17)</f>
-        <v>0.78490157286767481</v>
+        <v>0.82992395098678051</v>
       </c>
       <c r="Y17" s="1">
         <f ca="1">_xll.QCurves_GetDF($D$35,valDate,U17)</f>
-        <v>0.90703192008093436</v>
+        <v>0.98420963731310862</v>
       </c>
     </row>
     <row r="18" spans="2:25" x14ac:dyDescent="0.25">
@@ -3980,7 +3991,7 @@
       </c>
       <c r="F18" t="str">
         <f ca="1">_xll.QIns_CreateIRBasisSwap("ZAROISBasis_"&amp;B18,valDate,B18,oisIndex,index,E18,TRUE,1,"ZAR.OIS.1B","ZAR.JIBAR.3M","ZAR.OIS.1B","ZAR.OIS.1B")</f>
-        <v>ZAROISBasis_3m¬0</v>
+        <v>ZAROISBasis_3m¬3</v>
       </c>
       <c r="I18" t="s">
         <v>0</v>
@@ -3990,46 +4001,46 @@
       </c>
       <c r="M18" t="str">
         <f ca="1">_xll.QIns_CreateIRBasisSwap("USDOISBasis_"&amp;I18,valDate,I18,$J$3,$J$2,L18,TRUE,1,"USD.OIS.1B","USD.LIBOR.3M","USD.OIS.1B","USD.OIS.1B")</f>
-        <v>USDOISBasis_3m¬0</v>
+        <v>USDOISBasis_3m¬3</v>
       </c>
       <c r="O18" s="2">
         <f ca="1">_xll.QDates_AddPeriod($R$5,P18,"MF","JHB+NYC")</f>
-        <v>45182</v>
+        <v>45762</v>
       </c>
       <c r="P18" t="s">
         <v>15</v>
       </c>
       <c r="Q18">
-        <f>_xll.BDP("ZAR"&amp;P18&amp;" Curncy","PX_LAST")</f>
-        <v>48809</v>
+        <f ca="1">_xll.BDP("ZAR"&amp;P18&amp;" Curncy","PX_LAST")</f>
+        <v>66676</v>
       </c>
       <c r="R18" s="5">
-        <f t="shared" si="2"/>
-        <v>19.9831</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>24.7121</v>
       </c>
       <c r="S18" s="5" t="str">
         <f ca="1">_xll.QIns_CreateFxForward("ZARFwd_"&amp;P18,O18,"ZAR","USD",1000000,R18,"ZAR.DISC.[USD.OIS.1B]","ZAR.DISC.[USD.OIS.1B]")</f>
-        <v>ZARFwd_5y¬0</v>
+        <v>ZARFwd_5y¬3</v>
       </c>
       <c r="U18" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>44631</v>
+        <v>45208</v>
       </c>
       <c r="V18" s="1">
         <f ca="1">_xll.QCurves_GetDF($D$33,valDate,U18)</f>
-        <v>0.7581484066357258</v>
+        <v>0.80488166527260585</v>
       </c>
       <c r="W18" s="1">
         <f ca="1">_xll.QCurves_GetForwardRate($D$33,U18,U19,"Linear","Act365F")</f>
-        <v>8.6185728618481366E-2</v>
+        <v>8.4548149616066187E-2</v>
       </c>
       <c r="X18" s="1">
         <f ca="1">_xll.QCurves_GetDF($D$34,valDate,U18)</f>
-        <v>0.76939035534761735</v>
+        <v>0.81378124182284473</v>
       </c>
       <c r="Y18" s="1">
         <f ca="1">_xll.QCurves_GetDF($D$35,valDate,U18)</f>
-        <v>0.90026721919765751</v>
+        <v>0.98258462547215475</v>
       </c>
     </row>
     <row r="19" spans="2:25" x14ac:dyDescent="0.25">
@@ -4041,7 +4052,7 @@
       </c>
       <c r="F19" t="str">
         <f ca="1">_xll.QIns_CreateIRBasisSwap("ZAROISBasis_"&amp;B19,valDate,B19,oisIndex,index,E19,TRUE,1,"ZAR.OIS.1B","ZAR.JIBAR.3M","ZAR.OIS.1B","ZAR.OIS.1B")</f>
-        <v>ZAROISBasis_6m¬0</v>
+        <v>ZAROISBasis_6m¬3</v>
       </c>
       <c r="I19" t="s">
         <v>32</v>
@@ -4051,29 +4062,29 @@
       </c>
       <c r="M19" t="str">
         <f ca="1">_xll.QIns_CreateIRBasisSwap("USDOISBasis_"&amp;I19,valDate,I19,$J$3,$J$2,L19,TRUE,1,"USD.OIS.1B","USD.LIBOR.3M","USD.OIS.1B","USD.OIS.1B")</f>
-        <v>USDOISBasis_6m¬0</v>
+        <v>USDOISBasis_6m¬3</v>
       </c>
       <c r="R19" s="5"/>
       <c r="S19" s="5"/>
       <c r="U19" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>44723</v>
+        <v>45300</v>
       </c>
       <c r="V19" s="1">
         <f ca="1">_xll.QCurves_GetDF($D$33,valDate,U19)</f>
-        <v>0.74202892196935799</v>
+        <v>0.78808692876880038</v>
       </c>
       <c r="W19" s="1">
         <f ca="1">_xll.QCurves_GetForwardRate($D$33,U19,U20,"Linear","Act365F")</f>
-        <v>8.702685948779712E-2</v>
+        <v>8.7494694879952345E-2</v>
       </c>
       <c r="X19" s="1">
         <f ca="1">_xll.QCurves_GetDF($D$34,valDate,U19)</f>
-        <v>0.75367594163225826</v>
+        <v>0.79735746824190035</v>
       </c>
       <c r="Y19" s="1">
         <f ca="1">_xll.QCurves_GetDF($D$35,valDate,U19)</f>
-        <v>0.89339294041795647</v>
+        <v>0.9809032924096992</v>
       </c>
     </row>
     <row r="20" spans="2:25" x14ac:dyDescent="0.25">
@@ -4085,7 +4096,7 @@
       </c>
       <c r="F20" t="str">
         <f ca="1">_xll.QIns_CreateIRBasisSwap("ZAROISBasis_"&amp;B20,valDate,B20,oisIndex,index,E20,TRUE,1,"ZAR.OIS.1B","ZAR.JIBAR.3M","ZAR.OIS.1B","ZAR.OIS.1B")</f>
-        <v>ZAROISBasis_9m¬0</v>
+        <v>ZAROISBasis_9m¬3</v>
       </c>
       <c r="I20" t="s">
         <v>33</v>
@@ -4095,27 +4106,27 @@
       </c>
       <c r="M20" t="str">
         <f ca="1">_xll.QIns_CreateIRBasisSwap("USDOISBasis_"&amp;I20,valDate,I20,$J$3,$J$2,L20,TRUE,1,"USD.OIS.1B","USD.LIBOR.3M","USD.OIS.1B","USD.OIS.1B")</f>
-        <v>USDOISBasis_9m¬0</v>
+        <v>USDOISBasis_9m¬3</v>
       </c>
       <c r="U20" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>44815</v>
+        <v>45391</v>
       </c>
       <c r="V20" s="1">
         <f ca="1">_xll.QCurves_GetDF($D$33,valDate,U20)</f>
-        <v>0.72610149561158499</v>
+        <v>0.77126279810975573</v>
       </c>
       <c r="W20" s="1">
         <f ca="1">_xll.QCurves_GetForwardRate($D$33,U20,U21,"Linear","Act365F")</f>
-        <v>8.7880030400768583E-2</v>
+        <v>9.4941632972784462E-2</v>
       </c>
       <c r="X20" s="1">
         <f ca="1">_xll.QCurves_GetDF($D$34,valDate,U20)</f>
-        <v>0.73810893892134133</v>
+        <v>0.78086504341135521</v>
       </c>
       <c r="Y20" s="1">
         <f ca="1">_xll.QCurves_GetDF($D$35,valDate,U20)</f>
-        <v>0.88655972122946491</v>
+        <v>0.97918512096307209</v>
       </c>
     </row>
     <row r="21" spans="2:25" x14ac:dyDescent="0.25">
@@ -4127,7 +4138,7 @@
       </c>
       <c r="F21" t="str">
         <f ca="1">_xll.QIns_CreateIRBasisSwap("ZAROISBasis_"&amp;B21,valDate,B21,oisIndex,index,E21,TRUE,1,"ZAR.OIS.1B","ZAR.JIBAR.3M","ZAR.OIS.1B","ZAR.OIS.1B")</f>
-        <v>ZAROISBasis_1y¬0</v>
+        <v>ZAROISBasis_1y¬3</v>
       </c>
       <c r="I21" t="s">
         <v>34</v>
@@ -4137,27 +4148,27 @@
       </c>
       <c r="M21" t="str">
         <f ca="1">_xll.QIns_CreateIRBasisSwap("USDOISBasis_"&amp;I21,valDate,I21,$J$3,$J$2,L21,TRUE,1,"USD.OIS.1B","USD.LIBOR.3M","USD.OIS.1B","USD.OIS.1B")</f>
-        <v>USDOISBasis_1y¬0</v>
+        <v>USDOISBasis_1y¬3</v>
       </c>
       <c r="U21" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>44906</v>
+        <v>45482</v>
       </c>
       <c r="V21" s="1">
         <f ca="1">_xll.QCurves_GetDF($D$33,valDate,U21)</f>
-        <v>0.71053383027169559</v>
+        <v>0.75342885110644131</v>
       </c>
       <c r="W21" s="1">
         <f ca="1">_xll.QCurves_GetForwardRate($D$33,U21,U22,"Linear","Act365F")</f>
-        <v>8.8700353527939077E-2</v>
+        <v>9.8450448476763722E-2</v>
       </c>
       <c r="X21" s="1">
         <f ca="1">_xll.QCurves_GetDF($D$34,valDate,U21)</f>
-        <v>0.72286027472739678</v>
+        <v>0.76415580420091456</v>
       </c>
       <c r="Y21" s="1">
         <f ca="1">_xll.QCurves_GetDF($D$35,valDate,U21)</f>
-        <v>0.87993088463029911</v>
+        <v>0.97727287478823532</v>
       </c>
     </row>
     <row r="22" spans="2:25" x14ac:dyDescent="0.25">
@@ -4169,7 +4180,7 @@
       </c>
       <c r="F22" t="str">
         <f ca="1">_xll.QIns_CreateIRBasisSwap("ZAROISBasis_"&amp;B22,valDate,B22,oisIndex,index,E22,TRUE,1,"ZAR.OIS.1B","ZAR.JIBAR.3M","ZAR.OIS.1B","ZAR.OIS.1B")</f>
-        <v>ZAROISBasis_18m¬0</v>
+        <v>ZAROISBasis_18m¬3</v>
       </c>
       <c r="I22" t="s">
         <v>35</v>
@@ -4179,27 +4190,27 @@
       </c>
       <c r="M22" t="str">
         <f ca="1">_xll.QIns_CreateIRBasisSwap("USDOISBasis_"&amp;I22,valDate,I22,$J$3,$J$2,L22,TRUE,1,"USD.OIS.1B","USD.LIBOR.3M","USD.OIS.1B","USD.OIS.1B")</f>
-        <v>USDOISBasis_18m¬0</v>
+        <v>USDOISBasis_18m¬3</v>
       </c>
       <c r="U22" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>44996</v>
+        <v>45574</v>
       </c>
       <c r="V22" s="1">
         <f ca="1">_xll.QCurves_GetDF($D$33,valDate,U22)</f>
-        <v>0.69532612994592147</v>
+        <v>0.73518529594711146</v>
       </c>
       <c r="W22" s="1">
         <f ca="1">_xll.QCurves_GetForwardRate($D$33,U22,U23,"Linear","Act365F")</f>
-        <v>8.955746058083941E-2</v>
+        <v>0.10196915259017414</v>
       </c>
       <c r="X22" s="1">
         <f ca="1">_xll.QCurves_GetDF($D$34,valDate,U22)</f>
-        <v>0.70792887397166893</v>
+        <v>0.74707188897943855</v>
       </c>
       <c r="Y22" s="1">
         <f ca="1">_xll.QCurves_GetDF($D$35,valDate,U22)</f>
-        <v>0.87342413101986671</v>
+        <v>0.97526846197147343</v>
       </c>
     </row>
     <row r="23" spans="2:25" x14ac:dyDescent="0.25">
@@ -4211,7 +4222,7 @@
       </c>
       <c r="F23" t="str">
         <f ca="1">_xll.QIns_CreateIRBasisSwap("ZAROISBasis_"&amp;B23,valDate,B23,oisIndex,index,E23,TRUE,1,"ZAR.OIS.1B","ZAR.JIBAR.3M","ZAR.OIS.1B","ZAR.OIS.1B")</f>
-        <v>ZAROISBasis_2y¬0</v>
+        <v>ZAROISBasis_2y¬3</v>
       </c>
       <c r="I23" t="s">
         <v>12</v>
@@ -4221,27 +4232,27 @@
       </c>
       <c r="M23" t="str">
         <f ca="1">_xll.QIns_CreateIRBasisSwap("USDOISBasis_"&amp;I23,valDate,I23,$J$3,$J$2,L23,TRUE,1,"USD.OIS.1B","USD.LIBOR.3M","USD.OIS.1B","USD.OIS.1B")</f>
-        <v>USDOISBasis_2y¬0</v>
+        <v>USDOISBasis_2y¬3</v>
       </c>
       <c r="U23" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>45088</v>
+        <v>45666</v>
       </c>
       <c r="V23" s="1">
         <f ca="1">_xll.QCurves_GetDF($D$33,valDate,U23)</f>
-        <v>0.67997675136569813</v>
+        <v>0.71676318209954837</v>
       </c>
       <c r="W23" s="1">
         <f ca="1">_xll.QCurves_GetForwardRate($D$33,U23,U24,"Linear","Act365F")</f>
-        <v>9.0402522752556377E-2</v>
+        <v>0.10542241134319731</v>
       </c>
       <c r="X23" s="1">
         <f ca="1">_xll.QCurves_GetDF($D$34,valDate,U23)</f>
-        <v>0.69282326581725506</v>
+        <v>0.72982525635703765</v>
       </c>
       <c r="Y23" s="1">
         <f ca="1">_xll.QCurves_GetDF($D$35,valDate,U23)</f>
-        <v>0.86682206667675066</v>
+        <v>0.97319296193923122</v>
       </c>
     </row>
     <row r="24" spans="2:25" x14ac:dyDescent="0.25">
@@ -4253,7 +4264,7 @@
       </c>
       <c r="F24" t="str">
         <f ca="1">_xll.QIns_CreateIRBasisSwap("ZAROISBasis_"&amp;B24,valDate,B24,oisIndex,index,E24,TRUE,1,"ZAR.OIS.1B","ZAR.JIBAR.3M","ZAR.OIS.1B","ZAR.OIS.1B")</f>
-        <v>ZAROISBasis_5y¬0</v>
+        <v>ZAROISBasis_5y¬3</v>
       </c>
       <c r="I24" t="s">
         <v>15</v>
@@ -4263,27 +4274,27 @@
       </c>
       <c r="M24" t="str">
         <f ca="1">_xll.QIns_CreateIRBasisSwap("USDOISBasis_"&amp;I24,valDate,I24,$J$3,$J$2,L24,TRUE,1,"USD.OIS.1B","USD.LIBOR.3M","USD.OIS.1B","USD.OIS.1B")</f>
-        <v>USDOISBasis_5y¬0</v>
+        <v>USDOISBasis_5y¬3</v>
       </c>
       <c r="U24" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>45180</v>
+        <v>45756</v>
       </c>
       <c r="V24" s="1">
         <f ca="1">_xll.QCurves_GetDF($D$33,valDate,U24)</f>
-        <v>0.66482772794168821</v>
+        <v>0.69860329189583359</v>
       </c>
       <c r="W24" s="1">
         <f ca="1">_xll.QCurves_GetForwardRate($D$33,U24,U25,"Linear","Act365F")</f>
-        <v>9.0136764411830356E-2</v>
+        <v>0.10491977430031936</v>
       </c>
       <c r="X24" s="1">
         <f ca="1">_xll.QCurves_GetDF($D$34,valDate,U24)</f>
-        <v>0.67788059048674476</v>
+        <v>0.7128241353515089</v>
       </c>
       <c r="Y24" s="1">
         <f ca="1">_xll.QCurves_GetDF($D$35,valDate,U24)</f>
-        <v>0.86026946057276932</v>
+        <v>0.97109424852837289</v>
       </c>
     </row>
     <row r="25" spans="2:25" x14ac:dyDescent="0.25">
@@ -4295,7 +4306,7 @@
       </c>
       <c r="F25" t="str">
         <f ca="1">_xll.QIns_CreateIRBasisSwap("ZAROISBasis_"&amp;B25,valDate,B25,oisIndex,index,E25,TRUE,1,"ZAR.OIS.1B","ZAR.JIBAR.3M","ZAR.OIS.1B","ZAR.OIS.1B")</f>
-        <v>ZAROISBasis_10y¬0</v>
+        <v>ZAROISBasis_10y¬3</v>
       </c>
       <c r="I25" t="s">
         <v>17</v>
@@ -4305,49 +4316,49 @@
       </c>
       <c r="M25" t="str">
         <f ca="1">_xll.QIns_CreateIRBasisSwap("USDOISBasis_"&amp;I25,valDate,I25,$J$3,$J$2,L25,TRUE,1,"USD.OIS.1B","USD.LIBOR.3M","USD.OIS.1B","USD.OIS.1B")</f>
-        <v>USDOISBasis_10y¬0</v>
+        <v>USDOISBasis_10y¬3</v>
       </c>
       <c r="U25" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>45271</v>
+        <v>45847</v>
       </c>
       <c r="V25" s="1">
         <f ca="1">_xll.QCurves_GetDF($D$33,valDate,U25)</f>
-        <v>0.65021578391222823</v>
+        <v>0.68079500130077886</v>
       </c>
       <c r="W25" s="1">
         <f ca="1">_xll.QCurves_GetForwardRate($D$33,U25,U26,"Linear","Act365F")</f>
-        <v>9.0868583347310045E-2</v>
+        <v>0.1080593266864182</v>
       </c>
       <c r="X25" s="1">
         <f ca="1">_xll.QCurves_GetDF($D$34,valDate,U25)</f>
-        <v>0.66385703815433872</v>
+        <v>0.69644975390208053</v>
       </c>
       <c r="Y25" s="1">
         <f ca="1">_xll.QCurves_GetDF($D$35,valDate,U25)</f>
-        <v>0.8537877500242792</v>
+        <v>0.96894220533262887</v>
       </c>
     </row>
     <row r="26" spans="2:25" x14ac:dyDescent="0.25">
       <c r="U26" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>45362</v>
+        <v>45939</v>
       </c>
       <c r="V26" s="1">
         <f ca="1">_xll.QCurves_GetDF($D$33,valDate,U26)</f>
-        <v>0.63581153271741697</v>
+        <v>0.66274393011570798</v>
       </c>
       <c r="W26" s="1">
         <f ca="1">_xll.QCurves_GetForwardRate($D$33,U26,U27,"Linear","Act365F")</f>
-        <v>9.1615964415175832E-2</v>
+        <v>0.11120341922427235</v>
       </c>
       <c r="X26" s="1">
         <f ca="1">_xll.QCurves_GetDF($D$34,valDate,U26)</f>
-        <v>0.6500292288278654</v>
+        <v>0.67985976179011709</v>
       </c>
       <c r="Y26" s="1">
         <f ca="1">_xll.QCurves_GetDF($D$35,valDate,U26)</f>
-        <v>0.8473498651655994</v>
+        <v>0.96670075236166575</v>
       </c>
     </row>
     <row r="27" spans="2:25" x14ac:dyDescent="0.25">
@@ -4356,7 +4367,7 @@
       </c>
       <c r="C27" t="str">
         <f ca="1">_xll.QIns_CreateFundingInstrumentCollection("FundingInstruments_ZAR",F6:F25)</f>
-        <v>FundingInstruments_ZAR¬0</v>
+        <v>FundingInstruments_ZAR¬3</v>
       </c>
       <c r="G27" t="s">
         <v>53</v>
@@ -4365,35 +4376,35 @@
         <v>0</v>
       </c>
       <c r="J27" t="str">
-        <f>_xll.QIns_CreateFxPair("USDZAR","ZAR","USD","NYC+JHB","2b")</f>
-        <v>USDZAR¬0</v>
+        <f ca="1">_xll.QIns_CreateFxPair("USDZAR","ZAR","USD","NYC+JHB","2b")</f>
+        <v>USDZAR¬3</v>
       </c>
       <c r="L27" t="s">
         <v>63</v>
       </c>
       <c r="M27">
-        <f>1/Q5</f>
-        <v>6.621551826886149E-2</v>
+        <f ca="1">1/Q5</f>
+        <v>5.5418548588212477E-2</v>
       </c>
       <c r="U27" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>45454</v>
+        <v>46031</v>
       </c>
       <c r="V27" s="1">
         <f ca="1">_xll.QCurves_GetDF($D$33,valDate,U27)</f>
-        <v>0.62146061317004953</v>
+        <v>0.64467413007574426</v>
       </c>
       <c r="W27" s="1">
         <f ca="1">_xll.QCurves_GetForwardRate($D$33,U27,U28,"Linear","Act365F")</f>
-        <v>9.2356275256131104E-2</v>
+        <v>0.11428026635733614</v>
       </c>
       <c r="X27" s="1">
         <f ca="1">_xll.QCurves_GetDF($D$34,valDate,U27)</f>
-        <v>0.63624833980417228</v>
+        <v>0.66325493574990402</v>
       </c>
       <c r="Y27" s="1">
         <f ca="1">_xll.QCurves_GetDF($D$35,valDate,U27)</f>
-        <v>0.84088552529130578</v>
+        <v>0.96439365916425612</v>
       </c>
     </row>
     <row r="28" spans="2:25" x14ac:dyDescent="0.25">
@@ -4402,7 +4413,7 @@
       </c>
       <c r="C28" t="str">
         <f ca="1">_xll.QIns_CreateFundingInstrumentCollection("FundingInstruments_USD",M6:M25)</f>
-        <v>FundingInstruments_USD¬0</v>
+        <v>FundingInstruments_USD¬3</v>
       </c>
       <c r="G28" t="s">
         <v>54</v>
@@ -4412,27 +4423,27 @@
       </c>
       <c r="J28" t="str">
         <f ca="1">_xll.QIns_CreateFxMatrix("fxMatrix","USD",valDate,L27:M27,J27,L29:M30)</f>
-        <v>fxMatrix¬0</v>
+        <v>fxMatrix¬3</v>
       </c>
       <c r="U28" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>45546</v>
+        <v>46121</v>
       </c>
       <c r="V28" s="1">
         <f ca="1">_xll.QCurves_GetDF($D$33,valDate,U28)</f>
-        <v>0.60732284072844955</v>
+        <v>0.62700592095547669</v>
       </c>
       <c r="W28" s="1">
         <f ca="1">_xll.QCurves_GetForwardRate($D$33,U28,U29,"Linear","Act365F")</f>
-        <v>9.3080917788305087E-2</v>
+        <v>0.11739458242899767</v>
       </c>
       <c r="X28" s="1">
         <f ca="1">_xll.QCurves_GetDF($D$34,valDate,U28)</f>
-        <v>0.62266721870191188</v>
+        <v>0.64701654978952006</v>
       </c>
       <c r="Y28" s="1">
         <f ca="1">_xll.QCurves_GetDF($D$35,valDate,U28)</f>
-        <v>0.83446545746877154</v>
+        <v>0.96207368039716645</v>
       </c>
     </row>
     <row r="29" spans="2:25" x14ac:dyDescent="0.25">
@@ -4441,7 +4452,7 @@
       </c>
       <c r="C29" t="str">
         <f ca="1">_xll.QIns_CreateFundingInstrumentCollection("FundingInstruments_XCY",S6:S18)</f>
-        <v>FundingInstruments_XCY¬0</v>
+        <v>FundingInstruments_XCY¬3</v>
       </c>
       <c r="G29" t="s">
         <v>55</v>
@@ -4457,23 +4468,23 @@
       </c>
       <c r="U29" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>45637</v>
+        <v>46212</v>
       </c>
       <c r="V29" s="1">
         <f ca="1">_xll.QCurves_GetDF($D$33,valDate,U29)</f>
-        <v>0.59354866816564278</v>
+        <v>0.60917640085263758</v>
       </c>
       <c r="W29" s="1">
         <f ca="1">_xll.QCurves_GetForwardRate($D$33,U29,U30,"Linear","Act365F")</f>
-        <v>9.3797276742446756E-2</v>
+        <v>0.12054745722348974</v>
       </c>
       <c r="X29" s="1">
         <f ca="1">_xll.QCurves_GetDF($D$34,valDate,U29)</f>
-        <v>0.60942996944214067</v>
+        <v>0.63062259340956817</v>
       </c>
       <c r="Y29" s="1">
         <f ca="1">_xll.QCurves_GetDF($D$35,valDate,U29)</f>
-        <v>0.82815847029312961</v>
+        <v>0.95966502305936352</v>
       </c>
     </row>
     <row r="30" spans="2:25" x14ac:dyDescent="0.25">
@@ -4482,7 +4493,7 @@
       </c>
       <c r="C30" t="str">
         <f ca="1">_xll.QIns_CreateFundingInstrumentCollection("FundingInstrumentsComplex",C27:C29)</f>
-        <v>FundingInstrumentsComplex¬0</v>
+        <v>FundingInstrumentsComplex¬3</v>
       </c>
       <c r="G30" t="s">
         <v>56</v>
@@ -4498,23 +4509,23 @@
       </c>
       <c r="U30" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>45727</v>
+        <v>46304</v>
       </c>
       <c r="V30" s="1">
         <f ca="1">_xll.QCurves_GetDF($D$33,valDate,U30)</f>
-        <v>0.58013133516501425</v>
+        <v>0.59121266156826624</v>
       </c>
       <c r="W30" s="1">
         <f ca="1">_xll.QCurves_GetForwardRate($D$33,U30,U31,"Linear","Act365F")</f>
-        <v>9.4553862103882086E-2</v>
+        <v>0.12370118399362676</v>
       </c>
       <c r="X30" s="1">
         <f ca="1">_xll.QCurves_GetDF($D$34,valDate,U30)</f>
-        <v>0.59652981641541047</v>
+        <v>0.61409313718099956</v>
       </c>
       <c r="Y30" s="1">
         <f ca="1">_xll.QCurves_GetDF($D$35,valDate,U30)</f>
-        <v>0.82196289715911519</v>
+        <v>0.95716611447307498</v>
       </c>
     </row>
     <row r="31" spans="2:25" x14ac:dyDescent="0.25">
@@ -4526,23 +4537,23 @@
       </c>
       <c r="U31" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>45819</v>
+        <v>46396</v>
       </c>
       <c r="V31" s="1">
         <f ca="1">_xll.QCurves_GetDF($D$33,valDate,U31)</f>
-        <v>0.56662705186735196</v>
+        <v>0.5733363347835676</v>
       </c>
       <c r="W31" s="1">
         <f ca="1">_xll.QCurves_GetForwardRate($D$33,U31,U32,"Linear","Act365F")</f>
-        <v>9.5294708779677398E-2</v>
+        <v>0.12677943077668374</v>
       </c>
       <c r="X31" s="1">
         <f ca="1">_xll.QCurves_GetDF($D$34,valDate,U31)</f>
-        <v>0.58353953778685475</v>
+        <v>0.59762748966727686</v>
       </c>
       <c r="Y31" s="1">
         <f ca="1">_xll.QCurves_GetDF($D$35,valDate,U31)</f>
-        <v>0.81567267186626857</v>
+        <v>0.95460360649813236</v>
       </c>
     </row>
     <row r="32" spans="2:25" x14ac:dyDescent="0.25">
@@ -4551,27 +4562,27 @@
       </c>
       <c r="C32" t="str">
         <f ca="1">_xll.QCurves_CreateFundingModel("ModelComplex",valDate,C30,G27:H31,J28)</f>
-        <v>ModelComplex¬0</v>
+        <v>ModelComplex¬3</v>
       </c>
       <c r="U32" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>45911</v>
+        <v>46486</v>
       </c>
       <c r="V32" s="1">
         <f ca="1">_xll.QCurves_GetDF($D$33,valDate,U32)</f>
-        <v>0.55333619952978252</v>
+        <v>0.55595674792479355</v>
       </c>
       <c r="W32" s="1">
         <f ca="1">_xll.QCurves_GetForwardRate($D$33,U32,U33,"Linear","Act365F")</f>
-        <v>9.2503777726692216E-2</v>
+        <v>0.11324381779953492</v>
       </c>
       <c r="X32" s="1">
         <f ca="1">_xll.QCurves_GetDF($D$34,valDate,U32)</f>
-        <v>0.57074745213305456</v>
+        <v>0.58159917600275446</v>
       </c>
       <c r="Y32" s="1">
         <f ca="1">_xll.QCurves_GetDF($D$35,valDate,U32)</f>
-        <v>0.80942569135516473</v>
+        <v>0.95203578923972842</v>
       </c>
     </row>
     <row r="33" spans="2:25" x14ac:dyDescent="0.25">
@@ -4584,27 +4595,27 @@
       </c>
       <c r="D33" t="str">
         <f ca="1">_xll.QCurves_ExtractCurveFromModel($C$32,C33,"curve.complex."&amp;C33)</f>
-        <v>curve.complex.ZAR.JIBAR.3M¬0</v>
+        <v>curve.complex.ZAR.JIBAR.3M¬3</v>
       </c>
       <c r="U33" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>46002</v>
+        <v>46577</v>
       </c>
       <c r="V33" s="1">
         <f ca="1">_xll.QCurves_GetDF($D$33,valDate,U33)</f>
-        <v>0.54086251151692866</v>
+        <v>0.54069120223907363</v>
       </c>
       <c r="W33" s="1">
         <f ca="1">_xll.QCurves_GetForwardRate($D$33,U33,U34,"Linear","Act365F")</f>
-        <v>9.2980021614007174E-2</v>
+        <v>0.11524144192979881</v>
       </c>
       <c r="X33" s="1">
         <f ca="1">_xll.QCurves_GetDF($D$34,valDate,U33)</f>
-        <v>0.55828880543211756</v>
+        <v>0.56548965287335351</v>
       </c>
       <c r="Y33" s="1">
         <f ca="1">_xll.QCurves_GetDF($D$35,valDate,U33)</f>
-        <v>0.80319148051228395</v>
+        <v>0.94925613949209164</v>
       </c>
     </row>
     <row r="34" spans="2:25" x14ac:dyDescent="0.25">
@@ -4617,27 +4628,27 @@
       </c>
       <c r="D34" t="str">
         <f ca="1">_xll.QCurves_ExtractCurveFromModel($C$32,C34,"curve.complex."&amp;C34)</f>
-        <v>curve.complex.ZAR.OIS.1B¬0</v>
+        <v>curve.complex.ZAR.OIS.1B¬3</v>
       </c>
       <c r="U34" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>46092</v>
+        <v>46669</v>
       </c>
       <c r="V34" s="1">
         <f ca="1">_xll.QCurves_GetDF($D$33,valDate,U34)</f>
-        <v>0.52874030427642538</v>
+        <v>0.52542898355393741</v>
       </c>
       <c r="W34" s="1">
         <f ca="1">_xll.QCurves_GetForwardRate($D$33,U34,U35,"Linear","Act365F")</f>
-        <v>9.3494409144794455E-2</v>
+        <v>0.11723344966439958</v>
       </c>
       <c r="X34" s="1">
         <f ca="1">_xll.QCurves_GetDF($D$34,valDate,U34)</f>
-        <v>0.54615659222558233</v>
+        <v>0.54931891008299771</v>
       </c>
       <c r="Y34" s="1">
         <f ca="1">_xll.QCurves_GetDF($D$35,valDate,U34)</f>
-        <v>0.79706183472529535</v>
+        <v>0.9463765345037255</v>
       </c>
     </row>
     <row r="35" spans="2:25" x14ac:dyDescent="0.25">
@@ -4650,27 +4661,27 @@
       </c>
       <c r="D35" t="str">
         <f ca="1">_xll.QCurves_ExtractCurveFromModel($C$32,C35,"curve.complex."&amp;C35)</f>
-        <v>curve.complex.USD.LIBOR.3M¬0</v>
+        <v>curve.complex.USD.LIBOR.3M¬3</v>
       </c>
       <c r="U35" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>46184</v>
+        <v>46761</v>
       </c>
       <c r="V35" s="1">
         <f ca="1">_xll.QCurves_GetDF($D$33,valDate,U35)</f>
-        <v>0.51656703326436171</v>
+        <v>0.51034856466474054</v>
       </c>
       <c r="W35" s="1">
         <f ca="1">_xll.QCurves_GetForwardRate($D$33,U35,U36,"Linear","Act365F")</f>
-        <v>9.3990740550498067E-2</v>
+        <v>0.11919632052293011</v>
       </c>
       <c r="X35" s="1">
         <f ca="1">_xll.QCurves_GetDF($D$34,valDate,U35)</f>
-        <v>0.5339488622715578</v>
+        <v>0.53328091430168234</v>
       </c>
       <c r="Y35" s="1">
         <f ca="1">_xll.QCurves_GetDF($D$35,valDate,U35)</f>
-        <v>0.79083292864844268</v>
+        <v>0.94342782428126803</v>
       </c>
     </row>
     <row r="36" spans="2:25" x14ac:dyDescent="0.25">
@@ -4683,27 +4694,27 @@
       </c>
       <c r="D36" t="str">
         <f ca="1">_xll.QCurves_ExtractCurveFromModel($C$32,C36,"curve.complex."&amp;C36)</f>
-        <v>curve.complex.USD.OIS.1B¬0</v>
+        <v>curve.complex.USD.OIS.1B¬3</v>
       </c>
       <c r="U36" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>46276</v>
+        <v>46852</v>
       </c>
       <c r="V36" s="1">
         <f ca="1">_xll.QCurves_GetDF($D$33,valDate,U36)</f>
-        <v>0.50461235442259156</v>
+        <v>0.49562000741863577</v>
       </c>
       <c r="W36" s="1">
         <f ca="1">_xll.QCurves_GetForwardRate($D$33,U36,U37,"Linear","Act365F")</f>
-        <v>9.4472302459834262E-2</v>
+        <v>0.12116794901357843</v>
       </c>
       <c r="X36" s="1">
         <f ca="1">_xll.QCurves_GetDF($D$34,valDate,U36)</f>
-        <v>0.52193655432800024</v>
+        <v>0.51756317891717318</v>
       </c>
       <c r="Y36" s="1">
         <f ca="1">_xll.QCurves_GetDF($D$35,valDate,U36)</f>
-        <v>0.78464127228750757</v>
+        <v>0.94044386983374151</v>
       </c>
     </row>
     <row r="37" spans="2:25" x14ac:dyDescent="0.25">
@@ -4716,11 +4727,11 @@
       </c>
       <c r="D37" t="str">
         <f ca="1">_xll.QCurves_ExtractCurveFromModel($C$32,C37,"curve.complex."&amp;C37)</f>
-        <v>curve.complex.ZAR.DISC.[USD.OIS.1B]¬0</v>
+        <v>curve.complex.ZAR.DISC.[USD.OIS.1B]¬3</v>
       </c>
       <c r="U37" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>46367</v>
+        <v>46943</v>
       </c>
       <c r="Y37" s="1"/>
     </row>
